--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,25 +456,65 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Pobreza_Multidimennsional_Porcentual</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempeleo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Jornada_Laboral_Promedio</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad Alimentaria</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
@@ -489,13 +529,21 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
         <v>52.700527065868</v>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,13 +556,21 @@
         <v>2.85212872171048</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
         <v>52.7368828037534</v>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -527,13 +583,21 @@
         <v>2.90091140875824</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
         <v>52.7714292375114</v>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -546,13 +610,21 @@
         <v>2.92939479641117</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
         <v>52.7286423999271</v>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -565,13 +637,21 @@
         <v>2.9946388794533</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
         <v>52.5910451870833</v>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,13 +664,21 @@
         <v>3.03495807827148</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
         <v>52.3766930921908</v>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -603,13 +691,21 @@
         <v>3.0625462970905</v>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
         <v>52.1263358427199</v>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -622,13 +718,21 @@
         <v>3.10210241059402</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
         <v>51.8758520927969</v>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -641,13 +745,21 @@
         <v>3.24166761649137</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
         <v>51.7057248462188</v>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -660,13 +772,21 @@
         <v>3.39068946964228</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
         <v>51.6048961777137</v>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -679,13 +799,21 @@
         <v>3.4378636836861</v>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
         <v>51.4889131530788</v>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -698,13 +826,21 @@
         <v>3.48689394774172</v>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
         <v>51.3642910591137</v>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -717,13 +853,21 @@
         <v>3.57045624591974</v>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
         <v>51.2729423508036</v>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -736,13 +880,21 @@
         <v>3.60027787098264</v>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
         <v>51.1821090071982</v>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -755,13 +907,21 @@
         <v>3.60848945776361</v>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
         <v>51.0472135631036</v>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -774,13 +934,21 @@
         <v>3.63908396908399</v>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
         <v>50.9049664617419</v>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -793,13 +961,21 @@
         <v>3.63755866169759</v>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
         <v>50.7697725240729</v>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,13 +988,21 @@
         <v>3.61866152328231</v>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
         <v>50.6305894921085</v>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -831,13 +1015,23 @@
         <v>3.53077102252449</v>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
         <v>50.4500358967336</v>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>82.47</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -850,13 +1044,21 @@
         <v>3.36644037435699</v>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
         <v>50.2019574185466</v>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -869,13 +1071,21 @@
         <v>3.16438478703584</v>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
         <v>49.9163239037342</v>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -888,13 +1098,21 @@
         <v>3.05317909248486</v>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
         <v>49.6600694571945</v>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -907,13 +1125,21 @@
         <v>3.05557860245516</v>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
         <v>49.4696723968966</v>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -926,13 +1152,21 @@
         <v>3.28538970486807</v>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
         <v>49.4235923801063</v>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -945,13 +1179,21 @@
         <v>3.26304867803527</v>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
         <v>49.4521103304455</v>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -964,13 +1206,21 @@
         <v>3.26413176180487</v>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
         <v>49.5748153166701</v>
       </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -983,13 +1233,21 @@
         <v>3.30998403207783</v>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
         <v>49.8066594467964</v>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1002,13 +1260,21 @@
         <v>3.26283888168599</v>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
         <v>50.0995125815434</v>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1021,13 +1287,21 @@
         <v>3.03017868342338</v>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
         <v>50.3494543622908</v>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1040,13 +1314,21 @@
         <v>2.66533890395574</v>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
         <v>50.5112592166937</v>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1059,13 +1341,21 @@
         <v>2.60523548410201</v>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
         <v>50.6982164235277</v>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1080,13 +1370,23 @@
       <c r="D33" t="n">
         <v>73.5</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
         <v>50.8810797553856</v>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>3.6</v>
+      </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1099,13 +1399,21 @@
         <v>2.49709386912698</v>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
         <v>51.0686472363969</v>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1118,13 +1426,21 @@
         <v>3.13737726435695</v>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
         <v>51.5324250080512</v>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1137,13 +1453,21 @@
         <v>3.84179855606781</v>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
         <v>52.2553052479903</v>
       </c>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1156,15 +1480,23 @@
         <v>3.14652813346473</v>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
         <v>52.6428623406976</v>
-      </c>
-      <c r="F37" t="n">
-        <v>295000</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
+        <v>295000</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
         <v>0.9709218132461842</v>
       </c>
     </row>
@@ -1179,19 +1511,33 @@
         <v>1.83364600544135</v>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
         <v>52.4596292054466</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
         <v>326000</v>
       </c>
-      <c r="G38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
         <v>24.4680843353271</v>
       </c>
-      <c r="H38" t="n">
+      <c r="M38" t="n">
+        <v>-0.687850117683411</v>
+      </c>
+      <c r="N38" t="n">
         <v>-0.702762424945831</v>
       </c>
-      <c r="I38" t="n">
+      <c r="O38" t="n">
+        <v>-0.641581654548645</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.186238184571266</v>
+      </c>
+      <c r="Q38" t="n">
         <v>1.053456043512517</v>
       </c>
     </row>
@@ -1206,15 +1552,23 @@
         <v>2.02274347919653</v>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
         <v>52.3338065200842</v>
-      </c>
-      <c r="F39" t="n">
-        <v>360000</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
+        <v>360000</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
         <v>1.140030987942304</v>
       </c>
     </row>
@@ -1229,19 +1583,33 @@
         <v>2.63261492761807</v>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
         <v>52.4349470942082</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
         <v>482000</v>
       </c>
-      <c r="G40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
         <v>32.4468078613281</v>
       </c>
-      <c r="H40" t="n">
+      <c r="M40" t="n">
+        <v>-0.554986298084259</v>
+      </c>
+      <c r="N40" t="n">
         <v>-0.803637623786926</v>
       </c>
-      <c r="I40" t="n">
+      <c r="O40" t="n">
+        <v>-0.516356766223907</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.166287750005722</v>
+      </c>
+      <c r="Q40" t="n">
         <v>1.486715579403598</v>
       </c>
     </row>
@@ -1256,15 +1624,23 @@
         <v>2.67776635574134</v>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
         <v>52.5259621672524</v>
-      </c>
-      <c r="F41" t="n">
-        <v>627000</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
+        <v>627000</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
         <v>1.882864223868052</v>
       </c>
     </row>
@@ -1281,19 +1657,33 @@
       <c r="D42" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
         <v>52.6569996207108</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
         <v>501000</v>
       </c>
-      <c r="G42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
         <v>25.3968257904053</v>
       </c>
-      <c r="H42" t="n">
+      <c r="M42" t="n">
+        <v>-0.556626617908478</v>
+      </c>
+      <c r="N42" t="n">
         <v>-0.810984015464783</v>
       </c>
-      <c r="I42" t="n">
+      <c r="O42" t="n">
+        <v>-0.47222051024437</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-0.3370121717453</v>
+      </c>
+      <c r="Q42" t="n">
         <v>1.462340827046849</v>
       </c>
     </row>
@@ -1308,15 +1698,29 @@
         <v>2.70152074754623</v>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
         <v>52.6975820621332</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
+        <v>0.808757879682355</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.994</v>
+      </c>
+      <c r="I43" t="n">
         <v>525000</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
+        <v>86.438</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
         <v>1.491549350154676</v>
       </c>
     </row>
@@ -1331,19 +1735,37 @@
         <v>2.58850722069614</v>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
         <v>52.6625222702719</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
+        <v>1.62000000476837</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I44" t="n">
         <v>575000</v>
       </c>
-      <c r="G44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
         <v>38.624340057373</v>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="n">
+        <v>-0.48723691701889</v>
+      </c>
+      <c r="N44" t="n">
         <v>-0.840931594371796</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="n">
+        <v>-0.399259209632874</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.341501384973526</v>
+      </c>
+      <c r="Q44" t="n">
         <v>1.591858367017979</v>
       </c>
     </row>
@@ -1358,19 +1780,33 @@
         <v>2.64525638066994</v>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
         <v>52.6175913946662</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
         <v>576000</v>
       </c>
-      <c r="G45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
         <v>22.1105518341064</v>
       </c>
-      <c r="H45" t="n">
+      <c r="M45" t="n">
+        <v>-0.499147057533264</v>
+      </c>
+      <c r="N45" t="n">
         <v>-0.734542429447174</v>
       </c>
-      <c r="I45" t="n">
+      <c r="O45" t="n">
+        <v>-0.42732772231102</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-0.308773815631866</v>
+      </c>
+      <c r="Q45" t="n">
         <v>1.55299787231203</v>
       </c>
     </row>
@@ -1385,19 +1821,33 @@
         <v>2.71326096371365</v>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
         <v>52.5459083959232</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>583000</v>
       </c>
-      <c r="G46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
         <v>24.2718448638916</v>
       </c>
-      <c r="H46" t="n">
+      <c r="M46" t="n">
+        <v>-0.610386073589325</v>
+      </c>
+      <c r="N46" t="n">
         <v>-0.565569579601288</v>
       </c>
-      <c r="I46" t="n">
+      <c r="O46" t="n">
+        <v>-0.533582329750061</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-0.38966566324234</v>
+      </c>
+      <c r="Q46" t="n">
         <v>1.529795536397746</v>
       </c>
     </row>
@@ -1412,19 +1862,33 @@
         <v>2.77513941065557</v>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
         <v>52.4449036339984</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
         <v>613000</v>
       </c>
-      <c r="G47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
         <v>28.1553401947021</v>
       </c>
-      <c r="H47" t="n">
+      <c r="M47" t="n">
+        <v>-0.438366830348969</v>
+      </c>
+      <c r="N47" t="n">
         <v>-0.607605695724487</v>
       </c>
-      <c r="I47" t="n">
+      <c r="O47" t="n">
+        <v>-0.363443344831467</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.286303788423538</v>
+      </c>
+      <c r="Q47" t="n">
         <v>1.564490865670313</v>
       </c>
     </row>
@@ -1439,19 +1903,39 @@
         <v>2.80055623798532</v>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
         <v>52.3349957230943</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
+        <v>1.31394619692309</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.299</v>
+      </c>
+      <c r="I48" t="n">
         <v>644000</v>
       </c>
-      <c r="G48" t="n">
+      <c r="J48" t="n">
+        <v>88.349</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
         <v>33.3333320617676</v>
       </c>
-      <c r="H48" t="n">
+      <c r="M48" t="n">
+        <v>-0.451205492019653</v>
+      </c>
+      <c r="N48" t="n">
         <v>-0.228577166795731</v>
       </c>
-      <c r="I48" t="n">
+      <c r="O48" t="n">
+        <v>-0.200293675065041</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.444665193557739</v>
+      </c>
+      <c r="Q48" t="n">
         <v>1.598217064779063</v>
       </c>
     </row>
@@ -1468,19 +1952,33 @@
       <c r="D49" t="n">
         <v>61.9</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
         <v>52.2392211270465</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
         <v>719000</v>
       </c>
-      <c r="G49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
         <v>31.4009666442871</v>
       </c>
-      <c r="H49" t="n">
+      <c r="M49" t="n">
+        <v>-0.424296855926514</v>
+      </c>
+      <c r="N49" t="n">
         <v>-0.335751265287399</v>
       </c>
-      <c r="I49" t="n">
+      <c r="O49" t="n">
+        <v>-0.142469882965088</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.378879934549332</v>
+      </c>
+      <c r="Q49" t="n">
         <v>1.735226537082491</v>
       </c>
     </row>
@@ -1495,19 +1993,39 @@
         <v>2.70285900109119</v>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
         <v>52.1322480085377</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
+        <v>1.63577972944282</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="I50" t="n">
         <v>770000</v>
       </c>
-      <c r="G50" t="n">
+      <c r="J50" t="n">
+        <v>91.486</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
         <v>37.019229888916</v>
       </c>
-      <c r="H50" t="n">
+      <c r="M50" t="n">
+        <v>-0.53019917011261</v>
+      </c>
+      <c r="N50" t="n">
         <v>-0.416348159313202</v>
       </c>
-      <c r="I50" t="n">
+      <c r="O50" t="n">
+        <v>-0.166212573647499</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.35524570941925</v>
+      </c>
+      <c r="Q50" t="n">
         <v>1.808754597760226</v>
       </c>
     </row>
@@ -1522,19 +2040,35 @@
         <v>2.46693695085578</v>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
         <v>51.9600085085061</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I51" t="n">
         <v>714000</v>
       </c>
-      <c r="G51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
         <v>47.8672981262207</v>
       </c>
-      <c r="H51" t="n">
+      <c r="M51" t="n">
+        <v>-0.627837359905243</v>
+      </c>
+      <c r="N51" t="n">
         <v>-0.447849065065384</v>
       </c>
-      <c r="I51" t="n">
+      <c r="O51" t="n">
+        <v>-0.160290315747261</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.480134069919586</v>
+      </c>
+      <c r="Q51" t="n">
         <v>1.636339310035926</v>
       </c>
     </row>
@@ -1549,19 +2083,39 @@
         <v>2.54448522649017</v>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
         <v>51.8627254774863</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
+        <v>2.0456363458292</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.314</v>
+      </c>
+      <c r="I52" t="n">
         <v>783000</v>
       </c>
-      <c r="G52" t="n">
+      <c r="J52" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
         <v>46.445499420166</v>
       </c>
-      <c r="H52" t="n">
+      <c r="M52" t="n">
+        <v>-0.620883345603943</v>
+      </c>
+      <c r="N52" t="n">
         <v>-0.5422793626785281</v>
       </c>
-      <c r="I52" t="n">
+      <c r="O52" t="n">
+        <v>-0.130868017673492</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.486346453428268</v>
+      </c>
+      <c r="Q52" t="n">
         <v>1.749388853350006</v>
       </c>
     </row>
@@ -1579,18 +2133,38 @@
         <v>51.5</v>
       </c>
       <c r="E53" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F53" t="n">
         <v>51.9194028890295</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="I53" t="n">
         <v>868000</v>
       </c>
-      <c r="G53" t="n">
+      <c r="J53" t="n">
+        <v>82.03</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
         <v>46.445499420166</v>
       </c>
-      <c r="H53" t="n">
+      <c r="M53" t="n">
+        <v>-0.660571336746216</v>
+      </c>
+      <c r="N53" t="n">
         <v>-0.603359639644623</v>
       </c>
-      <c r="I53" t="n">
+      <c r="O53" t="n">
+        <v>-0.141483932733536</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-0.514893710613251</v>
+      </c>
+      <c r="Q53" t="n">
         <v>1.885752632661666</v>
       </c>
     </row>
@@ -1605,19 +2179,39 @@
         <v>2.8799437394168</v>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
         <v>52.0201281031078</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="I54" t="n">
         <v>1077000</v>
       </c>
-      <c r="G54" t="n">
+      <c r="J54" t="n">
+        <v>76.039</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
         <v>47.3933639526367</v>
       </c>
-      <c r="H54" t="n">
+      <c r="M54" t="n">
+        <v>-0.70156067609787</v>
+      </c>
+      <c r="N54" t="n">
         <v>-0.764619529247284</v>
       </c>
-      <c r="I54" t="n">
+      <c r="O54" t="n">
+        <v>-0.176013678312302</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.537633419036865</v>
+      </c>
+      <c r="Q54" t="n">
         <v>2.273386433898915</v>
       </c>
     </row>
@@ -1632,19 +2226,37 @@
         <v>3.01455736724095</v>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
         <v>52.1500522021607</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="I55" t="n">
         <v>1096000</v>
       </c>
-      <c r="G55" t="n">
+      <c r="J55" t="n">
+        <v>78.02</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
         <v>40.7582931518555</v>
       </c>
-      <c r="H55" t="n">
+      <c r="M55" t="n">
+        <v>-0.712978959083557</v>
+      </c>
+      <c r="N55" t="n">
         <v>-0.7811708450317379</v>
       </c>
-      <c r="I55" t="n">
+      <c r="O55" t="n">
+        <v>-0.203858226537704</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.477349400520325</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2.244791755420598</v>
       </c>
     </row>
@@ -1659,19 +2271,39 @@
         <v>3.08040316049107</v>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
         <v>52.2929296769969</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
+        <v>6.03727175759067</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="I56" t="n">
         <v>1140000</v>
       </c>
-      <c r="G56" t="n">
+      <c r="J56" t="n">
+        <v>83.967</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
         <v>25.238094329834</v>
       </c>
-      <c r="H56" t="n">
+      <c r="M56" t="n">
+        <v>-0.657758951187134</v>
+      </c>
+      <c r="N56" t="n">
         <v>-0.761549293994904</v>
       </c>
-      <c r="I56" t="n">
+      <c r="O56" t="n">
+        <v>-0.193490132689476</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.401008069515228</v>
+      </c>
+      <c r="Q56" t="n">
         <v>2.264082953457286</v>
       </c>
     </row>
@@ -1686,19 +2318,37 @@
         <v>3.26181042317192</v>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
         <v>52.525953864521</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
+        <v>5.27380990982056</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
         <v>1137000</v>
       </c>
-      <c r="G57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="L57" t="n">
         <v>30.9523811340332</v>
       </c>
-      <c r="H57" t="n">
+      <c r="M57" t="n">
+        <v>-0.653441548347473</v>
+      </c>
+      <c r="N57" t="n">
         <v>-0.709870934486389</v>
       </c>
-      <c r="I57" t="n">
+      <c r="O57" t="n">
+        <v>-0.222135826945305</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.395599663257599</v>
+      </c>
+      <c r="Q57" t="n">
         <v>2.185657389419288</v>
       </c>
     </row>
@@ -1713,19 +2363,35 @@
         <v>3.40729531415315</v>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
         <v>52.8248609036268</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
         <v>1284000</v>
       </c>
-      <c r="G58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>55</v>
+      </c>
+      <c r="L58" t="n">
         <v>28.5714282989502</v>
       </c>
-      <c r="H58" t="n">
+      <c r="M58" t="n">
+        <v>-0.606901288032532</v>
+      </c>
+      <c r="N58" t="n">
         <v>-0.531419515609741</v>
       </c>
-      <c r="I58" t="n">
+      <c r="O58" t="n">
+        <v>-0.223375126719475</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-0.396327495574951</v>
+      </c>
+      <c r="Q58" t="n">
         <v>2.385552337021025</v>
       </c>
     </row>
@@ -1740,19 +2406,35 @@
         <v>3.3414302210835</v>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
         <v>53.0736238495431</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
         <v>1327000</v>
       </c>
-      <c r="G59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="L59" t="n">
         <v>26.1904754638672</v>
       </c>
-      <c r="H59" t="n">
+      <c r="M59" t="n">
+        <v>-0.682187914848328</v>
+      </c>
+      <c r="N59" t="n">
         <v>-0.486995428800583</v>
       </c>
-      <c r="I59" t="n">
+      <c r="O59" t="n">
+        <v>-0.278485029935837</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.470542252063751</v>
+      </c>
+      <c r="Q59" t="n">
         <v>2.384422444189331</v>
       </c>
     </row>
@@ -1770,18 +2452,38 @@
         <v>51.3</v>
       </c>
       <c r="E60" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="F60" t="n">
         <v>53.2535161109898</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
+        <v>4.05194997787476</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
         <v>1506000</v>
       </c>
-      <c r="G60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="L60" t="n">
         <v>25.4716987609863</v>
       </c>
-      <c r="H60" t="n">
+      <c r="M60" t="n">
+        <v>-0.779476463794708</v>
+      </c>
+      <c r="N60" t="n">
         <v>-0.475951611995697</v>
       </c>
-      <c r="I60" t="n">
+      <c r="O60" t="n">
+        <v>-0.380523890256882</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.573051035404205</v>
+      </c>
+      <c r="Q60" t="n">
         <v>2.62199661908683</v>
       </c>
     </row>
@@ -1796,19 +2498,35 @@
         <v>2.98060939385811</v>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
         <v>53.4064794475076</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
         <v>1527000</v>
       </c>
-      <c r="G61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="L61" t="n">
         <v>30.6603775024414</v>
       </c>
-      <c r="H61" t="n">
+      <c r="M61" t="n">
+        <v>-0.854386746883392</v>
+      </c>
+      <c r="N61" t="n">
         <v>-0.420570701360703</v>
       </c>
-      <c r="I61" t="n">
+      <c r="O61" t="n">
+        <v>-0.521158754825592</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-0.567784249782562</v>
+      </c>
+      <c r="Q61" t="n">
         <v>2.580486375547358</v>
       </c>
     </row>
@@ -1823,17 +2541,37 @@
         <v>2.99305168844906</v>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="n">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
         <v>53.6083841322846</v>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="n">
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>82.84999999999999</v>
+      </c>
+      <c r="K62" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="L62" t="n">
         <v>27.3584899902344</v>
       </c>
-      <c r="H62" t="n">
+      <c r="M62" t="n">
+        <v>-0.73927241563797</v>
+      </c>
+      <c r="N62" t="n">
         <v>-0.405753612518311</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="O62" t="n">
+        <v>-0.735241413116455</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-0.615206003189087</v>
+      </c>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1846,17 +2584,33 @@
         <v>3.00113934816488</v>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
         <v>53.839348530772</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="n">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="L63" t="n">
         <v>34.4339637756348</v>
       </c>
-      <c r="H63" t="n">
+      <c r="M63" t="n">
+        <v>-0.648341059684753</v>
+      </c>
+      <c r="N63" t="n">
         <v>-0.39461013674736</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>-0.7145538926124571</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.551462709903717</v>
+      </c>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1869,17 +2623,35 @@
         <v>2.95046658393064</v>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
         <v>54.0487270478758</v>
       </c>
-      <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
+        <v>6.54216003417969</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="L64" t="n">
         <v>37.2641525268555</v>
       </c>
-      <c r="H64" t="n">
+      <c r="M64" t="n">
+        <v>-0.460365831851959</v>
+      </c>
+      <c r="N64" t="n">
         <v>-0.354882270097733</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="O64" t="n">
+        <v>-0.65319699048996</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.462281912565231</v>
+      </c>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1892,17 +2664,33 @@
         <v>2.90250073555304</v>
       </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
         <v>54.2329053806519</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="n">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>58</v>
+      </c>
+      <c r="L65" t="n">
         <v>44.0758285522461</v>
       </c>
-      <c r="H65" t="n">
+      <c r="M65" t="n">
+        <v>-0.455080926418304</v>
+      </c>
+      <c r="N65" t="n">
         <v>-0.319897323846817</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>-0.533726751804352</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.373498290777206</v>
+      </c>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1915,13 +2703,21 @@
         <v>2.87426672866542</v>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
         <v>54.4188908435551</v>
       </c>
-      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,11 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Calidad_Regulatoria</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
@@ -544,6 +549,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -571,6 +577,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -598,6 +605,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -625,6 +633,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -652,6 +661,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -679,6 +689,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -706,6 +717,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -733,6 +745,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -760,6 +773,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -787,6 +801,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -814,6 +829,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -841,6 +857,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -868,6 +885,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -895,6 +913,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -922,6 +941,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -949,6 +969,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -976,6 +997,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1003,6 +1025,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1032,6 +1055,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1059,6 +1083,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1086,6 +1111,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1113,6 +1139,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1140,6 +1167,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1167,6 +1195,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1194,6 +1223,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1221,6 +1251,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1248,6 +1279,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1275,6 +1307,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1302,6 +1335,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1329,6 +1363,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1356,6 +1391,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1387,6 +1423,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1414,6 +1451,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1441,6 +1479,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1468,6 +1507,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1496,7 +1536,8 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="n">
         <v>0.9709218132461842</v>
       </c>
     </row>
@@ -1538,6 +1579,9 @@
         <v>-0.186238184571266</v>
       </c>
       <c r="Q38" t="n">
+        <v>31.5217399597168</v>
+      </c>
+      <c r="R38" t="n">
         <v>1.053456043512517</v>
       </c>
     </row>
@@ -1568,7 +1612,8 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="n">
         <v>1.140030987942304</v>
       </c>
     </row>
@@ -1610,6 +1655,9 @@
         <v>-0.166287750005722</v>
       </c>
       <c r="Q40" t="n">
+        <v>34.7826080322266</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.486715579403598</v>
       </c>
     </row>
@@ -1640,7 +1688,8 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>1.882864223868052</v>
       </c>
     </row>
@@ -1684,6 +1733,9 @@
         <v>-0.3370121717453</v>
       </c>
       <c r="Q42" t="n">
+        <v>33.152172088623</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.462340827046849</v>
       </c>
     </row>
@@ -1720,7 +1772,8 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
         <v>1.491549350154676</v>
       </c>
     </row>
@@ -1766,6 +1819,9 @@
         <v>-0.341501384973526</v>
       </c>
       <c r="Q44" t="n">
+        <v>28.1081085205078</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.591858367017979</v>
       </c>
     </row>
@@ -1807,6 +1863,9 @@
         <v>-0.308773815631866</v>
       </c>
       <c r="Q45" t="n">
+        <v>29.1891899108887</v>
+      </c>
+      <c r="R45" t="n">
         <v>1.55299787231203</v>
       </c>
     </row>
@@ -1848,6 +1907,9 @@
         <v>-0.38966566324234</v>
       </c>
       <c r="Q46" t="n">
+        <v>32.8358192443848</v>
+      </c>
+      <c r="R46" t="n">
         <v>1.529795536397746</v>
       </c>
     </row>
@@ -1889,6 +1951,9 @@
         <v>-0.286303788423538</v>
       </c>
       <c r="Q47" t="n">
+        <v>35.7843132019043</v>
+      </c>
+      <c r="R47" t="n">
         <v>1.564490865670313</v>
       </c>
     </row>
@@ -1936,6 +2001,9 @@
         <v>-0.444665193557739</v>
       </c>
       <c r="Q48" t="n">
+        <v>38.7254905700684</v>
+      </c>
+      <c r="R48" t="n">
         <v>1.598217064779063</v>
       </c>
     </row>
@@ -1979,6 +2047,9 @@
         <v>-0.378879934549332</v>
       </c>
       <c r="Q49" t="n">
+        <v>34.9514579772949</v>
+      </c>
+      <c r="R49" t="n">
         <v>1.735226537082491</v>
       </c>
     </row>
@@ -2026,6 +2097,9 @@
         <v>-0.35524570941925</v>
       </c>
       <c r="Q50" t="n">
+        <v>31.5533981323242</v>
+      </c>
+      <c r="R50" t="n">
         <v>1.808754597760226</v>
       </c>
     </row>
@@ -2069,6 +2143,9 @@
         <v>-0.480134069919586</v>
       </c>
       <c r="Q51" t="n">
+        <v>34.9282302856445</v>
+      </c>
+      <c r="R51" t="n">
         <v>1.636339310035926</v>
       </c>
     </row>
@@ -2116,6 +2193,9 @@
         <v>-0.486346453428268</v>
       </c>
       <c r="Q52" t="n">
+        <v>34.9282302856445</v>
+      </c>
+      <c r="R52" t="n">
         <v>1.749388853350006</v>
       </c>
     </row>
@@ -2165,6 +2245,9 @@
         <v>-0.514893710613251</v>
       </c>
       <c r="Q53" t="n">
+        <v>35.5450248718262</v>
+      </c>
+      <c r="R53" t="n">
         <v>1.885752632661666</v>
       </c>
     </row>
@@ -2212,6 +2295,9 @@
         <v>-0.537633419036865</v>
       </c>
       <c r="Q54" t="n">
+        <v>36.9668235778809</v>
+      </c>
+      <c r="R54" t="n">
         <v>2.273386433898915</v>
       </c>
     </row>
@@ -2257,6 +2343,9 @@
         <v>-0.477349400520325</v>
       </c>
       <c r="Q55" t="n">
+        <v>39.8104248046875</v>
+      </c>
+      <c r="R55" t="n">
         <v>2.244791755420598</v>
       </c>
     </row>
@@ -2304,6 +2393,9 @@
         <v>-0.401008069515228</v>
       </c>
       <c r="Q56" t="n">
+        <v>38.9423065185547</v>
+      </c>
+      <c r="R56" t="n">
         <v>2.264082953457286</v>
       </c>
     </row>
@@ -2349,6 +2441,9 @@
         <v>-0.395599663257599</v>
       </c>
       <c r="Q57" t="n">
+        <v>36.6666679382324</v>
+      </c>
+      <c r="R57" t="n">
         <v>2.185657389419288</v>
       </c>
     </row>
@@ -2392,6 +2487,9 @@
         <v>-0.396327495574951</v>
       </c>
       <c r="Q58" t="n">
+        <v>34.2857131958008</v>
+      </c>
+      <c r="R58" t="n">
         <v>2.385552337021025</v>
       </c>
     </row>
@@ -2435,6 +2533,9 @@
         <v>-0.470542252063751</v>
       </c>
       <c r="Q59" t="n">
+        <v>29.5238094329834</v>
+      </c>
+      <c r="R59" t="n">
         <v>2.384422444189331</v>
       </c>
     </row>
@@ -2484,6 +2585,9 @@
         <v>-0.573051035404205</v>
       </c>
       <c r="Q60" t="n">
+        <v>29.0476188659668</v>
+      </c>
+      <c r="R60" t="n">
         <v>2.62199661908683</v>
       </c>
     </row>
@@ -2527,6 +2631,9 @@
         <v>-0.567784249782562</v>
       </c>
       <c r="Q61" t="n">
+        <v>28.0952377319336</v>
+      </c>
+      <c r="R61" t="n">
         <v>2.580486375547358</v>
       </c>
     </row>
@@ -2571,7 +2678,10 @@
       <c r="P62" t="n">
         <v>-0.615206003189087</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>26.1904754638672</v>
+      </c>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2610,7 +2720,10 @@
       <c r="P63" t="n">
         <v>-0.551462709903717</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>29.0476188659668</v>
+      </c>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2651,7 +2764,10 @@
       <c r="P64" t="n">
         <v>-0.462281912565231</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>30.1886787414551</v>
+      </c>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2690,7 +2806,10 @@
       <c r="P65" t="n">
         <v>-0.373498290777206</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>30.1886787414551</v>
+      </c>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2718,6 +2837,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,11 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Homicidios</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
@@ -550,6 +555,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -578,6 +584,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -606,6 +613,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -634,6 +642,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -662,6 +671,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -690,6 +700,7 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -718,6 +729,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -746,6 +758,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -774,6 +787,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -802,6 +816,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -830,6 +845,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -858,6 +874,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -886,6 +903,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -914,6 +932,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -942,6 +961,7 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -970,6 +990,7 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -998,6 +1019,7 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1026,6 +1048,7 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1056,6 +1079,7 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1084,6 +1108,7 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1112,6 +1137,7 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1140,6 +1166,7 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1168,6 +1195,7 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1196,6 +1224,7 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1224,6 +1253,7 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1252,6 +1282,7 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1280,6 +1311,7 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1308,6 +1340,7 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1336,6 +1369,7 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1364,6 +1398,7 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1392,6 +1427,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1424,6 +1460,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1452,6 +1489,7 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1480,6 +1518,7 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1508,6 +1547,7 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1538,6 +1578,9 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
+        <v>6.94455940999813</v>
+      </c>
+      <c r="S37" t="n">
         <v>0.9709218132461842</v>
       </c>
     </row>
@@ -1582,6 +1625,9 @@
         <v>31.5217399597168</v>
       </c>
       <c r="R38" t="n">
+        <v>7.37742376484379</v>
+      </c>
+      <c r="S38" t="n">
         <v>1.053456043512517</v>
       </c>
     </row>
@@ -1614,6 +1660,9 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
+        <v>7.45770271278924</v>
+      </c>
+      <c r="S39" t="n">
         <v>1.140030987942304</v>
       </c>
     </row>
@@ -1657,7 +1706,8 @@
       <c r="Q40" t="n">
         <v>34.7826080322266</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="n">
         <v>1.486715579403598</v>
       </c>
     </row>
@@ -1689,7 +1739,8 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="n">
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="n">
         <v>1.882864223868052</v>
       </c>
     </row>
@@ -1735,7 +1786,8 @@
       <c r="Q42" t="n">
         <v>33.152172088623</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="n">
         <v>1.462340827046849</v>
       </c>
     </row>
@@ -1773,7 +1825,8 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="n">
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="n">
         <v>1.491549350154676</v>
       </c>
     </row>
@@ -1821,7 +1874,8 @@
       <c r="Q44" t="n">
         <v>28.1081085205078</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
         <v>1.591858367017979</v>
       </c>
     </row>
@@ -1866,6 +1920,9 @@
         <v>29.1891899108887</v>
       </c>
       <c r="R45" t="n">
+        <v>7.48997932167156</v>
+      </c>
+      <c r="S45" t="n">
         <v>1.55299787231203</v>
       </c>
     </row>
@@ -1910,6 +1967,9 @@
         <v>32.8358192443848</v>
       </c>
       <c r="R46" t="n">
+        <v>7.6778416479797</v>
+      </c>
+      <c r="S46" t="n">
         <v>1.529795536397746</v>
       </c>
     </row>
@@ -1953,7 +2013,8 @@
       <c r="Q47" t="n">
         <v>35.7843132019043</v>
       </c>
-      <c r="R47" t="n">
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="n">
         <v>1.564490865670313</v>
       </c>
     </row>
@@ -2003,7 +2064,8 @@
       <c r="Q48" t="n">
         <v>38.7254905700684</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="n">
         <v>1.598217064779063</v>
       </c>
     </row>
@@ -2049,7 +2111,8 @@
       <c r="Q49" t="n">
         <v>34.9514579772949</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="n">
         <v>1.735226537082491</v>
       </c>
     </row>
@@ -2099,7 +2162,8 @@
       <c r="Q50" t="n">
         <v>31.5533981323242</v>
       </c>
-      <c r="R50" t="n">
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="n">
         <v>1.808754597760226</v>
       </c>
     </row>
@@ -2145,7 +2209,8 @@
       <c r="Q51" t="n">
         <v>34.9282302856445</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="n">
         <v>1.636339310035926</v>
       </c>
     </row>
@@ -2196,6 +2261,9 @@
         <v>34.9282302856445</v>
       </c>
       <c r="R52" t="n">
+        <v>8.68662061022504</v>
+      </c>
+      <c r="S52" t="n">
         <v>1.749388853350006</v>
       </c>
     </row>
@@ -2248,6 +2316,9 @@
         <v>35.5450248718262</v>
       </c>
       <c r="R53" t="n">
+        <v>9.013810683079781</v>
+      </c>
+      <c r="S53" t="n">
         <v>1.885752632661666</v>
       </c>
     </row>
@@ -2298,6 +2369,9 @@
         <v>36.9668235778809</v>
       </c>
       <c r="R54" t="n">
+        <v>8.637601847104291</v>
+      </c>
+      <c r="S54" t="n">
         <v>2.273386433898915</v>
       </c>
     </row>
@@ -2346,6 +2420,9 @@
         <v>39.8104248046875</v>
       </c>
       <c r="R55" t="n">
+        <v>7.57207576168001</v>
+      </c>
+      <c r="S55" t="n">
         <v>2.244791755420598</v>
       </c>
     </row>
@@ -2395,7 +2472,8 @@
       <c r="Q56" t="n">
         <v>38.9423065185547</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="n">
         <v>2.264082953457286</v>
       </c>
     </row>
@@ -2444,6 +2522,9 @@
         <v>36.6666679382324</v>
       </c>
       <c r="R57" t="n">
+        <v>7.20094334280093</v>
+      </c>
+      <c r="S57" t="n">
         <v>2.185657389419288</v>
       </c>
     </row>
@@ -2490,6 +2571,9 @@
         <v>34.2857131958008</v>
       </c>
       <c r="R58" t="n">
+        <v>6.38934150079073</v>
+      </c>
+      <c r="S58" t="n">
         <v>2.385552337021025</v>
       </c>
     </row>
@@ -2536,6 +2620,9 @@
         <v>29.5238094329834</v>
       </c>
       <c r="R59" t="n">
+        <v>5.65469286500665</v>
+      </c>
+      <c r="S59" t="n">
         <v>2.384422444189331</v>
       </c>
     </row>
@@ -2588,6 +2675,9 @@
         <v>29.0476188659668</v>
       </c>
       <c r="R60" t="n">
+        <v>4.75998593558216</v>
+      </c>
+      <c r="S60" t="n">
         <v>2.62199661908683</v>
       </c>
     </row>
@@ -2634,6 +2724,9 @@
         <v>28.0952377319336</v>
       </c>
       <c r="R61" t="n">
+        <v>4.59485426006108</v>
+      </c>
+      <c r="S61" t="n">
         <v>2.580486375547358</v>
       </c>
     </row>
@@ -2681,7 +2774,10 @@
       <c r="Q62" t="n">
         <v>26.1904754638672</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>3.74921291744897</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2724,6 +2820,7 @@
         <v>29.0476188659668</v>
       </c>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2768,6 +2865,7 @@
         <v>30.1886787414551</v>
       </c>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2810,6 +2908,7 @@
         <v>30.1886787414551</v>
       </c>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2838,6 +2937,7 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -1577,8 +1577,10 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="n">
-        <v>6.94455940999813</v>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S37" t="n">
         <v>0.9709218132461842</v>
@@ -1606,26 +1608,40 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>24.4680843353271</v>
-      </c>
-      <c r="M38" t="n">
-        <v>-0.687850117683411</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-0.702762424945831</v>
-      </c>
-      <c r="O38" t="n">
-        <v>-0.641581654548645</v>
-      </c>
-      <c r="P38" t="n">
-        <v>-0.186238184571266</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>31.5217399597168</v>
-      </c>
-      <c r="R38" t="n">
-        <v>7.37742376484379</v>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Muy alto</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S38" t="n">
         <v>1.053456043512517</v>
@@ -1659,8 +1675,10 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="n">
-        <v>7.45770271278924</v>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S39" t="n">
         <v>1.140030987942304</v>
@@ -1688,23 +1706,35 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>32.4468078613281</v>
-      </c>
-      <c r="M40" t="n">
-        <v>-0.554986298084259</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-0.803637623786926</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-0.516356766223907</v>
-      </c>
-      <c r="P40" t="n">
-        <v>-0.166287750005722</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>34.7826080322266</v>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
@@ -1768,23 +1798,35 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>25.3968257904053</v>
-      </c>
-      <c r="M42" t="n">
-        <v>-0.556626617908478</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-0.810984015464783</v>
-      </c>
-      <c r="O42" t="n">
-        <v>-0.47222051024437</v>
-      </c>
-      <c r="P42" t="n">
-        <v>-0.3370121717453</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>33.152172088623</v>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
@@ -1856,23 +1898,35 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>38.624340057373</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.48723691701889</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-0.840931594371796</v>
-      </c>
-      <c r="O44" t="n">
-        <v>-0.399259209632874</v>
-      </c>
-      <c r="P44" t="n">
-        <v>-0.341501384973526</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>28.1081085205078</v>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
@@ -1901,26 +1955,40 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>22.1105518341064</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-0.499147057533264</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-0.734542429447174</v>
-      </c>
-      <c r="O45" t="n">
-        <v>-0.42732772231102</v>
-      </c>
-      <c r="P45" t="n">
-        <v>-0.308773815631866</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>29.1891899108887</v>
-      </c>
-      <c r="R45" t="n">
-        <v>7.48997932167156</v>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Muy alto</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S45" t="n">
         <v>1.55299787231203</v>
@@ -1948,26 +2016,40 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>24.2718448638916</v>
-      </c>
-      <c r="M46" t="n">
-        <v>-0.610386073589325</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-0.565569579601288</v>
-      </c>
-      <c r="O46" t="n">
-        <v>-0.533582329750061</v>
-      </c>
-      <c r="P46" t="n">
-        <v>-0.38966566324234</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>32.8358192443848</v>
-      </c>
-      <c r="R46" t="n">
-        <v>7.6778416479797</v>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Muy alto</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S46" t="n">
         <v>1.529795536397746</v>
@@ -1995,23 +2077,35 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>28.1553401947021</v>
-      </c>
-      <c r="M47" t="n">
-        <v>-0.438366830348969</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-0.607605695724487</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-0.363443344831467</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-0.286303788423538</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>35.7843132019043</v>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
@@ -2046,23 +2140,35 @@
         <v>88.349</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>33.3333320617676</v>
-      </c>
-      <c r="M48" t="n">
-        <v>-0.451205492019653</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-0.228577166795731</v>
-      </c>
-      <c r="O48" t="n">
-        <v>-0.200293675065041</v>
-      </c>
-      <c r="P48" t="n">
-        <v>-0.444665193557739</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>38.7254905700684</v>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
@@ -2093,23 +2199,35 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>31.4009666442871</v>
-      </c>
-      <c r="M49" t="n">
-        <v>-0.424296855926514</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-0.335751265287399</v>
-      </c>
-      <c r="O49" t="n">
-        <v>-0.142469882965088</v>
-      </c>
-      <c r="P49" t="n">
-        <v>-0.378879934549332</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>34.9514579772949</v>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
@@ -2144,23 +2262,35 @@
         <v>91.486</v>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>37.019229888916</v>
-      </c>
-      <c r="M50" t="n">
-        <v>-0.53019917011261</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-0.416348159313202</v>
-      </c>
-      <c r="O50" t="n">
-        <v>-0.166212573647499</v>
-      </c>
-      <c r="P50" t="n">
-        <v>-0.35524570941925</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>31.5533981323242</v>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
@@ -2191,23 +2321,35 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>47.8672981262207</v>
-      </c>
-      <c r="M51" t="n">
-        <v>-0.627837359905243</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-0.447849065065384</v>
-      </c>
-      <c r="O51" t="n">
-        <v>-0.160290315747261</v>
-      </c>
-      <c r="P51" t="n">
-        <v>-0.480134069919586</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>34.9282302856445</v>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
@@ -2242,26 +2384,40 @@
         <v>83.52</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>46.445499420166</v>
-      </c>
-      <c r="M52" t="n">
-        <v>-0.620883345603943</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-0.5422793626785281</v>
-      </c>
-      <c r="O52" t="n">
-        <v>-0.130868017673492</v>
-      </c>
-      <c r="P52" t="n">
-        <v>-0.486346453428268</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>34.9282302856445</v>
-      </c>
-      <c r="R52" t="n">
-        <v>8.68662061022504</v>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S52" t="n">
         <v>1.749388853350006</v>
@@ -2297,26 +2453,40 @@
         <v>82.03</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>46.445499420166</v>
-      </c>
-      <c r="M53" t="n">
-        <v>-0.660571336746216</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-0.603359639644623</v>
-      </c>
-      <c r="O53" t="n">
-        <v>-0.141483932733536</v>
-      </c>
-      <c r="P53" t="n">
-        <v>-0.514893710613251</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>35.5450248718262</v>
-      </c>
-      <c r="R53" t="n">
-        <v>9.013810683079781</v>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S53" t="n">
         <v>1.885752632661666</v>
@@ -2350,26 +2520,40 @@
         <v>76.039</v>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>47.3933639526367</v>
-      </c>
-      <c r="M54" t="n">
-        <v>-0.70156067609787</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-0.764619529247284</v>
-      </c>
-      <c r="O54" t="n">
-        <v>-0.176013678312302</v>
-      </c>
-      <c r="P54" t="n">
-        <v>-0.537633419036865</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>36.9668235778809</v>
-      </c>
-      <c r="R54" t="n">
-        <v>8.637601847104291</v>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S54" t="n">
         <v>2.273386433898915</v>
@@ -2401,26 +2585,40 @@
         <v>78.02</v>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>40.7582931518555</v>
-      </c>
-      <c r="M55" t="n">
-        <v>-0.712978959083557</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-0.7811708450317379</v>
-      </c>
-      <c r="O55" t="n">
-        <v>-0.203858226537704</v>
-      </c>
-      <c r="P55" t="n">
-        <v>-0.477349400520325</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>39.8104248046875</v>
-      </c>
-      <c r="R55" t="n">
-        <v>7.57207576168001</v>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S55" t="n">
         <v>2.244791755420598</v>
@@ -2454,23 +2652,35 @@
         <v>83.967</v>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>25.238094329834</v>
-      </c>
-      <c r="M56" t="n">
-        <v>-0.657758951187134</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-0.761549293994904</v>
-      </c>
-      <c r="O56" t="n">
-        <v>-0.193490132689476</v>
-      </c>
-      <c r="P56" t="n">
-        <v>-0.401008069515228</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>38.9423065185547</v>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
@@ -2503,26 +2713,40 @@
       <c r="K57" t="n">
         <v>48.8</v>
       </c>
-      <c r="L57" t="n">
-        <v>30.9523811340332</v>
-      </c>
-      <c r="M57" t="n">
-        <v>-0.653441548347473</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-0.709870934486389</v>
-      </c>
-      <c r="O57" t="n">
-        <v>-0.222135826945305</v>
-      </c>
-      <c r="P57" t="n">
-        <v>-0.395599663257599</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>36.6666679382324</v>
-      </c>
-      <c r="R57" t="n">
-        <v>7.20094334280093</v>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S57" t="n">
         <v>2.185657389419288</v>
@@ -2552,26 +2776,40 @@
       <c r="K58" t="n">
         <v>55</v>
       </c>
-      <c r="L58" t="n">
-        <v>28.5714282989502</v>
-      </c>
-      <c r="M58" t="n">
-        <v>-0.606901288032532</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-0.531419515609741</v>
-      </c>
-      <c r="O58" t="n">
-        <v>-0.223375126719475</v>
-      </c>
-      <c r="P58" t="n">
-        <v>-0.396327495574951</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>34.2857131958008</v>
-      </c>
-      <c r="R58" t="n">
-        <v>6.38934150079073</v>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S58" t="n">
         <v>2.385552337021025</v>
@@ -2601,26 +2839,40 @@
       <c r="K59" t="n">
         <v>56.6</v>
       </c>
-      <c r="L59" t="n">
-        <v>26.1904754638672</v>
-      </c>
-      <c r="M59" t="n">
-        <v>-0.682187914848328</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-0.486995428800583</v>
-      </c>
-      <c r="O59" t="n">
-        <v>-0.278485029935837</v>
-      </c>
-      <c r="P59" t="n">
-        <v>-0.470542252063751</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>29.5238094329834</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5.65469286500665</v>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Riesgo medio — violencia moderada o localizada</t>
+        </is>
       </c>
       <c r="S59" t="n">
         <v>2.384422444189331</v>
@@ -2656,26 +2908,40 @@
       <c r="K60" t="n">
         <v>56.1</v>
       </c>
-      <c r="L60" t="n">
-        <v>25.4716987609863</v>
-      </c>
-      <c r="M60" t="n">
-        <v>-0.779476463794708</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-0.475951611995697</v>
-      </c>
-      <c r="O60" t="n">
-        <v>-0.380523890256882</v>
-      </c>
-      <c r="P60" t="n">
-        <v>-0.573051035404205</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>29.0476188659668</v>
-      </c>
-      <c r="R60" t="n">
-        <v>4.75998593558216</v>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Riesgo bajo — niveles bajos de violencia</t>
+        </is>
       </c>
       <c r="S60" t="n">
         <v>2.62199661908683</v>
@@ -2705,26 +2971,40 @@
       <c r="K61" t="n">
         <v>56.3</v>
       </c>
-      <c r="L61" t="n">
-        <v>30.6603775024414</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-0.854386746883392</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-0.420570701360703</v>
-      </c>
-      <c r="O61" t="n">
-        <v>-0.521158754825592</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-0.567784249782562</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>28.0952377319336</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4.59485426006108</v>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Riesgo bajo — niveles bajos de violencia</t>
+        </is>
       </c>
       <c r="S61" t="n">
         <v>2.580486375547358</v>
@@ -2756,26 +3036,40 @@
       <c r="K62" t="n">
         <v>57.6</v>
       </c>
-      <c r="L62" t="n">
-        <v>27.3584899902344</v>
-      </c>
-      <c r="M62" t="n">
-        <v>-0.73927241563797</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-0.405753612518311</v>
-      </c>
-      <c r="O62" t="n">
-        <v>-0.735241413116455</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-0.615206003189087</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>26.1904754638672</v>
-      </c>
-      <c r="R62" t="n">
-        <v>3.74921291744897</v>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Riesgo bajo — niveles bajos de violencia</t>
+        </is>
       </c>
       <c r="S62" t="inlineStr"/>
     </row>
@@ -2801,23 +3095,35 @@
       <c r="K63" t="n">
         <v>58.7</v>
       </c>
-      <c r="L63" t="n">
-        <v>34.4339637756348</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.648341059684753</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-0.39461013674736</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-0.7145538926124571</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-0.551462709903717</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>29.0476188659668</v>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
@@ -2846,23 +3152,35 @@
       <c r="K64" t="n">
         <v>58.2</v>
       </c>
-      <c r="L64" t="n">
-        <v>37.2641525268555</v>
-      </c>
-      <c r="M64" t="n">
-        <v>-0.460365831851959</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-0.354882270097733</v>
-      </c>
-      <c r="O64" t="n">
-        <v>-0.65319699048996</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-0.462281912565231</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>30.1886787414551</v>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
@@ -2889,23 +3207,35 @@
       <c r="K65" t="n">
         <v>58</v>
       </c>
-      <c r="L65" t="n">
-        <v>44.0758285522461</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-0.455080926418304</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-0.319897323846817</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-0.533726751804352</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-0.373498290777206</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>30.1886787414551</v>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Riesgo alto</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual</t>
+          <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempeleo</t>
+          <t>Tasa_Desempleo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,12 +481,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Jornada_Laboral_Promedio</t>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Inseguridad Alimentaria</t>
+          <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -1615,22 +1615,22 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -1805,22 +1805,22 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -1905,22 +1905,22 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -1962,22 +1962,22 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -2023,22 +2023,22 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -2084,22 +2084,22 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -2147,22 +2147,22 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -2206,22 +2206,22 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -2269,22 +2269,22 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -2328,22 +2328,22 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -2460,22 +2460,22 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -2527,22 +2527,22 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -2592,22 +2592,22 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -2659,22 +2659,22 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -2720,22 +2720,22 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -2783,22 +2783,22 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -2915,22 +2915,22 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -2978,22 +2978,22 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -3043,22 +3043,22 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -3102,22 +3102,22 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -3159,22 +3159,22 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -3214,22 +3214,22 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Riesgo alto</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,85 +446,90 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Pobreza_Multidimennsional_Porcentual</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Crecimiento_Poblacional</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
@@ -540,10 +545,10 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>52.700527065868</v>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -556,6 +561,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,15 +570,15 @@
       <c r="B3" t="n">
         <v>10187886</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>2.85212872171048</v>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>52.7368828037534</v>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -585,6 +591,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -593,15 +600,15 @@
       <c r="B4" t="n">
         <v>10487756</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
         <v>2.90091140875824</v>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>52.7714292375114</v>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -614,6 +621,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,15 +630,15 @@
       <c r="B5" t="n">
         <v>10799528</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
         <v>2.92939479641117</v>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>52.7286423999271</v>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -643,6 +651,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -651,15 +660,15 @@
       <c r="B6" t="n">
         <v>11127826</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
         <v>2.9946388794533</v>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
         <v>52.5910451870833</v>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -672,6 +681,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -680,15 +690,15 @@
       <c r="B7" t="n">
         <v>11470728</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
         <v>3.03495807827148</v>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>52.3766930921908</v>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -701,6 +711,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -709,15 +720,15 @@
       <c r="B8" t="n">
         <v>11827459</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>3.0625462970905</v>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>52.1263358427199</v>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -730,6 +741,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -738,15 +750,15 @@
       <c r="B9" t="n">
         <v>12200109</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
         <v>3.10210241059402</v>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
         <v>51.8758520927969</v>
       </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -759,6 +771,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -767,15 +780,15 @@
       <c r="B10" t="n">
         <v>12602076</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>3.24166761649137</v>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>51.7057248462188</v>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -788,6 +801,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -796,15 +810,15 @@
       <c r="B11" t="n">
         <v>13036700</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
         <v>3.39068946964228</v>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>51.6048961777137</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -817,6 +831,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -825,15 +840,15 @@
       <c r="B12" t="n">
         <v>13492677</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
         <v>3.4378636836861</v>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
         <v>51.4889131530788</v>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -846,6 +861,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -854,15 +870,15 @@
       <c r="B13" t="n">
         <v>13971451</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
         <v>3.48689394774172</v>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
         <v>51.3642910591137</v>
       </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -875,6 +891,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -883,15 +900,15 @@
       <c r="B14" t="n">
         <v>14479308</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
         <v>3.57045624591974</v>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
         <v>51.2729423508036</v>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -904,6 +921,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -912,15 +930,15 @@
       <c r="B15" t="n">
         <v>15010101</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
         <v>3.60027787098264</v>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
         <v>51.1821090071982</v>
       </c>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -933,6 +951,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -941,15 +960,15 @@
       <c r="B16" t="n">
         <v>15561630</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
         <v>3.60848945776361</v>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
         <v>51.0472135631036</v>
       </c>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -962,6 +981,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -970,15 +990,15 @@
       <c r="B17" t="n">
         <v>16138361</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
         <v>3.63908396908399</v>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
         <v>50.9049664617419</v>
       </c>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -991,6 +1011,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -999,15 +1020,15 @@
       <c r="B18" t="n">
         <v>16736211</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
         <v>3.63755866169759</v>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
         <v>50.7697725240729</v>
       </c>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1020,6 +1041,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1028,15 +1050,15 @@
       <c r="B19" t="n">
         <v>17352929</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
         <v>3.61866152328231</v>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
         <v>50.6305894921085</v>
       </c>
-      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1049,6 +1071,7 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1057,21 +1080,21 @@
       <c r="B20" t="n">
         <v>17976566</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
         <v>3.53077102252449</v>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
         <v>50.4500358967336</v>
       </c>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
         <v>82.47</v>
       </c>
-      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1080,6 +1103,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1088,15 +1112,15 @@
       <c r="B21" t="n">
         <v>18592038</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
         <v>3.36644037435699</v>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
         <v>50.2019574185466</v>
       </c>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1109,6 +1133,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1117,15 +1142,15 @@
       <c r="B22" t="n">
         <v>19189769</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
         <v>3.16438478703584</v>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
         <v>49.9163239037342</v>
       </c>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1138,6 +1163,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1146,15 +1172,15 @@
       <c r="B23" t="n">
         <v>19784703</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
         <v>3.05317909248486</v>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
         <v>49.6600694571945</v>
       </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1167,6 +1193,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1175,15 +1202,15 @@
       <c r="B24" t="n">
         <v>20398571</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
         <v>3.05557860245516</v>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
         <v>49.4696723968966</v>
       </c>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1196,6 +1223,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1204,15 +1232,15 @@
       <c r="B25" t="n">
         <v>21079874</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
         <v>3.28538970486807</v>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
         <v>49.4235923801063</v>
       </c>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1225,6 +1253,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1233,15 +1262,15 @@
       <c r="B26" t="n">
         <v>21779066</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
         <v>3.26304867803527</v>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
         <v>49.4521103304455</v>
       </c>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1254,6 +1283,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1262,15 +1292,15 @@
       <c r="B27" t="n">
         <v>22501693</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
         <v>3.26413176180487</v>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
         <v>49.5748153166701</v>
       </c>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1283,6 +1313,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1291,15 +1322,15 @@
       <c r="B28" t="n">
         <v>23258959</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
         <v>3.30998403207783</v>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
         <v>49.8066594467964</v>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1312,6 +1343,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1320,15 +1352,15 @@
       <c r="B29" t="n">
         <v>24030378</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
         <v>3.26283888168599</v>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
         <v>50.0995125815434</v>
       </c>
-      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1341,6 +1373,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1349,15 +1382,15 @@
       <c r="B30" t="n">
         <v>24769686</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
         <v>3.03017868342338</v>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
         <v>50.3494543622908</v>
       </c>
-      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1370,6 +1403,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1378,15 +1412,15 @@
       <c r="B31" t="n">
         <v>25438759</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
         <v>2.66533890395574</v>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
         <v>50.5112592166937</v>
       </c>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1399,6 +1433,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1407,15 +1442,15 @@
       <c r="B32" t="n">
         <v>26110207</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>2.60523548410201</v>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
         <v>50.6982164235277</v>
       </c>
-      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1428,6 +1463,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1436,21 +1472,21 @@
       <c r="B33" t="n">
         <v>26780436</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
         <v>2.53453102605205</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>73.5</v>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
         <v>50.8810797553856</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>3.6</v>
       </c>
-      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -1461,6 +1497,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1469,15 +1506,15 @@
       <c r="B34" t="n">
         <v>27457588</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
         <v>2.49709386912698</v>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
         <v>51.0686472363969</v>
       </c>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1490,6 +1527,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1498,15 +1536,15 @@
       <c r="B35" t="n">
         <v>28332692</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
         <v>3.13737726435695</v>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
         <v>51.5324250080512</v>
       </c>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1519,6 +1557,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1527,15 +1566,15 @@
       <c r="B36" t="n">
         <v>29442356</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>3.84179855606781</v>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
         <v>52.2553052479903</v>
       </c>
-      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1548,6 +1587,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1556,20 +1596,20 @@
       <c r="B37" t="n">
         <v>30383497</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>3.14652813346473</v>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
         <v>52.6428623406976</v>
       </c>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>295000</v>
       </c>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -1577,12 +1617,13 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
         <v>0.9709218132461842</v>
       </c>
     </row>
@@ -1593,31 +1634,27 @@
       <c r="B38" t="n">
         <v>30945762</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
         <v>1.83364600544135</v>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
         <v>52.4596292054466</v>
       </c>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>326000</v>
       </c>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Muy alto</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1640,10 +1677,15 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
         <v>1.053456043512517</v>
       </c>
     </row>
@@ -1654,20 +1696,20 @@
       <c r="B39" t="n">
         <v>31578089</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
         <v>2.02274347919653</v>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
         <v>52.3338065200842</v>
       </c>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>360000</v>
       </c>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -1675,12 +1717,13 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S39" t="n">
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
         <v>1.140030987942304</v>
       </c>
     </row>
@@ -1691,26 +1734,22 @@
       <c r="B40" t="n">
         <v>32420458</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>2.63261492761807</v>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
         <v>52.4349470942082</v>
       </c>
-      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>482000</v>
       </c>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1736,8 +1775,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="n">
         <v>1.486715579403598</v>
       </c>
     </row>
@@ -1748,20 +1792,20 @@
       <c r="B41" t="n">
         <v>33300330</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>2.67776635574134</v>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
         <v>52.5259621672524</v>
       </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>627000</v>
       </c>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -1770,7 +1814,8 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
         <v>1.882864223868052</v>
       </c>
     </row>
@@ -1781,28 +1826,24 @@
       <c r="B42" t="n">
         <v>34260139</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
         <v>2.84152432501121</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
         <v>52.6569996207108</v>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>501000</v>
       </c>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1828,8 +1869,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="n">
         <v>1.462340827046849</v>
       </c>
     </row>
@@ -1840,27 +1886,27 @@
       <c r="B43" t="n">
         <v>35198299</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
         <v>2.70152074754623</v>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
         <v>52.6975820621332</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>0.808757879682355</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>2.994</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>525000</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>86.438</v>
       </c>
-      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -1868,7 +1914,8 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
         <v>1.491549350154676</v>
       </c>
     </row>
@@ -1879,30 +1926,26 @@
       <c r="B44" t="n">
         <v>36121304</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
         <v>2.58850722069614</v>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
         <v>52.6625222702719</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>1.62000000476837</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>3.6</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>575000</v>
       </c>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1928,8 +1971,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
         <v>1.591858367017979</v>
       </c>
     </row>
@@ -1940,31 +1988,27 @@
       <c r="B45" t="n">
         <v>37089555</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
         <v>2.64525638066994</v>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
         <v>52.6175913946662</v>
       </c>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>576000</v>
       </c>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Muy alto</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1987,10 +2031,15 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S45" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
         <v>1.55299787231203</v>
       </c>
     </row>
@@ -2001,31 +2050,27 @@
       <c r="B46" t="n">
         <v>38109668</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
         <v>2.71326096371365</v>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
         <v>52.5459083959232</v>
       </c>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>583000</v>
       </c>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Muy alto</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2048,10 +2093,15 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
         <v>1.529795536397746</v>
       </c>
     </row>
@@ -2062,26 +2112,22 @@
       <c r="B47" t="n">
         <v>39182076</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
         <v>2.77513941065557</v>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
         <v>52.4449036339984</v>
       </c>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>613000</v>
       </c>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2107,8 +2153,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
         <v>1.564490865670313</v>
       </c>
     </row>
@@ -2119,32 +2170,28 @@
       <c r="B48" t="n">
         <v>40294902</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
         <v>2.80055623798532</v>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
         <v>52.3349957230943</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>1.31394619692309</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>3.299</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>644000</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>88.349</v>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2170,8 +2217,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="n">
         <v>1.598217064779063</v>
       </c>
     </row>
@@ -2182,28 +2234,24 @@
       <c r="B49" t="n">
         <v>41435512</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
         <v>2.79133312179469</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>61.9</v>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
         <v>52.2392211270465</v>
       </c>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>719000</v>
       </c>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2229,8 +2277,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
         <v>1.735226537082491</v>
       </c>
     </row>
@@ -2241,32 +2294,28 @@
       <c r="B50" t="n">
         <v>42570728</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
         <v>2.70285900109119</v>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
         <v>52.1322480085377</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>1.63577972944282</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>0.343</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>770000</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>91.486</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2292,8 +2341,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="n">
         <v>1.808754597760226</v>
       </c>
     </row>
@@ -2304,28 +2358,24 @@
       <c r="B51" t="n">
         <v>43633982</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
         <v>2.46693695085578</v>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
         <v>51.9600085085061</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
         <v>2.5</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>714000</v>
       </c>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2351,8 +2401,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
         <v>1.636339310035926</v>
       </c>
     </row>
@@ -2363,32 +2418,28 @@
       <c r="B52" t="n">
         <v>44758488</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
         <v>2.54448522649017</v>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
         <v>51.8627254774863</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>2.0456363458292</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>1.314</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>783000</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>83.52</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2416,10 +2467,15 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S52" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
         <v>1.749388853350006</v>
       </c>
     </row>
@@ -2430,34 +2486,30 @@
       <c r="B53" t="n">
         <v>46029367</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
         <v>2.79985031213535</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>51.5</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>68.2</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>51.9194028890295</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
         <v>3.47</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>868000</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>82.03</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2485,10 +2537,15 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S53" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
         <v>1.885752632661666</v>
       </c>
     </row>
@@ -2499,32 +2556,28 @@
       <c r="B54" t="n">
         <v>47374260</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
         <v>2.8799437394168</v>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
         <v>52.0201281031078</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>3.40000009536743</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>1.437</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>1077000</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>76.039</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2552,10 +2605,15 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S54" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
         <v>2.273386433898915</v>
       </c>
     </row>
@@ -2566,30 +2624,26 @@
       <c r="B55" t="n">
         <v>48824128</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
         <v>3.01455736724095</v>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
         <v>52.1500522021607</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
         <v>2.93</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>1096000</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>78.02</v>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2617,10 +2671,15 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S55" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
         <v>2.244791755420598</v>
       </c>
     </row>
@@ -2631,32 +2690,28 @@
       <c r="B56" t="n">
         <v>50351512</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
         <v>3.08040316049107</v>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
         <v>52.2929296769969</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>6.03727175759067</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>2.125</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>1140000</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>83.967</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2682,8 +2737,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="n">
         <v>2.264082953457286</v>
       </c>
     </row>
@@ -2694,30 +2754,26 @@
       <c r="B57" t="n">
         <v>52020962</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
         <v>3.26181042317192</v>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
         <v>52.525953864521</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>5.27380990982056</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
         <v>1137000</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
         <v>48.8</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="M57" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2745,10 +2801,15 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S57" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
         <v>2.185657389419288</v>
       </c>
     </row>
@@ -2759,28 +2820,24 @@
       <c r="B58" t="n">
         <v>53824013</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
         <v>3.40729531415315</v>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
         <v>52.8248609036268</v>
       </c>
-      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
         <v>1284000</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
         <v>55</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="M58" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2808,10 +2865,15 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
         <v>2.385552337021025</v>
       </c>
     </row>
@@ -2822,28 +2884,24 @@
       <c r="B59" t="n">
         <v>55652890</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
         <v>3.3414302210835</v>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="n">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
         <v>53.0736238495431</v>
       </c>
-      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
         <v>1327000</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
         <v>56.6</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="M59" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2871,10 +2929,15 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Riesgo medio — violencia moderada o localizada</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
         <v>2.384422444189331</v>
       </c>
     </row>
@@ -2885,34 +2948,30 @@
       <c r="B60" t="n">
         <v>57437145</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
         <v>3.15572113764533</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>51.3</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>59.2</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>53.2535161109898</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>4.05194997787476</v>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>1506000</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
         <v>56.1</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="M60" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2940,10 +2999,15 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Riesgo bajo — niveles bajos de violencia</t>
-        </is>
-      </c>
-      <c r="S60" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
         <v>2.62199661908683</v>
       </c>
     </row>
@@ -2954,28 +3018,24 @@
       <c r="B61" t="n">
         <v>59174891</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
         <v>2.98060939385811</v>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
         <v>53.4064794475076</v>
       </c>
-      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>1527000</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
         <v>56.3</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="M61" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3003,10 +3063,15 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Riesgo bajo — niveles bajos de violencia</t>
-        </is>
-      </c>
-      <c r="S61" t="n">
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
         <v>2.580486375547358</v>
       </c>
     </row>
@@ -3017,30 +3082,26 @@
       <c r="B62" t="n">
         <v>60972798</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
         <v>2.99305168844906</v>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
         <v>53.6083841322846</v>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
         <v>1.792</v>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
         <v>82.84999999999999</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>57.6</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="M62" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3068,10 +3129,15 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Riesgo bajo — niveles bajos de violencia</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3080,26 +3146,22 @@
       <c r="B63" t="n">
         <v>62830412</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
         <v>3.00113934816488</v>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
         <v>53.839348530772</v>
       </c>
-      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
         <v>58.7</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="M63" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3125,8 +3187,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3135,28 +3202,24 @@
       <c r="B64" t="n">
         <v>64711821</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
         <v>2.95046658393064</v>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
         <v>54.0487270478758</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>6.54216003417969</v>
       </c>
-      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
         <v>58.2</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="M64" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3182,8 +3245,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3192,26 +3260,22 @@
       <c r="B65" t="n">
         <v>66617606</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
         <v>2.90250073555304</v>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
         <v>54.2329053806519</v>
       </c>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
         <v>58</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
       <c r="M65" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3237,8 +3301,13 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3247,15 +3316,15 @@
       <c r="B66" t="n">
         <v>68560157</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
         <v>2.87426672866542</v>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
         <v>54.4188908435551</v>
       </c>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3268,6 +3337,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -631,37 +631,37 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
     </row>
@@ -719,37 +719,37 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
     </row>
@@ -807,37 +807,37 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
     </row>
@@ -901,37 +901,37 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -989,37 +989,37 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -1077,37 +1077,37 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -1159,32 +1159,32 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr"/>
@@ -1239,32 +1239,32 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr"/>
@@ -1317,32 +1317,32 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -580,88 +580,98 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>52020962</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>46422303</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28.6</v>
+      </c>
       <c r="D2" t="n">
-        <v>3.26181042317192</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>-0.0827492378541321</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
       <c r="G2" t="n">
-        <v>52.525953864521</v>
+        <v>66.4614550787613</v>
       </c>
       <c r="H2" t="n">
-        <v>5.27380990982056</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>47.8600006103516</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22.057</v>
+      </c>
       <c r="J2" t="n">
-        <v>1137000</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>109834000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>58.829</v>
+      </c>
       <c r="L2" t="n">
-        <v>48.8</v>
+        <v>7.1</v>
       </c>
       <c r="M2" t="n">
-        <v>30.9523811340332</v>
+        <v>55.7142868041992</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.653441548347473</v>
+        <v>1.15725028514862</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.709870934486389</v>
+        <v>0.630986750125885</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.222135826945305</v>
+        <v>1.04487037658691</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.395599663257599</v>
+        <v>0.886066854000092</v>
       </c>
       <c r="R2" t="n">
-        <v>36.6666679382324</v>
+        <v>75.7142868041992</v>
       </c>
       <c r="S2" t="n">
-        <v>7.20094334280093</v>
+        <v>0.646906930185419</v>
       </c>
       <c r="T2" t="n">
-        <v>5.588169529593025</v>
+        <v>-0.5003657099032504</v>
       </c>
       <c r="U2" t="n">
-        <v>2.185657389419288</v>
+        <v>236.597482033582</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -670,86 +680,98 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>53824013</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>46458139</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27.9</v>
+      </c>
       <c r="D3" t="n">
-        <v>3.40729531415315</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>0.0771658726133905</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="G3" t="n">
-        <v>52.8248609036268</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>66.3143685616246</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48.6500015258789</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.635</v>
+      </c>
       <c r="J3" t="n">
-        <v>1284000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>115561000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58.523</v>
+      </c>
       <c r="L3" t="n">
-        <v>55</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>28.5714282989502</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.606901288032532</v>
+        <v>1.0948657989502</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.531419515609741</v>
+        <v>0.569826066493988</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.223375126719475</v>
+        <v>1.04160034656525</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.396327495574951</v>
+        <v>0.9653528928756711</v>
       </c>
       <c r="R3" t="n">
-        <v>34.2857131958008</v>
+        <v>81.42857360839839</v>
       </c>
       <c r="S3" t="n">
-        <v>6.38934150079073</v>
+        <v>0.629108853827649</v>
       </c>
       <c r="T3" t="n">
-        <v>5.174766293014939</v>
+        <v>-0.2025980004264603</v>
       </c>
       <c r="U3" t="n">
-        <v>2.385552337021025</v>
+        <v>248.7422063978929</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -758,86 +780,98 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>55652890</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>46571232</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26.6</v>
+      </c>
       <c r="D4" t="n">
-        <v>3.3414302210835</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+        <v>0.243134086570712</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.1</v>
+      </c>
       <c r="G4" t="n">
-        <v>53.0736238495431</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>66.1865982307919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51.1859564334636</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.224</v>
+      </c>
       <c r="J4" t="n">
-        <v>1327000</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>121717000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>58.117</v>
+      </c>
       <c r="L4" t="n">
-        <v>56.6</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>26.1904754638672</v>
+        <v>57.1428565979004</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.682187914848328</v>
+        <v>1.00125849246979</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.486995428800583</v>
+        <v>0.510279893875122</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.278485029935837</v>
+        <v>1.02150094509125</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.470542252063751</v>
+        <v>1.02435386180878</v>
       </c>
       <c r="R4" t="n">
-        <v>29.5238094329834</v>
+        <v>79.523811340332</v>
       </c>
       <c r="S4" t="n">
-        <v>5.65469286500665</v>
+        <v>0.655022828665732</v>
       </c>
       <c r="T4" t="n">
-        <v>5.318716052289261</v>
+        <v>1.95607633363965</v>
       </c>
       <c r="U4" t="n">
-        <v>2.384422444189331</v>
+        <v>261.3566246218267</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -846,87 +880,93 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>57437145</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>46782011</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26.1</v>
+      </c>
       <c r="D5" t="n">
-        <v>3.15572113764533</v>
+        <v>0.451573724507016</v>
       </c>
       <c r="E5" t="n">
-        <v>51.3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>59.2</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>53.2535161109898</v>
+        <v>66.13197370359271</v>
       </c>
       <c r="H5" t="n">
-        <v>4.05194997787476</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>50.4199981689453</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.255</v>
+      </c>
       <c r="J5" t="n">
-        <v>1506000</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>124456000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.924</v>
+      </c>
       <c r="L5" t="n">
-        <v>56.1</v>
+        <v>8.6</v>
       </c>
       <c r="M5" t="n">
-        <v>25.4716987609863</v>
+        <v>56.6037750244141</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.779476463794708</v>
+        <v>0.969246029853821</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.475951611995697</v>
+        <v>0.612778782844543</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.380523890256882</v>
+        <v>1.02963280677795</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.573051035404205</v>
+        <v>0.978094100952148</v>
       </c>
       <c r="R5" t="n">
-        <v>29.0476188659668</v>
+        <v>80.476188659668</v>
       </c>
       <c r="S5" t="n">
-        <v>4.75998593558216</v>
+        <v>0.613681647994712</v>
       </c>
       <c r="T5" t="n">
-        <v>3.49445848856184</v>
+        <v>1.674981368637938</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62199661908683</v>
+        <v>266.0338821261873</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -940,81 +980,89 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>59174891</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>47118501</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.3</v>
+      </c>
       <c r="D6" t="n">
-        <v>2.98060939385811</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>0.716697775475724</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G6" t="n">
-        <v>53.4064794475076</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>66.1693765330282</v>
+      </c>
+      <c r="H6" t="n">
+        <v>53.012303429667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.104</v>
+      </c>
       <c r="J6" t="n">
-        <v>1527000</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>126170000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57.92</v>
+      </c>
       <c r="L6" t="n">
-        <v>56.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>30.6603775024414</v>
+        <v>58.0188674926758</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.854386746883392</v>
+        <v>0.968808770179749</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.420570701360703</v>
+        <v>0.666394531726837</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.521158754825592</v>
+        <v>1.03599870204926</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.567784249782562</v>
+        <v>0.990192174911499</v>
       </c>
       <c r="R6" t="n">
-        <v>28.0952377319336</v>
+        <v>81.90476226806641</v>
       </c>
       <c r="S6" t="n">
-        <v>4.59485426006108</v>
+        <v>0.69779523479218</v>
       </c>
       <c r="T6" t="n">
-        <v>3.464280579990226</v>
+        <v>0.6995189944586921</v>
       </c>
       <c r="U6" t="n">
-        <v>2.580486375547358</v>
+        <v>267.771676352777</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1028,81 +1076,93 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>60972798</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>47359424</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26.4</v>
+      </c>
       <c r="D7" t="n">
-        <v>2.99305168844906</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+        <v>0.510010189620998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.2</v>
+      </c>
       <c r="G7" t="n">
-        <v>53.6083841322846</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>66.2408766587242</v>
+      </c>
+      <c r="H7" t="n">
+        <v>53.2599983215332</v>
+      </c>
       <c r="I7" t="n">
-        <v>1.792</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>15.532</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36410000</v>
+      </c>
       <c r="K7" t="n">
-        <v>82.84999999999999</v>
+        <v>56.72</v>
       </c>
       <c r="L7" t="n">
-        <v>57.6</v>
+        <v>8.6</v>
       </c>
       <c r="M7" t="n">
-        <v>27.3584899902344</v>
+        <v>58.9622650146484</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.73927241563797</v>
+        <v>0.853928565979004</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.405753612518311</v>
+        <v>0.711801946163177</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.735241413116455</v>
+        <v>1.00401437282562</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.615206003189087</v>
+        <v>0.860964477062225</v>
       </c>
       <c r="R7" t="n">
-        <v>26.1904754638672</v>
+        <v>73.8095245361328</v>
       </c>
       <c r="S7" t="n">
-        <v>3.74921291744897</v>
+        <v>0.69421884953507</v>
       </c>
       <c r="T7" t="n">
-        <v>3.290290627983252</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
+        <v>-0.3227530172996851</v>
+      </c>
+      <c r="U7" t="n">
+        <v>76.88015800192164</v>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1116,257 +1176,301 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>62830412</v>
+        <v>47443821</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>3.00113934816488</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+        <v>0.178046695121711</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.4</v>
+      </c>
       <c r="G8" t="n">
-        <v>53.839348530772</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+        <v>66.2783015470184</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55.3232507853649</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.914</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>57.648</v>
+      </c>
       <c r="L8" t="n">
-        <v>58.7</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>34.4339637756348</v>
+        <v>61.7924537658691</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.648341059684753</v>
+        <v>0.907896876335144</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.39461013674736</v>
+        <v>0.715437471866608</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.7145538926124571</v>
+        <v>0.9995130896568299</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.551462709903717</v>
+        <v>0.843258261680603</v>
       </c>
       <c r="R8" t="n">
-        <v>29.0476188659668</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>73.8095245361328</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.6075122429166609</v>
+      </c>
       <c r="T8" t="n">
-        <v>3.690919588021983</v>
+        <v>3.093135119764123</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>64711821</v>
+        <v>47786102</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>2.95046658393064</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+        <v>0.7188548791600941</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.5</v>
+      </c>
       <c r="G9" t="n">
-        <v>54.0487270478758</v>
+        <v>66.21609041451489</v>
       </c>
       <c r="H9" t="n">
-        <v>6.54216003417969</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>54.7419193092956</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.033</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>57.782</v>
+      </c>
       <c r="L9" t="n">
-        <v>58.2</v>
+        <v>6.9</v>
       </c>
       <c r="M9" t="n">
-        <v>37.2641525268555</v>
+        <v>55.1886787414551</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.460365831851959</v>
+        <v>0.920230388641357</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.354882270097733</v>
+        <v>0.685416162014008</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.65319699048996</v>
+        <v>1.01683568954468</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.462281912565231</v>
+        <v>0.799167692661285</v>
       </c>
       <c r="R9" t="n">
-        <v>30.1886787414551</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>75.9433975219727</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.679512839473507</v>
+      </c>
       <c r="T9" t="n">
-        <v>4.350272042690982</v>
+        <v>8.390576341186343</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2023</v>
       </c>
       <c r="B10" t="n">
-        <v>66617606</v>
+        <v>48347910</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>2.90250073555304</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+        <v>1.16881504089364</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.2</v>
+      </c>
       <c r="G10" t="n">
-        <v>54.2329053806519</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>66.08764171508891</v>
+      </c>
+      <c r="H10" t="n">
+        <v>55.9303998473828</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.179</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>58.064</v>
+      </c>
       <c r="L10" t="n">
-        <v>58</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>44.0758285522461</v>
+        <v>54.9763031005859</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.455080926418304</v>
+        <v>0.7520655393600461</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.319897323846817</v>
+        <v>0.629368722438812</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.533726751804352</v>
+        <v>1.19472968578339</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.373498290777206</v>
+        <v>0.8228856921195979</v>
       </c>
       <c r="R10" t="n">
-        <v>30.1886787414551</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>74.52830505371089</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.690855954769765</v>
+      </c>
       <c r="T10" t="n">
-        <v>3.799232913849204</v>
+        <v>3.532361334924285</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2024</v>
       </c>
       <c r="B11" t="n">
-        <v>68560157</v>
+        <v>48807137</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>2.87426672866542</v>
+        <v>0.945355767423027</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>54.4188908435551</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>65.9328112372132</v>
+      </c>
+      <c r="H11" t="n">
+        <v>55.6838432566667</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.344</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>58.02</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1376,7 +1480,7 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>3.056946763123695</v>
+        <v>2.774178265347752</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -1044,7 +1044,11 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1244,7 +1248,11 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1438,7 +1446,11 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,51 @@
           <t>Homicidios_cat</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Crecimiento_Poblacional_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>IPC_cat</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_cat</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo_cat</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Ratio_turista_poblacion</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes_cat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -674,6 +719,49 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ2" t="n">
+        <v>236.597482033582</v>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -774,6 +862,49 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v>248.7422063978929</v>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -874,6 +1005,49 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v>261.3566246218267</v>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -974,6 +1148,49 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>266.0338821261873</v>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1044,11 +1261,7 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1072,6 +1285,49 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>267.771676352777</v>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
     </row>
@@ -1174,6 +1430,49 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>76.88015800192164</v>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1248,11 +1547,7 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1268,6 +1563,39 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1362,6 +1690,39 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1446,16 +1807,45 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1502,6 +1892,35 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,11 +611,6 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Ratio_turista_poblacion</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
@@ -754,10 +749,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>236.597482033582</v>
-      </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -897,10 +889,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>248.7422063978929</v>
-      </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1040,10 +1029,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
-        <v>261.3566246218267</v>
-      </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1183,10 +1169,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ5" t="n">
-        <v>266.0338821261873</v>
-      </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1322,10 +1305,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ6" t="n">
-        <v>267.771676352777</v>
-      </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1465,10 +1445,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ7" t="n">
-        <v>76.88015800192164</v>
-      </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1595,7 +1572,6 @@
         </is>
       </c>
       <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1722,7 +1698,6 @@
         </is>
       </c>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1845,7 +1820,6 @@
         </is>
       </c>
       <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1920,7 +1894,6 @@
         </is>
       </c>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -1244,7 +1244,11 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1524,7 +1528,11 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -623,7 +623,7 @@
         <v>46422303</v>
       </c>
       <c r="C2" t="n">
-        <v>28.6</v>
+        <v>0.286</v>
       </c>
       <c r="D2" t="n">
         <v>-0.0827492378541321</v>
@@ -635,13 +635,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>66.4614550787613</v>
+        <v>0.664614550787613</v>
       </c>
       <c r="H2" t="n">
-        <v>47.8600006103516</v>
+        <v>0.478600006103516</v>
       </c>
       <c r="I2" t="n">
-        <v>22.057</v>
+        <v>0.22057</v>
       </c>
       <c r="J2" t="n">
         <v>109834000</v>
@@ -653,7 +653,7 @@
         <v>7.1</v>
       </c>
       <c r="M2" t="n">
-        <v>55.7142868041992</v>
+        <v>0.557142868041992</v>
       </c>
       <c r="N2" t="n">
         <v>1.15725028514862</v>
@@ -668,7 +668,7 @@
         <v>0.886066854000092</v>
       </c>
       <c r="R2" t="n">
-        <v>75.7142868041992</v>
+        <v>0.757142868041992</v>
       </c>
       <c r="S2" t="n">
         <v>0.646906930185419</v>
@@ -677,7 +677,7 @@
         <v>-0.5003657099032504</v>
       </c>
       <c r="U2" t="n">
-        <v>236.597482033582</v>
+        <v>2.36597482033582</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>46458139</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9</v>
+        <v>0.279</v>
       </c>
       <c r="D3" t="n">
         <v>0.0771658726133905</v>
@@ -775,13 +775,13 @@
         <v>4.7</v>
       </c>
       <c r="G3" t="n">
-        <v>66.3143685616246</v>
+        <v>0.663143685616246</v>
       </c>
       <c r="H3" t="n">
-        <v>48.6500015258789</v>
+        <v>0.486500015258789</v>
       </c>
       <c r="I3" t="n">
-        <v>19.635</v>
+        <v>0.19635</v>
       </c>
       <c r="J3" t="n">
         <v>115561000</v>
@@ -793,7 +793,7 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="N3" t="n">
         <v>1.0948657989502</v>
@@ -808,7 +808,7 @@
         <v>0.9653528928756711</v>
       </c>
       <c r="R3" t="n">
-        <v>81.42857360839839</v>
+        <v>0.8142857360839839</v>
       </c>
       <c r="S3" t="n">
         <v>0.629108853827649</v>
@@ -817,7 +817,7 @@
         <v>-0.2025980004264603</v>
       </c>
       <c r="U3" t="n">
-        <v>248.7422063978929</v>
+        <v>2.487422063978929</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>46571232</v>
       </c>
       <c r="C4" t="n">
-        <v>26.6</v>
+        <v>0.266</v>
       </c>
       <c r="D4" t="n">
         <v>0.243134086570712</v>
@@ -915,13 +915,13 @@
         <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>66.1865982307919</v>
+        <v>0.661865982307919</v>
       </c>
       <c r="H4" t="n">
-        <v>51.1859564334636</v>
+        <v>0.511859564334636</v>
       </c>
       <c r="I4" t="n">
-        <v>17.224</v>
+        <v>0.17224</v>
       </c>
       <c r="J4" t="n">
         <v>121717000</v>
@@ -933,7 +933,7 @@
         <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>57.1428565979004</v>
+        <v>0.5714285659790039</v>
       </c>
       <c r="N4" t="n">
         <v>1.00125849246979</v>
@@ -948,7 +948,7 @@
         <v>1.02435386180878</v>
       </c>
       <c r="R4" t="n">
-        <v>79.523811340332</v>
+        <v>0.7952381134033201</v>
       </c>
       <c r="S4" t="n">
         <v>0.655022828665732</v>
@@ -957,7 +957,7 @@
         <v>1.95607633363965</v>
       </c>
       <c r="U4" t="n">
-        <v>261.3566246218267</v>
+        <v>2.613566246218267</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>46782011</v>
       </c>
       <c r="C5" t="n">
-        <v>26.1</v>
+        <v>0.261</v>
       </c>
       <c r="D5" t="n">
         <v>0.451573724507016</v>
@@ -1055,13 +1055,13 @@
         <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>66.13197370359271</v>
+        <v>0.6613197370359271</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4199981689453</v>
+        <v>0.504199981689453</v>
       </c>
       <c r="I5" t="n">
-        <v>15.255</v>
+        <v>0.15255</v>
       </c>
       <c r="J5" t="n">
         <v>124456000</v>
@@ -1073,7 +1073,7 @@
         <v>8.6</v>
       </c>
       <c r="M5" t="n">
-        <v>56.6037750244141</v>
+        <v>0.5660377502441409</v>
       </c>
       <c r="N5" t="n">
         <v>0.969246029853821</v>
@@ -1088,7 +1088,7 @@
         <v>0.978094100952148</v>
       </c>
       <c r="R5" t="n">
-        <v>80.476188659668</v>
+        <v>0.80476188659668</v>
       </c>
       <c r="S5" t="n">
         <v>0.613681647994712</v>
@@ -1097,7 +1097,7 @@
         <v>1.674981368637938</v>
       </c>
       <c r="U5" t="n">
-        <v>266.0338821261873</v>
+        <v>2.660338821261873</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>47118501</v>
       </c>
       <c r="C6" t="n">
-        <v>25.3</v>
+        <v>0.253</v>
       </c>
       <c r="D6" t="n">
         <v>0.716697775475724</v>
@@ -1195,13 +1195,13 @@
         <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>66.1693765330282</v>
+        <v>0.661693765330282</v>
       </c>
       <c r="H6" t="n">
-        <v>53.012303429667</v>
+        <v>0.53012303429667</v>
       </c>
       <c r="I6" t="n">
-        <v>14.104</v>
+        <v>0.14104</v>
       </c>
       <c r="J6" t="n">
         <v>126170000</v>
@@ -1213,7 +1213,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>58.0188674926758</v>
+        <v>0.5801886749267581</v>
       </c>
       <c r="N6" t="n">
         <v>0.968808770179749</v>
@@ -1228,7 +1228,7 @@
         <v>0.990192174911499</v>
       </c>
       <c r="R6" t="n">
-        <v>81.90476226806641</v>
+        <v>0.8190476226806641</v>
       </c>
       <c r="S6" t="n">
         <v>0.69779523479218</v>
@@ -1237,7 +1237,7 @@
         <v>0.6995189944586921</v>
       </c>
       <c r="U6" t="n">
-        <v>267.771676352777</v>
+        <v>2.677716763527771</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>47359424</v>
       </c>
       <c r="C7" t="n">
-        <v>26.4</v>
+        <v>0.264</v>
       </c>
       <c r="D7" t="n">
         <v>0.510010189620998</v>
@@ -1335,13 +1335,13 @@
         <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>66.2408766587242</v>
+        <v>0.662408766587242</v>
       </c>
       <c r="H7" t="n">
-        <v>53.2599983215332</v>
+        <v>0.5325999832153321</v>
       </c>
       <c r="I7" t="n">
-        <v>15.532</v>
+        <v>0.15532</v>
       </c>
       <c r="J7" t="n">
         <v>36410000</v>
@@ -1353,7 +1353,7 @@
         <v>8.6</v>
       </c>
       <c r="M7" t="n">
-        <v>58.9622650146484</v>
+        <v>0.5896226501464841</v>
       </c>
       <c r="N7" t="n">
         <v>0.853928565979004</v>
@@ -1368,7 +1368,7 @@
         <v>0.860964477062225</v>
       </c>
       <c r="R7" t="n">
-        <v>73.8095245361328</v>
+        <v>0.738095245361328</v>
       </c>
       <c r="S7" t="n">
         <v>0.69421884953507</v>
@@ -1377,7 +1377,7 @@
         <v>-0.3227530172996851</v>
       </c>
       <c r="U7" t="n">
-        <v>76.88015800192164</v>
+        <v>0.7688015800192164</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
         <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>66.2783015470184</v>
+        <v>0.662783015470184</v>
       </c>
       <c r="H8" t="n">
-        <v>55.3232507853649</v>
+        <v>0.553232507853649</v>
       </c>
       <c r="I8" t="n">
-        <v>14.914</v>
+        <v>0.14914</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
@@ -1489,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>61.7924537658691</v>
+        <v>0.6179245376586909</v>
       </c>
       <c r="N8" t="n">
         <v>0.907896876335144</v>
@@ -1504,7 +1504,7 @@
         <v>0.843258261680603</v>
       </c>
       <c r="R8" t="n">
-        <v>73.8095245361328</v>
+        <v>0.738095245361328</v>
       </c>
       <c r="S8" t="n">
         <v>0.6075122429166609</v>
@@ -1599,13 +1599,13 @@
         <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>66.21609041451489</v>
+        <v>0.6621609041451489</v>
       </c>
       <c r="H9" t="n">
-        <v>54.7419193092956</v>
+        <v>0.5474191930929559</v>
       </c>
       <c r="I9" t="n">
-        <v>13.033</v>
+        <v>0.13033</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -1615,7 +1615,7 @@
         <v>6.9</v>
       </c>
       <c r="M9" t="n">
-        <v>55.1886787414551</v>
+        <v>0.551886787414551</v>
       </c>
       <c r="N9" t="n">
         <v>0.920230388641357</v>
@@ -1630,7 +1630,7 @@
         <v>0.799167692661285</v>
       </c>
       <c r="R9" t="n">
-        <v>75.9433975219727</v>
+        <v>0.759433975219727</v>
       </c>
       <c r="S9" t="n">
         <v>0.679512839473507</v>
@@ -1725,13 +1725,13 @@
         <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>66.08764171508891</v>
+        <v>0.6608764171508891</v>
       </c>
       <c r="H10" t="n">
-        <v>55.9303998473828</v>
+        <v>0.5593039984738281</v>
       </c>
       <c r="I10" t="n">
-        <v>12.179</v>
+        <v>0.12179</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
@@ -1741,7 +1741,7 @@
         <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>54.9763031005859</v>
+        <v>0.549763031005859</v>
       </c>
       <c r="N10" t="n">
         <v>0.7520655393600461</v>
@@ -1756,7 +1756,7 @@
         <v>0.8228856921195979</v>
       </c>
       <c r="R10" t="n">
-        <v>74.52830505371089</v>
+        <v>0.745283050537109</v>
       </c>
       <c r="S10" t="n">
         <v>0.690855954769765</v>
@@ -1790,7 +1790,11 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1843,13 +1847,13 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>65.9328112372132</v>
+        <v>0.659328112372132</v>
       </c>
       <c r="H11" t="n">
-        <v>55.6838432566667</v>
+        <v>0.556838432566667</v>
       </c>
       <c r="I11" t="n">
-        <v>11.344</v>
+        <v>0.11344</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -623,7 +623,7 @@
         <v>46422303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.286</v>
+        <v>28.6</v>
       </c>
       <c r="D2" t="n">
         <v>-0.0827492378541321</v>
@@ -635,13 +635,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.664614550787613</v>
+        <v>66.4614550787613</v>
       </c>
       <c r="H2" t="n">
-        <v>0.478600006103516</v>
+        <v>47.8600006103516</v>
       </c>
       <c r="I2" t="n">
-        <v>0.22057</v>
+        <v>22.057</v>
       </c>
       <c r="J2" t="n">
         <v>109834000</v>
@@ -653,7 +653,7 @@
         <v>7.1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.557142868041992</v>
+        <v>55.7142868041992</v>
       </c>
       <c r="N2" t="n">
         <v>1.15725028514862</v>
@@ -668,7 +668,7 @@
         <v>0.886066854000092</v>
       </c>
       <c r="R2" t="n">
-        <v>0.757142868041992</v>
+        <v>75.7142868041992</v>
       </c>
       <c r="S2" t="n">
         <v>0.646906930185419</v>
@@ -677,7 +677,7 @@
         <v>-0.5003657099032504</v>
       </c>
       <c r="U2" t="n">
-        <v>2.36597482033582</v>
+        <v>236.597482033582</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>46458139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.279</v>
+        <v>27.9</v>
       </c>
       <c r="D3" t="n">
         <v>0.0771658726133905</v>
@@ -775,13 +775,13 @@
         <v>4.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.663143685616246</v>
+        <v>66.3143685616246</v>
       </c>
       <c r="H3" t="n">
-        <v>0.486500015258789</v>
+        <v>48.6500015258789</v>
       </c>
       <c r="I3" t="n">
-        <v>0.19635</v>
+        <v>19.635</v>
       </c>
       <c r="J3" t="n">
         <v>115561000</v>
@@ -793,7 +793,7 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>1.0948657989502</v>
@@ -808,7 +808,7 @@
         <v>0.9653528928756711</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8142857360839839</v>
+        <v>81.42857360839839</v>
       </c>
       <c r="S3" t="n">
         <v>0.629108853827649</v>
@@ -817,7 +817,7 @@
         <v>-0.2025980004264603</v>
       </c>
       <c r="U3" t="n">
-        <v>2.487422063978929</v>
+        <v>248.7422063978929</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>46571232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.266</v>
+        <v>26.6</v>
       </c>
       <c r="D4" t="n">
         <v>0.243134086570712</v>
@@ -915,13 +915,13 @@
         <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.661865982307919</v>
+        <v>66.1865982307919</v>
       </c>
       <c r="H4" t="n">
-        <v>0.511859564334636</v>
+        <v>51.1859564334636</v>
       </c>
       <c r="I4" t="n">
-        <v>0.17224</v>
+        <v>17.224</v>
       </c>
       <c r="J4" t="n">
         <v>121717000</v>
@@ -933,7 +933,7 @@
         <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5714285659790039</v>
+        <v>57.1428565979004</v>
       </c>
       <c r="N4" t="n">
         <v>1.00125849246979</v>
@@ -948,7 +948,7 @@
         <v>1.02435386180878</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7952381134033201</v>
+        <v>79.523811340332</v>
       </c>
       <c r="S4" t="n">
         <v>0.655022828665732</v>
@@ -957,7 +957,7 @@
         <v>1.95607633363965</v>
       </c>
       <c r="U4" t="n">
-        <v>2.613566246218267</v>
+        <v>261.3566246218267</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>46782011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.261</v>
+        <v>26.1</v>
       </c>
       <c r="D5" t="n">
         <v>0.451573724507016</v>
@@ -1055,13 +1055,13 @@
         <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6613197370359271</v>
+        <v>66.13197370359271</v>
       </c>
       <c r="H5" t="n">
-        <v>0.504199981689453</v>
+        <v>50.4199981689453</v>
       </c>
       <c r="I5" t="n">
-        <v>0.15255</v>
+        <v>15.255</v>
       </c>
       <c r="J5" t="n">
         <v>124456000</v>
@@ -1073,7 +1073,7 @@
         <v>8.6</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5660377502441409</v>
+        <v>56.6037750244141</v>
       </c>
       <c r="N5" t="n">
         <v>0.969246029853821</v>
@@ -1088,7 +1088,7 @@
         <v>0.978094100952148</v>
       </c>
       <c r="R5" t="n">
-        <v>0.80476188659668</v>
+        <v>80.476188659668</v>
       </c>
       <c r="S5" t="n">
         <v>0.613681647994712</v>
@@ -1097,7 +1097,7 @@
         <v>1.674981368637938</v>
       </c>
       <c r="U5" t="n">
-        <v>2.660338821261873</v>
+        <v>266.0338821261873</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>47118501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.253</v>
+        <v>25.3</v>
       </c>
       <c r="D6" t="n">
         <v>0.716697775475724</v>
@@ -1195,13 +1195,13 @@
         <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.661693765330282</v>
+        <v>66.1693765330282</v>
       </c>
       <c r="H6" t="n">
-        <v>0.53012303429667</v>
+        <v>53.012303429667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.14104</v>
+        <v>14.104</v>
       </c>
       <c r="J6" t="n">
         <v>126170000</v>
@@ -1213,7 +1213,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5801886749267581</v>
+        <v>58.0188674926758</v>
       </c>
       <c r="N6" t="n">
         <v>0.968808770179749</v>
@@ -1228,7 +1228,7 @@
         <v>0.990192174911499</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8190476226806641</v>
+        <v>81.90476226806641</v>
       </c>
       <c r="S6" t="n">
         <v>0.69779523479218</v>
@@ -1237,7 +1237,7 @@
         <v>0.6995189944586921</v>
       </c>
       <c r="U6" t="n">
-        <v>2.677716763527771</v>
+        <v>267.771676352777</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>47359424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.264</v>
+        <v>26.4</v>
       </c>
       <c r="D7" t="n">
         <v>0.510010189620998</v>
@@ -1335,13 +1335,13 @@
         <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.662408766587242</v>
+        <v>66.2408766587242</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5325999832153321</v>
+        <v>53.2599983215332</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15532</v>
+        <v>15.532</v>
       </c>
       <c r="J7" t="n">
         <v>36410000</v>
@@ -1353,7 +1353,7 @@
         <v>8.6</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5896226501464841</v>
+        <v>58.9622650146484</v>
       </c>
       <c r="N7" t="n">
         <v>0.853928565979004</v>
@@ -1368,7 +1368,7 @@
         <v>0.860964477062225</v>
       </c>
       <c r="R7" t="n">
-        <v>0.738095245361328</v>
+        <v>73.8095245361328</v>
       </c>
       <c r="S7" t="n">
         <v>0.69421884953507</v>
@@ -1377,7 +1377,7 @@
         <v>-0.3227530172996851</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7688015800192164</v>
+        <v>76.88015800192164</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
         <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.662783015470184</v>
+        <v>66.2783015470184</v>
       </c>
       <c r="H8" t="n">
-        <v>0.553232507853649</v>
+        <v>55.3232507853649</v>
       </c>
       <c r="I8" t="n">
-        <v>0.14914</v>
+        <v>14.914</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
@@ -1489,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6179245376586909</v>
+        <v>61.7924537658691</v>
       </c>
       <c r="N8" t="n">
         <v>0.907896876335144</v>
@@ -1504,7 +1504,7 @@
         <v>0.843258261680603</v>
       </c>
       <c r="R8" t="n">
-        <v>0.738095245361328</v>
+        <v>73.8095245361328</v>
       </c>
       <c r="S8" t="n">
         <v>0.6075122429166609</v>
@@ -1599,13 +1599,13 @@
         <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6621609041451489</v>
+        <v>66.21609041451489</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5474191930929559</v>
+        <v>54.7419193092956</v>
       </c>
       <c r="I9" t="n">
-        <v>0.13033</v>
+        <v>13.033</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -1615,7 +1615,7 @@
         <v>6.9</v>
       </c>
       <c r="M9" t="n">
-        <v>0.551886787414551</v>
+        <v>55.1886787414551</v>
       </c>
       <c r="N9" t="n">
         <v>0.920230388641357</v>
@@ -1630,7 +1630,7 @@
         <v>0.799167692661285</v>
       </c>
       <c r="R9" t="n">
-        <v>0.759433975219727</v>
+        <v>75.9433975219727</v>
       </c>
       <c r="S9" t="n">
         <v>0.679512839473507</v>
@@ -1725,13 +1725,13 @@
         <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6608764171508891</v>
+        <v>66.08764171508891</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5593039984738281</v>
+        <v>55.9303998473828</v>
       </c>
       <c r="I10" t="n">
-        <v>0.12179</v>
+        <v>12.179</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
@@ -1741,7 +1741,7 @@
         <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.549763031005859</v>
+        <v>54.9763031005859</v>
       </c>
       <c r="N10" t="n">
         <v>0.7520655393600461</v>
@@ -1756,7 +1756,7 @@
         <v>0.8228856921195979</v>
       </c>
       <c r="R10" t="n">
-        <v>0.745283050537109</v>
+        <v>74.52830505371089</v>
       </c>
       <c r="S10" t="n">
         <v>0.690855954769765</v>
@@ -1847,13 +1847,13 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>0.659328112372132</v>
+        <v>65.9328112372132</v>
       </c>
       <c r="H11" t="n">
-        <v>0.556838432566667</v>
+        <v>55.6838432566667</v>
       </c>
       <c r="I11" t="n">
-        <v>0.11344</v>
+        <v>11.344</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,165 +451,140 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional</t>
+          <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual</t>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimensional_Porcentual</t>
+          <t>Tasa_Desempleo</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral</t>
+          <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios</t>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo</t>
+          <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad_Turistas_Año</t>
+          <t>Estabilidad_Politica</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Participacion_Fuerza_Laboral</t>
+          <t>Efectividad_Gubernamental</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Inseguridad_Alimentaria</t>
+          <t>Control_Corrupcion</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Desempleo_cat</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
@@ -626,62 +601,68 @@
         <v>28.6</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0827492378541321</v>
+        <v>66.4614550787613</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1</v>
+        <v>47.8600006103516</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>22.057</v>
       </c>
       <c r="G2" t="n">
-        <v>66.4614550787613</v>
+        <v>109834000</v>
       </c>
       <c r="H2" t="n">
-        <v>47.8600006103516</v>
+        <v>58.829</v>
       </c>
       <c r="I2" t="n">
-        <v>22.057</v>
+        <v>7.1</v>
       </c>
       <c r="J2" t="n">
-        <v>109834000</v>
+        <v>55.7142868041992</v>
       </c>
       <c r="K2" t="n">
-        <v>58.829</v>
+        <v>1.15725028514862</v>
       </c>
       <c r="L2" t="n">
-        <v>7.1</v>
+        <v>0.630986750125885</v>
       </c>
       <c r="M2" t="n">
-        <v>55.7142868041992</v>
+        <v>1.04487037658691</v>
       </c>
       <c r="N2" t="n">
-        <v>1.15725028514862</v>
+        <v>0.886066854000092</v>
       </c>
       <c r="O2" t="n">
-        <v>0.630986750125885</v>
+        <v>75.7142868041992</v>
       </c>
       <c r="P2" t="n">
-        <v>1.04487037658691</v>
+        <v>0.646906930185419</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.886066854000092</v>
+        <v>-0.5003657099032504</v>
       </c>
       <c r="R2" t="n">
-        <v>75.7142868041992</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.646906930185419</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.5003657099032504</v>
-      </c>
-      <c r="U2" t="n">
         <v>236.597482033582</v>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -701,55 +682,30 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="AE2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -766,62 +722,68 @@
         <v>27.9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0771658726133905</v>
+        <v>66.3143685616246</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3</v>
+        <v>48.6500015258789</v>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>19.635</v>
       </c>
       <c r="G3" t="n">
-        <v>66.3143685616246</v>
+        <v>115561000</v>
       </c>
       <c r="H3" t="n">
-        <v>48.6500015258789</v>
+        <v>58.523</v>
       </c>
       <c r="I3" t="n">
-        <v>19.635</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>115561000</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>58.523</v>
+        <v>1.0948657989502</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>0.569826066493988</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>1.04160034656525</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0948657989502</v>
+        <v>0.9653528928756711</v>
       </c>
       <c r="O3" t="n">
-        <v>0.569826066493988</v>
+        <v>81.42857360839839</v>
       </c>
       <c r="P3" t="n">
-        <v>1.04160034656525</v>
+        <v>0.629108853827649</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9653528928756711</v>
+        <v>-0.2025980004264603</v>
       </c>
       <c r="R3" t="n">
-        <v>81.42857360839839</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.629108853827649</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.2025980004264603</v>
-      </c>
-      <c r="U3" t="n">
         <v>248.7422063978929</v>
       </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -841,17 +803,17 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -861,35 +823,10 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -906,67 +843,73 @@
         <v>26.6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.243134086570712</v>
+        <v>66.1865982307919</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>51.1859564334636</v>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>17.224</v>
       </c>
       <c r="G4" t="n">
-        <v>66.1865982307919</v>
+        <v>121717000</v>
       </c>
       <c r="H4" t="n">
-        <v>51.1859564334636</v>
+        <v>58.117</v>
       </c>
       <c r="I4" t="n">
-        <v>17.224</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>121717000</v>
+        <v>57.1428565979004</v>
       </c>
       <c r="K4" t="n">
-        <v>58.117</v>
+        <v>1.00125849246979</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>0.510279893875122</v>
       </c>
       <c r="M4" t="n">
-        <v>57.1428565979004</v>
+        <v>1.02150094509125</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00125849246979</v>
+        <v>1.02435386180878</v>
       </c>
       <c r="O4" t="n">
-        <v>0.510279893875122</v>
+        <v>79.523811340332</v>
       </c>
       <c r="P4" t="n">
-        <v>1.02150094509125</v>
+        <v>0.655022828665732</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02435386180878</v>
+        <v>1.95607633363965</v>
       </c>
       <c r="R4" t="n">
-        <v>79.523811340332</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.655022828665732</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.95607633363965</v>
-      </c>
-      <c r="U4" t="n">
         <v>261.3566246218267</v>
       </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -981,17 +924,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1001,35 +944,10 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1046,62 +964,68 @@
         <v>26.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.451573724507016</v>
+        <v>66.13197370359271</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>50.4199981689453</v>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>15.255</v>
       </c>
       <c r="G5" t="n">
-        <v>66.13197370359271</v>
+        <v>124456000</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4199981689453</v>
+        <v>57.924</v>
       </c>
       <c r="I5" t="n">
-        <v>15.255</v>
+        <v>8.6</v>
       </c>
       <c r="J5" t="n">
-        <v>124456000</v>
+        <v>56.6037750244141</v>
       </c>
       <c r="K5" t="n">
-        <v>57.924</v>
+        <v>0.969246029853821</v>
       </c>
       <c r="L5" t="n">
-        <v>8.6</v>
+        <v>0.612778782844543</v>
       </c>
       <c r="M5" t="n">
-        <v>56.6037750244141</v>
+        <v>1.02963280677795</v>
       </c>
       <c r="N5" t="n">
-        <v>0.969246029853821</v>
+        <v>0.978094100952148</v>
       </c>
       <c r="O5" t="n">
-        <v>0.612778782844543</v>
+        <v>80.476188659668</v>
       </c>
       <c r="P5" t="n">
-        <v>1.02963280677795</v>
+        <v>0.613681647994712</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.978094100952148</v>
+        <v>1.674981368637938</v>
       </c>
       <c r="R5" t="n">
-        <v>80.476188659668</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.613681647994712</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.674981368637938</v>
-      </c>
-      <c r="U5" t="n">
         <v>266.0338821261873</v>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1111,7 +1035,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1121,17 +1045,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1141,35 +1065,10 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1186,62 +1085,68 @@
         <v>25.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.716697775475724</v>
+        <v>66.1693765330282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>53.012303429667</v>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>14.104</v>
       </c>
       <c r="G6" t="n">
-        <v>66.1693765330282</v>
+        <v>126170000</v>
       </c>
       <c r="H6" t="n">
-        <v>53.012303429667</v>
+        <v>57.92</v>
       </c>
       <c r="I6" t="n">
-        <v>14.104</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>126170000</v>
+        <v>58.0188674926758</v>
       </c>
       <c r="K6" t="n">
-        <v>57.92</v>
+        <v>0.968808770179749</v>
       </c>
       <c r="L6" t="n">
-        <v>8.800000000000001</v>
+        <v>0.666394531726837</v>
       </c>
       <c r="M6" t="n">
-        <v>58.0188674926758</v>
+        <v>1.03599870204926</v>
       </c>
       <c r="N6" t="n">
-        <v>0.968808770179749</v>
+        <v>0.990192174911499</v>
       </c>
       <c r="O6" t="n">
-        <v>0.666394531726837</v>
+        <v>81.90476226806641</v>
       </c>
       <c r="P6" t="n">
-        <v>1.03599870204926</v>
+        <v>0.69779523479218</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.990192174911499</v>
+        <v>0.6995189944586921</v>
       </c>
       <c r="R6" t="n">
-        <v>81.90476226806641</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.69779523479218</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.6995189944586921</v>
-      </c>
-      <c r="U6" t="n">
         <v>267.771676352777</v>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1251,7 +1156,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1261,17 +1166,17 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1281,35 +1186,10 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1326,62 +1206,68 @@
         <v>26.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.510010189620998</v>
+        <v>66.2408766587242</v>
       </c>
       <c r="E7" t="n">
-        <v>1.1</v>
+        <v>53.2599983215332</v>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>15.532</v>
       </c>
       <c r="G7" t="n">
-        <v>66.2408766587242</v>
+        <v>36410000</v>
       </c>
       <c r="H7" t="n">
-        <v>53.2599983215332</v>
+        <v>56.72</v>
       </c>
       <c r="I7" t="n">
-        <v>15.532</v>
+        <v>8.6</v>
       </c>
       <c r="J7" t="n">
-        <v>36410000</v>
+        <v>58.9622650146484</v>
       </c>
       <c r="K7" t="n">
-        <v>56.72</v>
+        <v>0.853928565979004</v>
       </c>
       <c r="L7" t="n">
-        <v>8.6</v>
+        <v>0.711801946163177</v>
       </c>
       <c r="M7" t="n">
-        <v>58.9622650146484</v>
+        <v>1.00401437282562</v>
       </c>
       <c r="N7" t="n">
-        <v>0.853928565979004</v>
+        <v>0.860964477062225</v>
       </c>
       <c r="O7" t="n">
-        <v>0.711801946163177</v>
+        <v>73.8095245361328</v>
       </c>
       <c r="P7" t="n">
-        <v>1.00401437282562</v>
+        <v>0.69421884953507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.860964477062225</v>
+        <v>-0.3227530172996851</v>
       </c>
       <c r="R7" t="n">
-        <v>73.8095245361328</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.69421884953507</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-0.3227530172996851</v>
-      </c>
-      <c r="U7" t="n">
         <v>76.88015800192164</v>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1401,7 +1287,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1411,7 +1297,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1421,35 +1307,10 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1464,55 +1325,61 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0.178046695121711</v>
+        <v>66.2783015470184</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7</v>
+        <v>55.3232507853649</v>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>66.2783015470184</v>
-      </c>
+        <v>14.914</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>55.3232507853649</v>
+        <v>57.648</v>
       </c>
       <c r="I8" t="n">
-        <v>14.914</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>61.7924537658691</v>
+      </c>
       <c r="K8" t="n">
-        <v>57.648</v>
+        <v>0.907896876335144</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>0.715437471866608</v>
       </c>
       <c r="M8" t="n">
-        <v>61.7924537658691</v>
+        <v>0.9995130896568299</v>
       </c>
       <c r="N8" t="n">
-        <v>0.907896876335144</v>
+        <v>0.843258261680603</v>
       </c>
       <c r="O8" t="n">
-        <v>0.715437471866608</v>
+        <v>73.8095245361328</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9995130896568299</v>
+        <v>0.6075122429166609</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.843258261680603</v>
-      </c>
-      <c r="R8" t="n">
-        <v>73.8095245361328</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.6075122429166609</v>
-      </c>
-      <c r="T8" t="n">
         <v>3.093135119764123</v>
       </c>
-      <c r="U8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1530,7 +1397,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1538,14 +1405,10 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1555,31 +1418,10 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1590,58 +1432,64 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0.7188548791600941</v>
+        <v>66.21609041451489</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>54.7419193092956</v>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>66.21609041451489</v>
-      </c>
+        <v>13.033</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>54.7419193092956</v>
+        <v>57.782</v>
       </c>
       <c r="I9" t="n">
-        <v>13.033</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>55.1886787414551</v>
+      </c>
       <c r="K9" t="n">
-        <v>57.782</v>
+        <v>0.920230388641357</v>
       </c>
       <c r="L9" t="n">
-        <v>6.9</v>
+        <v>0.685416162014008</v>
       </c>
       <c r="M9" t="n">
-        <v>55.1886787414551</v>
+        <v>1.01683568954468</v>
       </c>
       <c r="N9" t="n">
-        <v>0.920230388641357</v>
+        <v>0.799167692661285</v>
       </c>
       <c r="O9" t="n">
-        <v>0.685416162014008</v>
+        <v>75.9433975219727</v>
       </c>
       <c r="P9" t="n">
-        <v>1.01683568954468</v>
+        <v>0.679512839473507</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.799167692661285</v>
-      </c>
-      <c r="R9" t="n">
-        <v>75.9433975219727</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.679512839473507</v>
-      </c>
-      <c r="T9" t="n">
         <v>8.390576341186343</v>
       </c>
-      <c r="U9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1651,7 +1499,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1664,14 +1512,10 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1681,31 +1525,10 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1716,58 +1539,64 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.16881504089364</v>
+        <v>66.08764171508891</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8</v>
+        <v>55.9303998473828</v>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>66.08764171508891</v>
-      </c>
+        <v>12.179</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>55.9303998473828</v>
+        <v>58.064</v>
       </c>
       <c r="I10" t="n">
-        <v>12.179</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>54.9763031005859</v>
+      </c>
       <c r="K10" t="n">
-        <v>58.064</v>
+        <v>0.7520655393600461</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>0.629368722438812</v>
       </c>
       <c r="M10" t="n">
-        <v>54.9763031005859</v>
+        <v>1.19472968578339</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7520655393600461</v>
+        <v>0.8228856921195979</v>
       </c>
       <c r="O10" t="n">
-        <v>0.629368722438812</v>
+        <v>74.52830505371089</v>
       </c>
       <c r="P10" t="n">
-        <v>1.19472968578339</v>
+        <v>0.690855954769765</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8228856921195979</v>
-      </c>
-      <c r="R10" t="n">
-        <v>74.52830505371089</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.690855954769765</v>
-      </c>
-      <c r="T10" t="n">
         <v>3.532361334924285</v>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1790,48 +1619,23 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1842,42 +1646,48 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0.945355767423027</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
         <v>65.9328112372132</v>
       </c>
+      <c r="E11" t="n">
+        <v>55.6838432566667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11.344</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>55.6838432566667</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.344</v>
-      </c>
+        <v>58.02</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>58.02</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>2.774178265347752</v>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>2.774178265347752</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AC11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1885,27 +1695,10 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,140 +451,165 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Crecimiento_Poblacional</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Multidimensional_Porcentual</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Crecimiento_Poblacional_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
@@ -601,68 +626,62 @@
         <v>28.6</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.0827492378541321</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
         <v>66.4614550787613</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>47.8600006103516</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>22.057</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>109834000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>58.829</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>7.1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>55.7142868041992</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>1.15725028514862</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>0.630986750125885</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>1.04487037658691</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>0.886066854000092</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>75.7142868041992</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>0.646906930185419</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>-0.5003657099032504</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>236.597482033582</v>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -682,30 +701,55 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -722,68 +766,62 @@
         <v>27.9</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0771658726133905</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G3" t="n">
         <v>66.3143685616246</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>48.6500015258789</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>19.635</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>115561000</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>58.523</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>7.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>60</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>1.0948657989502</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>0.569826066493988</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>1.04160034656525</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>0.9653528928756711</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>81.42857360839839</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>0.629108853827649</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>-0.2025980004264603</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>248.7422063978929</v>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -803,17 +841,17 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -823,10 +861,35 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -843,73 +906,67 @@
         <v>26.6</v>
       </c>
       <c r="D4" t="n">
+        <v>0.243134086570712</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G4" t="n">
         <v>66.1865982307919</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>51.1859564334636</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>17.224</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>121717000</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>58.117</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>7.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>57.1428565979004</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>1.00125849246979</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>0.510279893875122</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>1.02150094509125</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>1.02435386180878</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>79.523811340332</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
         <v>0.655022828665732</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>1.95607633363965</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
         <v>261.3566246218267</v>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -924,17 +981,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -944,10 +1001,35 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -964,68 +1046,62 @@
         <v>26.1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.451573724507016</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G5" t="n">
         <v>66.13197370359271</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>50.4199981689453</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>15.255</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>124456000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>57.924</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>8.6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>56.6037750244141</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>0.969246029853821</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>0.612778782844543</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>1.02963280677795</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>0.978094100952148</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>80.476188659668</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
         <v>0.613681647994712</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>1.674981368637938</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>266.0338821261873</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1035,7 +1111,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1045,17 +1121,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1065,10 +1141,35 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1085,68 +1186,62 @@
         <v>25.3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.716697775475724</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G6" t="n">
         <v>66.1693765330282</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>53.012303429667</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>14.104</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>126170000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>57.92</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>58.0188674926758</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>0.968808770179749</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>0.666394531726837</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>1.03599870204926</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>0.990192174911499</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>81.90476226806641</v>
       </c>
-      <c r="P6" t="n">
+      <c r="S6" t="n">
         <v>0.69779523479218</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>0.6995189944586921</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>267.771676352777</v>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1156,7 +1251,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1166,17 +1261,17 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1186,10 +1281,35 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1206,68 +1326,62 @@
         <v>26.4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.510010189620998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G7" t="n">
         <v>66.2408766587242</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
         <v>53.2599983215332</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>15.532</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>36410000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>56.72</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>8.6</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>58.9622650146484</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>0.853928565979004</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>0.711801946163177</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>1.00401437282562</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>0.860964477062225</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>0.69421884953507</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>-0.3227530172996851</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>76.88015800192164</v>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1287,7 +1401,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1297,7 +1411,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1307,10 +1421,35 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1325,61 +1464,55 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
+        <v>0.178046695121711</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G8" t="n">
         <v>66.2783015470184</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>55.3232507853649</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>14.914</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
         <v>57.648</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>61.7924537658691</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>0.907896876335144</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>0.715437471866608</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>0.9995130896568299</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>0.843258261680603</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
         <v>0.6075122429166609</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
         <v>3.093135119764123</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1397,7 +1530,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1405,10 +1538,14 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1418,10 +1555,31 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1432,64 +1590,58 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
+        <v>0.7188548791600941</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G9" t="n">
         <v>66.21609041451489</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>54.7419193092956</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>13.033</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
         <v>57.782</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>6.9</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>55.1886787414551</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>0.920230388641357</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>0.685416162014008</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>1.01683568954468</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>0.799167692661285</v>
       </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
         <v>75.9433975219727</v>
       </c>
-      <c r="P9" t="n">
+      <c r="S9" t="n">
         <v>0.679512839473507</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
         <v>8.390576341186343</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1499,7 +1651,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1512,10 +1664,14 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1525,10 +1681,31 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1539,64 +1716,58 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
+        <v>1.16881504089364</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G10" t="n">
         <v>66.08764171508891</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>55.9303998473828</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>12.179</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
         <v>58.064</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>6.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>54.9763031005859</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>0.7520655393600461</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>0.629368722438812</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>1.19472968578339</v>
       </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
         <v>0.8228856921195979</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>74.52830505371089</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
         <v>0.690855954769765</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>3.532361334924285</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1619,23 +1790,48 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1646,48 +1842,42 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
+        <v>0.945355767423027</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>65.9328112372132</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>55.6838432566667</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>11.344</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
         <v>58.02</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>2.774178265347752</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>2.774178265347752</v>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1695,10 +1885,27 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,77 +451,167 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Crecimiento_Poblacional</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Multidimensional_Porcentual</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad_Turistas_Año</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica_cat</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Crecimiento_Poblacional_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_cat</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo_cat</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
     </row>
@@ -536,62 +626,130 @@
         <v>28.6</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.0827492378541321</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>66.4614550787613</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.8600006103516</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22.057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>109834000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>58.829</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>55.7142868041992</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.15725028514862</v>
       </c>
-      <c r="E2" t="n">
+      <c r="O2" t="n">
         <v>0.630986750125885</v>
       </c>
-      <c r="F2" t="n">
+      <c r="P2" t="n">
         <v>1.04487037658691</v>
       </c>
-      <c r="G2" t="n">
+      <c r="Q2" t="n">
         <v>0.886066854000092</v>
       </c>
-      <c r="H2" t="n">
+      <c r="R2" t="n">
         <v>75.7142868041992</v>
       </c>
-      <c r="I2" t="n">
+      <c r="S2" t="n">
         <v>0.646906930185419</v>
       </c>
-      <c r="J2" t="n">
+      <c r="T2" t="n">
         <v>-0.5003657099032504</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="U2" t="n">
+        <v>236.597482033582</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -608,62 +766,130 @@
         <v>27.9</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0771658726133905</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>66.3143685616246</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48.6500015258789</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.635</v>
+      </c>
+      <c r="J3" t="n">
+        <v>115561000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58.523</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.0948657989502</v>
       </c>
-      <c r="E3" t="n">
+      <c r="O3" t="n">
         <v>0.569826066493988</v>
       </c>
-      <c r="F3" t="n">
+      <c r="P3" t="n">
         <v>1.04160034656525</v>
       </c>
-      <c r="G3" t="n">
+      <c r="Q3" t="n">
         <v>0.9653528928756711</v>
       </c>
-      <c r="H3" t="n">
+      <c r="R3" t="n">
         <v>81.42857360839839</v>
       </c>
-      <c r="I3" t="n">
+      <c r="S3" t="n">
         <v>0.629108853827649</v>
       </c>
-      <c r="J3" t="n">
+      <c r="T3" t="n">
         <v>-0.2025980004264603</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="U3" t="n">
+        <v>248.7422063978929</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -680,62 +906,130 @@
         <v>26.6</v>
       </c>
       <c r="D4" t="n">
+        <v>0.243134086570712</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>66.1865982307919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51.1859564334636</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.224</v>
+      </c>
+      <c r="J4" t="n">
+        <v>121717000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>58.117</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>57.1428565979004</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.00125849246979</v>
       </c>
-      <c r="E4" t="n">
+      <c r="O4" t="n">
         <v>0.510279893875122</v>
       </c>
-      <c r="F4" t="n">
+      <c r="P4" t="n">
         <v>1.02150094509125</v>
       </c>
-      <c r="G4" t="n">
+      <c r="Q4" t="n">
         <v>1.02435386180878</v>
       </c>
-      <c r="H4" t="n">
+      <c r="R4" t="n">
         <v>79.523811340332</v>
       </c>
-      <c r="I4" t="n">
+      <c r="S4" t="n">
         <v>0.655022828665732</v>
       </c>
-      <c r="J4" t="n">
+      <c r="T4" t="n">
         <v>1.95607633363965</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="U4" t="n">
+        <v>261.3566246218267</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -752,62 +1046,130 @@
         <v>26.1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.451573724507016</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>66.13197370359271</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50.4199981689453</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.255</v>
+      </c>
+      <c r="J5" t="n">
+        <v>124456000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.924</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>56.6037750244141</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.969246029853821</v>
       </c>
-      <c r="E5" t="n">
+      <c r="O5" t="n">
         <v>0.612778782844543</v>
       </c>
-      <c r="F5" t="n">
+      <c r="P5" t="n">
         <v>1.02963280677795</v>
       </c>
-      <c r="G5" t="n">
+      <c r="Q5" t="n">
         <v>0.978094100952148</v>
       </c>
-      <c r="H5" t="n">
+      <c r="R5" t="n">
         <v>80.476188659668</v>
       </c>
-      <c r="I5" t="n">
+      <c r="S5" t="n">
         <v>0.613681647994712</v>
       </c>
-      <c r="J5" t="n">
+      <c r="T5" t="n">
         <v>1.674981368637938</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="U5" t="n">
+        <v>266.0338821261873</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -824,62 +1186,130 @@
         <v>25.3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.716697775475724</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>66.1693765330282</v>
+      </c>
+      <c r="H6" t="n">
+        <v>53.012303429667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.104</v>
+      </c>
+      <c r="J6" t="n">
+        <v>126170000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>58.0188674926758</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.968808770179749</v>
       </c>
-      <c r="E6" t="n">
+      <c r="O6" t="n">
         <v>0.666394531726837</v>
       </c>
-      <c r="F6" t="n">
+      <c r="P6" t="n">
         <v>1.03599870204926</v>
       </c>
-      <c r="G6" t="n">
+      <c r="Q6" t="n">
         <v>0.990192174911499</v>
       </c>
-      <c r="H6" t="n">
+      <c r="R6" t="n">
         <v>81.90476226806641</v>
       </c>
-      <c r="I6" t="n">
+      <c r="S6" t="n">
         <v>0.69779523479218</v>
       </c>
-      <c r="J6" t="n">
+      <c r="T6" t="n">
         <v>0.6995189944586921</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="U6" t="n">
+        <v>267.771676352777</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -896,64 +1326,132 @@
         <v>26.4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.510010189620998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>66.2408766587242</v>
+      </c>
+      <c r="H7" t="n">
+        <v>53.2599983215332</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.532</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36410000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>56.72</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>58.9622650146484</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.853928565979004</v>
       </c>
-      <c r="E7" t="n">
+      <c r="O7" t="n">
         <v>0.711801946163177</v>
       </c>
-      <c r="F7" t="n">
+      <c r="P7" t="n">
         <v>1.00401437282562</v>
       </c>
-      <c r="G7" t="n">
+      <c r="Q7" t="n">
         <v>0.860964477062225</v>
       </c>
-      <c r="H7" t="n">
+      <c r="R7" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="I7" t="n">
+      <c r="S7" t="n">
         <v>0.69421884953507</v>
       </c>
-      <c r="J7" t="n">
+      <c r="T7" t="n">
         <v>-0.3227530172996851</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
+      <c r="U7" t="n">
+        <v>76.88015800192164</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -966,62 +1464,122 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
+        <v>0.178046695121711</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>66.2783015470184</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55.3232507853649</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.914</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>57.648</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>61.7924537658691</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.907896876335144</v>
       </c>
-      <c r="E8" t="n">
+      <c r="O8" t="n">
         <v>0.715437471866608</v>
       </c>
-      <c r="F8" t="n">
+      <c r="P8" t="n">
         <v>0.9995130896568299</v>
       </c>
-      <c r="G8" t="n">
+      <c r="Q8" t="n">
         <v>0.843258261680603</v>
       </c>
-      <c r="H8" t="n">
+      <c r="R8" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="I8" t="n">
+      <c r="S8" t="n">
         <v>0.6075122429166609</v>
       </c>
-      <c r="J8" t="n">
+      <c r="T8" t="n">
         <v>3.093135119764123</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1032,62 +1590,122 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
+        <v>0.7188548791600941</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>66.21609041451489</v>
+      </c>
+      <c r="H9" t="n">
+        <v>54.7419193092956</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.033</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>57.782</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>55.1886787414551</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.920230388641357</v>
       </c>
-      <c r="E9" t="n">
+      <c r="O9" t="n">
         <v>0.685416162014008</v>
       </c>
-      <c r="F9" t="n">
+      <c r="P9" t="n">
         <v>1.01683568954468</v>
       </c>
-      <c r="G9" t="n">
+      <c r="Q9" t="n">
         <v>0.799167692661285</v>
       </c>
-      <c r="H9" t="n">
+      <c r="R9" t="n">
         <v>75.9433975219727</v>
       </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
         <v>0.679512839473507</v>
       </c>
-      <c r="J9" t="n">
+      <c r="T9" t="n">
         <v>8.390576341186343</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1098,62 +1716,122 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
+        <v>1.16881504089364</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>66.08764171508891</v>
+      </c>
+      <c r="H10" t="n">
+        <v>55.9303998473828</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.179</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>58.064</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>54.9763031005859</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.7520655393600461</v>
       </c>
-      <c r="E10" t="n">
+      <c r="O10" t="n">
         <v>0.629368722438812</v>
       </c>
-      <c r="F10" t="n">
+      <c r="P10" t="n">
         <v>1.19472968578339</v>
       </c>
-      <c r="G10" t="n">
+      <c r="Q10" t="n">
         <v>0.8228856921195979</v>
       </c>
-      <c r="H10" t="n">
+      <c r="R10" t="n">
         <v>74.52830505371089</v>
       </c>
-      <c r="I10" t="n">
+      <c r="S10" t="n">
         <v>0.690855954769765</v>
       </c>
-      <c r="J10" t="n">
+      <c r="T10" t="n">
         <v>3.532361334924285</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1163,27 +1841,71 @@
         <v>48807137</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.945355767423027</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2.774178265347752</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>65.9328112372132</v>
+      </c>
+      <c r="H11" t="n">
+        <v>55.6838432566667</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.344</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>58.02</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>2.774178265347752</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,80 +536,85 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Acceso_Agua_Potable</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
@@ -677,13 +682,11 @@
         <v>-0.5003657099032504</v>
       </c>
       <c r="U2" t="n">
+        <v>99.9267263105102</v>
+      </c>
+      <c r="V2" t="n">
         <v>236.597482033582</v>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -691,7 +694,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -701,12 +704,12 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -716,14 +719,14 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="AE2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -731,7 +734,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -746,10 +749,15 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -817,13 +825,11 @@
         <v>-0.2025980004264603</v>
       </c>
       <c r="U3" t="n">
+        <v>99.92650227872559</v>
+      </c>
+      <c r="V3" t="n">
         <v>248.7422063978929</v>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -831,7 +837,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -841,12 +847,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -856,12 +862,12 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -871,7 +877,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -886,10 +892,15 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -957,16 +968,14 @@
         <v>1.95607633363965</v>
       </c>
       <c r="U4" t="n">
+        <v>99.9262844449661</v>
+      </c>
+      <c r="V4" t="n">
         <v>261.3566246218267</v>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -981,12 +990,12 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -996,12 +1005,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1011,7 +1020,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1026,10 +1035,15 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1097,13 +1111,11 @@
         <v>1.674981368637938</v>
       </c>
       <c r="U5" t="n">
+        <v>99.9260564294656</v>
+      </c>
+      <c r="V5" t="n">
         <v>266.0338821261873</v>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1116,17 +1128,17 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1136,12 +1148,12 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1151,7 +1163,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1166,10 +1178,15 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1237,13 +1254,11 @@
         <v>0.6995189944586921</v>
       </c>
       <c r="U6" t="n">
+        <v>99.9258382744694</v>
+      </c>
+      <c r="V6" t="n">
         <v>267.771676352777</v>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1256,17 +1271,17 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1276,12 +1291,12 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1291,7 +1306,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1306,10 +1321,15 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1377,13 +1397,11 @@
         <v>-0.3227530172996851</v>
       </c>
       <c r="U7" t="n">
+        <v>99.9256097637963</v>
+      </c>
+      <c r="V7" t="n">
         <v>76.88015800192164</v>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1396,12 +1414,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1411,17 +1429,17 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1431,7 +1449,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1446,10 +1464,15 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1512,12 +1535,10 @@
       <c r="T8" t="n">
         <v>3.093135119764123</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="U8" t="n">
+        <v>99.9253811087183</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1545,12 +1566,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1560,15 +1581,15 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1576,10 +1597,15 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,12 +1664,10 @@
       <c r="T9" t="n">
         <v>8.390576341186343</v>
       </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="U9" t="n">
+        <v>99.925157573403</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1656,17 +1680,17 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1676,7 +1700,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1686,15 +1710,15 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1702,10 +1726,15 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1765,11 +1794,7 @@
         <v>3.532361334924285</v>
       </c>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1782,12 +1807,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1797,7 +1822,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1807,20 +1832,20 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1828,10 +1853,15 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1878,23 +1908,19 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1902,10 +1928,15 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,80 +541,85 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>Acceso_Saneamiento</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
@@ -685,13 +690,11 @@
         <v>99.9267263105102</v>
       </c>
       <c r="V2" t="n">
+        <v>99.912472243595</v>
+      </c>
+      <c r="W2" t="n">
         <v>236.597482033582</v>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="X2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -699,7 +702,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -709,12 +712,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -724,14 +727,14 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="AF2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -739,7 +742,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -754,10 +757,15 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -828,13 +836,11 @@
         <v>99.92650227872559</v>
       </c>
       <c r="V3" t="n">
+        <v>99.9188807943147</v>
+      </c>
+      <c r="W3" t="n">
         <v>248.7422063978929</v>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="X3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -842,7 +848,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -852,12 +858,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -867,12 +873,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -882,7 +888,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -897,10 +903,15 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -971,16 +982,14 @@
         <v>99.9262844449661</v>
       </c>
       <c r="V4" t="n">
+        <v>99.91984176388959</v>
+      </c>
+      <c r="W4" t="n">
         <v>261.3566246218267</v>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -995,12 +1004,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1010,12 +1019,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1025,7 +1034,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1040,10 +1049,15 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1114,13 +1128,11 @@
         <v>99.9260564294656</v>
       </c>
       <c r="V5" t="n">
+        <v>99.9195943597293</v>
+      </c>
+      <c r="W5" t="n">
         <v>266.0338821261873</v>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="X5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1133,17 +1145,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1153,12 +1165,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1168,7 +1180,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1183,10 +1195,15 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1257,13 +1274,11 @@
         <v>99.9258382744694</v>
       </c>
       <c r="V6" t="n">
+        <v>99.9193565738972</v>
+      </c>
+      <c r="W6" t="n">
         <v>267.771676352777</v>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="X6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1276,17 +1291,17 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1296,12 +1311,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1311,7 +1326,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1326,10 +1341,15 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -1400,13 +1420,11 @@
         <v>99.9256097637963</v>
       </c>
       <c r="V7" t="n">
+        <v>99.9191083525324</v>
+      </c>
+      <c r="W7" t="n">
         <v>76.88015800192164</v>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="X7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1419,12 +1437,12 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1434,17 +1452,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1454,7 +1472,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1469,10 +1487,15 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1538,12 +1561,10 @@
       <c r="U8" t="n">
         <v>99.9253811087183</v>
       </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="V8" t="n">
+        <v>99.91885990620401</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1571,12 +1592,12 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1586,15 +1607,15 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1602,10 +1623,15 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1667,12 +1693,10 @@
       <c r="U9" t="n">
         <v>99.925157573403</v>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="V9" t="n">
+        <v>99.9186164178539</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1685,17 +1709,17 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1705,7 +1729,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1715,15 +1739,15 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1731,10 +1755,15 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1795,11 +1824,7 @@
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1812,12 +1837,12 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1827,7 +1852,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1837,20 +1862,20 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1858,10 +1883,15 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1909,23 +1939,19 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1933,10 +1959,15 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,16 @@
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable_cat</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento_cat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -770,6 +780,16 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -916,6 +936,16 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1062,6 +1092,16 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1208,6 +1248,16 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1354,6 +1404,16 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1500,6 +1560,16 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1632,6 +1702,16 @@
         </is>
       </c>
       <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1764,6 +1844,16 @@
         </is>
       </c>
       <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1892,6 +1982,8 @@
         </is>
       </c>
       <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1968,6 +2060,8 @@
         </is>
       </c>
       <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,92 +546,107 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>Poblacion_Urbana</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria_cat</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana_cat</t>
         </is>
       </c>
     </row>
@@ -702,14 +717,10 @@
       <c r="V2" t="n">
         <v>99.912472243595</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>236.597482033582</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -717,7 +728,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -727,12 +738,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -742,14 +753,14 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="AG2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -757,7 +768,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -772,17 +783,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -790,6 +801,17 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -859,13 +881,11 @@
         <v>99.9188807943147</v>
       </c>
       <c r="W3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X3" t="n">
         <v>248.7422063978929</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -873,7 +893,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,12 +903,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -898,12 +918,12 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -913,7 +933,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -928,20 +948,35 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1014,17 +1049,13 @@
       <c r="V4" t="n">
         <v>99.91984176388959</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>261.3566246218267</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1039,12 +1070,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1054,12 +1085,12 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1069,7 +1100,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1084,17 +1115,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1102,6 +1133,17 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1170,14 +1212,10 @@
       <c r="V5" t="n">
         <v>99.9195943597293</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>266.0338821261873</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1190,17 +1228,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1210,12 +1248,12 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1225,7 +1263,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1240,17 +1278,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1258,6 +1296,17 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1326,14 +1375,10 @@
       <c r="V6" t="n">
         <v>99.9193565738972</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>267.771676352777</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1346,17 +1391,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1366,12 +1411,12 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1381,7 +1426,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1396,17 +1441,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1414,6 +1459,17 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1482,14 +1538,10 @@
       <c r="V7" t="n">
         <v>99.9191083525324</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>76.88015800192164</v>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1502,12 +1554,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1517,17 +1569,17 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1537,7 +1589,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1552,14 +1604,14 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="AM7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1570,6 +1622,17 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1635,11 +1698,7 @@
         <v>99.91885990620401</v>
       </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1667,12 +1726,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1682,15 +1741,15 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1698,20 +1757,31 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1776,12 +1846,10 @@
       <c r="V9" t="n">
         <v>99.9186164178539</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="W9" t="n">
+        <v>0.04603</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1794,17 +1862,17 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1814,7 +1882,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1824,15 +1892,15 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1840,16 +1908,31 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1915,11 +1998,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1932,12 +2011,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1947,7 +2026,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -1957,20 +2036,20 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1978,12 +2057,23 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2032,23 +2122,19 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -2056,12 +2142,19 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,127 +526,77 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Desempleo_cat</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>ratio_turistas_residentes_cat</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Agua_Potable_cat</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
           <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Poblacion_Urbana_cat</t>
         </is>
       </c>
     </row>
@@ -706,29 +656,41 @@
         <v>75.7142868041992</v>
       </c>
       <c r="S2" t="n">
-        <v>0.646906930185419</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.5003657099032504</v>
-      </c>
-      <c r="U2" t="n">
-        <v>99.9267263105102</v>
-      </c>
-      <c r="V2" t="n">
-        <v>99.912472243595</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
         <v>236.597482033582</v>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -738,7 +700,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -748,17 +710,17 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -766,52 +728,6 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -869,26 +785,36 @@
         <v>81.42857360839839</v>
       </c>
       <c r="S3" t="n">
-        <v>0.629108853827649</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.2025980004264603</v>
-      </c>
-      <c r="U3" t="n">
-        <v>99.92650227872559</v>
-      </c>
-      <c r="V3" t="n">
-        <v>99.9188807943147</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X3" t="n">
         <v>248.7422063978929</v>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -903,7 +829,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -913,12 +839,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -927,56 +853,6 @@
         </is>
       </c>
       <c r="AG3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1038,29 +914,41 @@
         <v>79.523811340332</v>
       </c>
       <c r="S4" t="n">
-        <v>0.655022828665732</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.95607633363965</v>
-      </c>
-      <c r="U4" t="n">
-        <v>99.9262844449661</v>
-      </c>
-      <c r="V4" t="n">
-        <v>99.91984176388959</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
         <v>261.3566246218267</v>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1070,7 +958,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1080,12 +968,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1098,52 +986,6 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1201,24 +1043,36 @@
         <v>80.476188659668</v>
       </c>
       <c r="S5" t="n">
-        <v>0.613681647994712</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.674981368637938</v>
-      </c>
-      <c r="U5" t="n">
-        <v>99.9260564294656</v>
-      </c>
-      <c r="V5" t="n">
-        <v>99.9195943597293</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="n">
         <v>266.0338821261873</v>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1228,12 +1082,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1243,12 +1097,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1261,52 +1115,6 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1364,24 +1172,36 @@
         <v>81.90476226806641</v>
       </c>
       <c r="S6" t="n">
-        <v>0.69779523479218</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.6995189944586921</v>
-      </c>
-      <c r="U6" t="n">
-        <v>99.9258382744694</v>
-      </c>
-      <c r="V6" t="n">
-        <v>99.9193565738972</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
         <v>267.771676352777</v>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1391,12 +1211,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1406,12 +1226,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1424,52 +1244,6 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1527,21 +1301,33 @@
         <v>73.8095245361328</v>
       </c>
       <c r="S7" t="n">
-        <v>0.69421884953507</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-0.3227530172996851</v>
-      </c>
-      <c r="U7" t="n">
-        <v>99.9256097637963</v>
-      </c>
-      <c r="V7" t="n">
-        <v>99.9191083525324</v>
-      </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
         <v>76.88015800192164</v>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1554,12 +1340,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1574,12 +1360,12 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1587,52 +1373,6 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1685,20 +1425,32 @@
       <c r="R8" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.6075122429166609</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.093135119764123</v>
-      </c>
-      <c r="U8" t="n">
-        <v>99.9253811087183</v>
-      </c>
-      <c r="V8" t="n">
-        <v>99.91885990620401</v>
-      </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1711,14 +1463,10 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1731,57 +1479,15 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1834,25 +1540,35 @@
       <c r="R9" t="n">
         <v>75.9433975219727</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.679512839473507</v>
-      </c>
-      <c r="T9" t="n">
-        <v>8.390576341186343</v>
-      </c>
-      <c r="U9" t="n">
-        <v>99.925157573403</v>
-      </c>
-      <c r="V9" t="n">
-        <v>99.9186164178539</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.04603</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1862,14 +1578,10 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1877,62 +1589,16 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1989,16 +1655,32 @@
       <c r="R10" t="n">
         <v>74.52830505371089</v>
       </c>
-      <c r="S10" t="n">
-        <v>0.690855954769765</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.532361334924285</v>
-      </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -2006,19 +1688,15 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -2031,49 +1709,15 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2109,52 +1753,36 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>2.774178265347752</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,77 +526,127 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Homicidios</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>IPC</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios_cat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>IPC_cat</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable_cat</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento_cat</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana_cat</t>
         </is>
       </c>
     </row>
@@ -656,78 +706,112 @@
         <v>75.7142868041992</v>
       </c>
       <c r="S2" t="n">
+        <v>0.646906930185419</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.5003657099032504</v>
+      </c>
+      <c r="U2" t="n">
+        <v>99.9267263105102</v>
+      </c>
+      <c r="V2" t="n">
+        <v>99.912472243595</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>236.597482033582</v>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -785,36 +869,26 @@
         <v>81.42857360839839</v>
       </c>
       <c r="S3" t="n">
+        <v>0.629108853827649</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2025980004264603</v>
+      </c>
+      <c r="U3" t="n">
+        <v>99.92650227872559</v>
+      </c>
+      <c r="V3" t="n">
+        <v>99.9188807943147</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X3" t="n">
         <v>248.7422063978929</v>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -829,7 +903,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -839,20 +913,70 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -914,41 +1038,29 @@
         <v>79.523811340332</v>
       </c>
       <c r="S4" t="n">
+        <v>0.655022828665732</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.95607633363965</v>
+      </c>
+      <c r="U4" t="n">
+        <v>99.9262844449661</v>
+      </c>
+      <c r="V4" t="n">
+        <v>99.91984176388959</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>261.3566246218267</v>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -958,7 +1070,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -968,24 +1080,70 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1043,36 +1201,24 @@
         <v>80.476188659668</v>
       </c>
       <c r="S5" t="n">
+        <v>0.613681647994712</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.674981368637938</v>
+      </c>
+      <c r="U5" t="n">
+        <v>99.9260564294656</v>
+      </c>
+      <c r="V5" t="n">
+        <v>99.9195943597293</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>266.0338821261873</v>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1082,12 +1228,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1097,24 +1243,70 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1172,36 +1364,24 @@
         <v>81.90476226806641</v>
       </c>
       <c r="S6" t="n">
+        <v>0.69779523479218</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6995189944586921</v>
+      </c>
+      <c r="U6" t="n">
+        <v>99.9258382744694</v>
+      </c>
+      <c r="V6" t="n">
+        <v>99.9193565738972</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>267.771676352777</v>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1211,12 +1391,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1226,24 +1406,70 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1301,33 +1527,21 @@
         <v>73.8095245361328</v>
       </c>
       <c r="S7" t="n">
+        <v>0.69421884953507</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3227530172996851</v>
+      </c>
+      <c r="U7" t="n">
+        <v>99.9256097637963</v>
+      </c>
+      <c r="V7" t="n">
+        <v>99.9191083525324</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>76.88015800192164</v>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1340,12 +1554,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1360,19 +1574,65 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1425,32 +1685,20 @@
       <c r="R8" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="S8" t="n">
+        <v>0.6075122429166609</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.093135119764123</v>
+      </c>
+      <c r="U8" t="n">
+        <v>99.9253811087183</v>
+      </c>
+      <c r="V8" t="n">
+        <v>99.91885990620401</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1463,10 +1711,14 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AC8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1479,15 +1731,57 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1540,35 +1834,25 @@
       <c r="R9" t="n">
         <v>75.9433975219727</v>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="S9" t="n">
+        <v>0.679512839473507</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8.390576341186343</v>
+      </c>
+      <c r="U9" t="n">
+        <v>99.925157573403</v>
+      </c>
+      <c r="V9" t="n">
+        <v>99.9186164178539</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.04603</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1578,10 +1862,14 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AC9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1589,16 +1877,62 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1655,32 +1989,16 @@
       <c r="R10" t="n">
         <v>74.52830505371089</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="S10" t="n">
+        <v>0.690855954769765</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.532361334924285</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1688,15 +2006,19 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1709,15 +2031,49 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1753,36 +2109,52 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>2.774178265347752</v>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,80 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Pobreza_Multidimennsional_Porcentual</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Crecimiento_Poblacional</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Participacion_Fuerza_Laboral</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
@@ -518,50 +533,63 @@
         <v>46422303</v>
       </c>
       <c r="C2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D2" t="n">
         <v>-0.0827492378541321</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>66.4614550787613</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>47.8600006103516</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>22.057</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>109834000</v>
       </c>
-      <c r="I2" t="n">
-        <v>58.829</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>236.597482033582</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -575,34 +603,32 @@
         <v>46458139</v>
       </c>
       <c r="C3" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.0771658726133905</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F3" t="n">
         <v>4.7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>66.3143685616246</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>48.6500015258789</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>19.635</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>115561000</v>
       </c>
-      <c r="I3" t="n">
-        <v>58.523</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>248.7422063978929</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -610,15 +636,30 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -632,34 +673,32 @@
         <v>46571232</v>
       </c>
       <c r="C4" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.243134086570712</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="n">
         <v>4.1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>66.1865982307919</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>51.1859564334636</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>17.224</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>121717000</v>
       </c>
-      <c r="I4" t="n">
-        <v>58.117</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>261.3566246218267</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -667,15 +706,30 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -689,34 +743,32 @@
         <v>46782011</v>
       </c>
       <c r="C5" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.451573724507016</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>3.9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>66.13197370359271</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>50.4199981689453</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>15.255</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>124456000</v>
       </c>
-      <c r="I5" t="n">
-        <v>57.924</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>266.0338821261873</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -724,15 +776,30 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -746,34 +813,32 @@
         <v>47118501</v>
       </c>
       <c r="C6" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.716697775475724</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" t="n">
         <v>3.6</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>66.1693765330282</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>53.012303429667</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>14.104</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>126170000</v>
       </c>
-      <c r="I6" t="n">
-        <v>57.92</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>267.771676352777</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -781,15 +846,30 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -803,34 +883,32 @@
         <v>47359424</v>
       </c>
       <c r="C7" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.510010189620998</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F7" t="n">
         <v>4.2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>66.2408766587242</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>53.2599983215332</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>15.532</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>36410000</v>
       </c>
-      <c r="I7" t="n">
-        <v>56.72</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>76.88015800192164</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -838,15 +916,30 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -859,31 +952,27 @@
       <c r="B8" t="n">
         <v>47443821</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>0.178046695121711</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" t="n">
         <v>3.4</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>66.2783015470184</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>55.3232507853649</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>14.914</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>57.648</v>
-      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -891,15 +980,26 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -908,31 +1008,27 @@
       <c r="B9" t="n">
         <v>47786102</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
         <v>0.7188548791600941</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F9" t="n">
         <v>3.5</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>66.21609041451489</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>54.7419193092956</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>13.033</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>57.782</v>
-      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -940,15 +1036,26 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -957,47 +1064,54 @@
       <c r="B10" t="n">
         <v>48347910</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>1.16881504089364</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F10" t="n">
         <v>3.2</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>66.08764171508891</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>55.9303998473828</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>12.179</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>58.064</v>
-      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1006,45 +1120,46 @@
       <c r="B11" t="n">
         <v>48807137</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
         <v>0.945355767423027</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>65.9328112372132</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>55.6838432566667</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>11.344</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>58.02</v>
-      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,72 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimensional_Porcentual</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral_Estudios</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Desempleo</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Cantidad_Turistas_Año</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ratio_turistas_residentes</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Crecimiento_Poblacional_cat</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Desempleo_cat</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
     </row>
@@ -538,58 +478,12 @@
       <c r="D2" t="n">
         <v>-0.0827492378541321</v>
       </c>
-      <c r="E2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>66.4614550787613</v>
-      </c>
-      <c r="H2" t="n">
-        <v>47.8600006103516</v>
-      </c>
-      <c r="I2" t="n">
-        <v>22.057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>109834000</v>
-      </c>
-      <c r="K2" t="n">
-        <v>236.597482033582</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -608,58 +502,12 @@
       <c r="D3" t="n">
         <v>0.0771658726133905</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>66.3143685616246</v>
-      </c>
-      <c r="H3" t="n">
-        <v>48.6500015258789</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19.635</v>
-      </c>
-      <c r="J3" t="n">
-        <v>115561000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>248.7422063978929</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -678,58 +526,12 @@
       <c r="D4" t="n">
         <v>0.243134086570712</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>66.1865982307919</v>
-      </c>
-      <c r="H4" t="n">
-        <v>51.1859564334636</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17.224</v>
-      </c>
-      <c r="J4" t="n">
-        <v>121717000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>261.3566246218267</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -748,58 +550,12 @@
       <c r="D5" t="n">
         <v>0.451573724507016</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>66.13197370359271</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50.4199981689453</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15.255</v>
-      </c>
-      <c r="J5" t="n">
-        <v>124456000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>266.0338821261873</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -818,58 +574,12 @@
       <c r="D6" t="n">
         <v>0.716697775475724</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>66.1693765330282</v>
-      </c>
-      <c r="H6" t="n">
-        <v>53.012303429667</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.104</v>
-      </c>
-      <c r="J6" t="n">
-        <v>126170000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>267.771676352777</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
@@ -888,60 +598,14 @@
       <c r="D7" t="n">
         <v>0.510010189620998</v>
       </c>
-      <c r="E7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>66.2408766587242</v>
-      </c>
-      <c r="H7" t="n">
-        <v>53.2599983215332</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15.532</v>
-      </c>
-      <c r="J7" t="n">
-        <v>36410000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>76.88015800192164</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
     </row>
@@ -956,50 +620,12 @@
       <c r="D8" t="n">
         <v>0.178046695121711</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>66.2783015470184</v>
-      </c>
-      <c r="H8" t="n">
-        <v>55.3232507853649</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14.914</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1012,50 +638,12 @@
       <c r="D9" t="n">
         <v>0.7188548791600941</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>66.21609041451489</v>
-      </c>
-      <c r="H9" t="n">
-        <v>54.7419193092956</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13.033</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1068,50 +656,12 @@
       <c r="D10" t="n">
         <v>1.16881504089364</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>66.08764171508891</v>
-      </c>
-      <c r="H10" t="n">
-        <v>55.9303998473828</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12.179</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1124,42 +674,12 @@
       <c r="D11" t="n">
         <v>0.945355767423027</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>65.9328112372132</v>
-      </c>
-      <c r="H11" t="n">
-        <v>55.6838432566667</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.344</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,132 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Pobreza_Poblacion_Porcentual</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Pobreza_Multidimensional_Porcentual</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad_Turistas_Año</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Calidad_Regulatoria</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>IPC</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion_cat</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho_cat</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental_cat</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas_cat</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana_cat</t>
         </is>
       </c>
     </row>
@@ -478,16 +598,90 @@
       <c r="D2" t="n">
         <v>-0.0827492378541321</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="E2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>66.4614550787613</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.8600006103516</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22.057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>109834000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>58.829</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>55.7142868041992</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.15725028514862</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.630986750125885</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.04487037658691</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.886066854000092</v>
+      </c>
+      <c r="R2" t="n">
+        <v>75.7142868041992</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.646906930185419</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.5003657099032504</v>
+      </c>
+      <c r="U2" t="n">
+        <v>99.9267263105102</v>
+      </c>
+      <c r="V2" t="n">
+        <v>99.912472243595</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>236.597482033582</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -502,14 +696,94 @@
       <c r="D3" t="n">
         <v>0.0771658726133905</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
+      <c r="E3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>66.3143685616246</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48.6500015258789</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.635</v>
+      </c>
+      <c r="J3" t="n">
+        <v>115561000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58.523</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.0948657989502</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.569826066493988</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.04160034656525</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9653528928756711</v>
+      </c>
+      <c r="R3" t="n">
+        <v>81.42857360839839</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.629108853827649</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2025980004264603</v>
+      </c>
+      <c r="U3" t="n">
+        <v>99.92650227872559</v>
+      </c>
+      <c r="V3" t="n">
+        <v>99.9188807943147</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X3" t="n">
+        <v>248.7422063978929</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -526,16 +800,90 @@
       <c r="D4" t="n">
         <v>0.243134086570712</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="E4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>66.1865982307919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51.1859564334636</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.224</v>
+      </c>
+      <c r="J4" t="n">
+        <v>121717000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>58.117</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>57.1428565979004</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.00125849246979</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.510279893875122</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.02150094509125</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.02435386180878</v>
+      </c>
+      <c r="R4" t="n">
+        <v>79.523811340332</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.655022828665732</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.95607633363965</v>
+      </c>
+      <c r="U4" t="n">
+        <v>99.9262844449661</v>
+      </c>
+      <c r="V4" t="n">
+        <v>99.91984176388959</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>261.3566246218267</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -550,16 +898,90 @@
       <c r="D5" t="n">
         <v>0.451573724507016</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>66.13197370359271</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50.4199981689453</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.255</v>
+      </c>
+      <c r="J5" t="n">
+        <v>124456000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.924</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>56.6037750244141</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.969246029853821</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.612778782844543</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.02963280677795</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.978094100952148</v>
+      </c>
+      <c r="R5" t="n">
+        <v>80.476188659668</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.613681647994712</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.674981368637938</v>
+      </c>
+      <c r="U5" t="n">
+        <v>99.9260564294656</v>
+      </c>
+      <c r="V5" t="n">
+        <v>99.9195943597293</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>266.0338821261873</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,16 +996,90 @@
       <c r="D6" t="n">
         <v>0.716697775475724</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="E6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>66.1693765330282</v>
+      </c>
+      <c r="H6" t="n">
+        <v>53.012303429667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.104</v>
+      </c>
+      <c r="J6" t="n">
+        <v>126170000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>58.0188674926758</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.968808770179749</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.666394531726837</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.03599870204926</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.990192174911499</v>
+      </c>
+      <c r="R6" t="n">
+        <v>81.90476226806641</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.69779523479218</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6995189944586921</v>
+      </c>
+      <c r="U6" t="n">
+        <v>99.9258382744694</v>
+      </c>
+      <c r="V6" t="n">
+        <v>99.9193565738972</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>267.771676352777</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -598,16 +1094,90 @@
       <c r="D7" t="n">
         <v>0.510010189620998</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="E7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>66.2408766587242</v>
+      </c>
+      <c r="H7" t="n">
+        <v>53.2599983215332</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.532</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36410000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>56.72</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>58.9622650146484</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.853928565979004</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.711801946163177</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.00401437282562</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.860964477062225</v>
+      </c>
+      <c r="R7" t="n">
+        <v>73.8095245361328</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.69421884953507</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3227530172996851</v>
+      </c>
+      <c r="U7" t="n">
+        <v>99.9256097637963</v>
+      </c>
+      <c r="V7" t="n">
+        <v>99.9191083525324</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>76.88015800192164</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,12 +1190,86 @@
       <c r="D8" t="n">
         <v>0.178046695121711</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>66.2783015470184</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55.3232507853649</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.914</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>57.648</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>61.7924537658691</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.907896876335144</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.715437471866608</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9995130896568299</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.843258261680603</v>
+      </c>
+      <c r="R8" t="n">
+        <v>73.8095245361328</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.6075122429166609</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.093135119764123</v>
+      </c>
+      <c r="U8" t="n">
+        <v>99.9253811087183</v>
+      </c>
+      <c r="V8" t="n">
+        <v>99.91885990620401</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -638,12 +1282,92 @@
       <c r="D9" t="n">
         <v>0.7188548791600941</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>66.21609041451489</v>
+      </c>
+      <c r="H9" t="n">
+        <v>54.7419193092956</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.033</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>57.782</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>55.1886787414551</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.920230388641357</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.685416162014008</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.01683568954468</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.799167692661285</v>
+      </c>
+      <c r="R9" t="n">
+        <v>75.9433975219727</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.679512839473507</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8.390576341186343</v>
+      </c>
+      <c r="U9" t="n">
+        <v>99.925157573403</v>
+      </c>
+      <c r="V9" t="n">
+        <v>99.9186164178539</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.04603</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -656,12 +1380,82 @@
       <c r="D10" t="n">
         <v>1.16881504089364</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>66.08764171508891</v>
+      </c>
+      <c r="H10" t="n">
+        <v>55.9303998473828</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.179</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>58.064</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>54.9763031005859</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7520655393600461</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.629368722438812</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.19472968578339</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8228856921195979</v>
+      </c>
+      <c r="R10" t="n">
+        <v>74.52830505371089</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.690855954769765</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.532361334924285</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -674,12 +1468,42 @@
       <c r="D11" t="n">
         <v>0.945355767423027</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>65.9328112372132</v>
+      </c>
+      <c r="H11" t="n">
+        <v>55.6838432566667</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.344</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>58.02</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>2.774178265347752</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,10 +576,70 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Estabilidad_Politica_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios_cat</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Crecimiento_Poblacional_cat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>IPC_cat</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_cat</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo_cat</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes_cat</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable_cat</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento_cat</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -678,10 +738,70 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -778,10 +898,70 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -880,10 +1060,70 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -978,10 +1218,70 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1076,10 +1376,70 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1174,10 +1534,70 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1266,10 +1686,62 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1360,10 +1832,62 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1452,10 +1976,54 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1504,6 +2072,38 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,65 +581,70 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>Calidad_Regulatoria_cat</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -748,12 +753,12 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -763,7 +768,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -778,17 +783,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -798,10 +803,15 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -908,12 +918,12 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -923,7 +933,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -938,17 +948,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -958,10 +968,15 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1070,12 +1085,12 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1085,7 +1100,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1100,17 +1115,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1120,10 +1135,15 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1228,12 +1248,12 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1243,7 +1263,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1258,17 +1278,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1278,10 +1298,15 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1386,12 +1411,12 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1401,7 +1426,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1416,17 +1441,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1436,10 +1461,15 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1539,17 +1569,17 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1559,7 +1589,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1574,17 +1604,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1594,10 +1624,15 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1691,12 +1726,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1706,15 +1741,15 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1722,15 +1757,15 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1738,10 +1773,15 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1842,7 +1882,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1852,15 +1892,15 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1868,15 +1908,15 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1884,10 +1924,15 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1981,7 +2026,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -1991,20 +2036,20 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -2012,18 +2057,23 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2072,23 +2122,19 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -2096,14 +2142,19 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,145 +506,135 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -694,46 +684,48 @@
         <v>1.15725028514862</v>
       </c>
       <c r="O2" t="n">
-        <v>0.630986750125885</v>
+        <v>1.04487037658691</v>
       </c>
       <c r="P2" t="n">
-        <v>1.04487037658691</v>
+        <v>0.886066854000092</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.886066854000092</v>
+        <v>75.7142868041992</v>
       </c>
       <c r="R2" t="n">
-        <v>75.7142868041992</v>
+        <v>0.646906930185419</v>
       </c>
       <c r="S2" t="n">
-        <v>0.646906930185419</v>
+        <v>-0.5003657099032504</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.5003657099032504</v>
+        <v>99.9267263105102</v>
       </c>
       <c r="U2" t="n">
-        <v>99.9267263105102</v>
-      </c>
-      <c r="V2" t="n">
         <v>99.912472243595</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
         <v>236.597482033582</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -743,12 +735,12 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -758,17 +750,17 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -778,7 +770,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -793,25 +785,15 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -857,48 +839,50 @@
         <v>1.0948657989502</v>
       </c>
       <c r="O3" t="n">
-        <v>0.569826066493988</v>
+        <v>1.04160034656525</v>
       </c>
       <c r="P3" t="n">
-        <v>1.04160034656525</v>
+        <v>0.9653528928756711</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9653528928756711</v>
+        <v>81.42857360839839</v>
       </c>
       <c r="R3" t="n">
-        <v>81.42857360839839</v>
+        <v>0.629108853827649</v>
       </c>
       <c r="S3" t="n">
-        <v>0.629108853827649</v>
+        <v>-0.2025980004264603</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2025980004264603</v>
+        <v>99.92650227872559</v>
       </c>
       <c r="U3" t="n">
-        <v>99.92650227872559</v>
+        <v>99.9188807943147</v>
       </c>
       <c r="V3" t="n">
-        <v>99.9188807943147</v>
+        <v>0.05</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X3" t="n">
         <v>248.7422063978929</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -908,12 +892,12 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -923,17 +907,17 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -943,7 +927,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -958,25 +942,15 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1026,36 +1000,38 @@
         <v>1.00125849246979</v>
       </c>
       <c r="O4" t="n">
-        <v>0.510279893875122</v>
+        <v>1.02150094509125</v>
       </c>
       <c r="P4" t="n">
-        <v>1.02150094509125</v>
+        <v>1.02435386180878</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02435386180878</v>
+        <v>79.523811340332</v>
       </c>
       <c r="R4" t="n">
-        <v>79.523811340332</v>
+        <v>0.655022828665732</v>
       </c>
       <c r="S4" t="n">
-        <v>0.655022828665732</v>
+        <v>1.95607633363965</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95607633363965</v>
+        <v>99.9262844449661</v>
       </c>
       <c r="U4" t="n">
-        <v>99.9262844449661</v>
-      </c>
-      <c r="V4" t="n">
         <v>99.91984176388959</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
         <v>261.3566246218267</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1065,7 +1041,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1075,12 +1051,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1090,17 +1066,17 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1110,7 +1086,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1125,25 +1101,15 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1189,33 +1155,35 @@
         <v>0.969246029853821</v>
       </c>
       <c r="O5" t="n">
-        <v>0.612778782844543</v>
+        <v>1.02963280677795</v>
       </c>
       <c r="P5" t="n">
-        <v>1.02963280677795</v>
+        <v>0.978094100952148</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.978094100952148</v>
+        <v>80.476188659668</v>
       </c>
       <c r="R5" t="n">
-        <v>80.476188659668</v>
+        <v>0.613681647994712</v>
       </c>
       <c r="S5" t="n">
-        <v>0.613681647994712</v>
+        <v>1.674981368637938</v>
       </c>
       <c r="T5" t="n">
-        <v>1.674981368637938</v>
+        <v>99.9260564294656</v>
       </c>
       <c r="U5" t="n">
-        <v>99.9260564294656</v>
-      </c>
-      <c r="V5" t="n">
         <v>99.9195943597293</v>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="n">
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
         <v>266.0338821261873</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1223,7 +1191,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1238,12 +1206,12 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1253,17 +1221,17 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1273,7 +1241,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1288,25 +1256,15 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1352,33 +1310,35 @@
         <v>0.968808770179749</v>
       </c>
       <c r="O6" t="n">
-        <v>0.666394531726837</v>
+        <v>1.03599870204926</v>
       </c>
       <c r="P6" t="n">
-        <v>1.03599870204926</v>
+        <v>0.990192174911499</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.990192174911499</v>
+        <v>81.90476226806641</v>
       </c>
       <c r="R6" t="n">
-        <v>81.90476226806641</v>
+        <v>0.69779523479218</v>
       </c>
       <c r="S6" t="n">
-        <v>0.69779523479218</v>
+        <v>0.6995189944586921</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6995189944586921</v>
+        <v>99.9258382744694</v>
       </c>
       <c r="U6" t="n">
-        <v>99.9258382744694</v>
-      </c>
-      <c r="V6" t="n">
         <v>99.9193565738972</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
         <v>267.771676352777</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1386,7 +1346,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1401,12 +1361,12 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1416,17 +1376,17 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1436,7 +1396,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1451,25 +1411,15 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1515,33 +1465,35 @@
         <v>0.853928565979004</v>
       </c>
       <c r="O7" t="n">
-        <v>0.711801946163177</v>
+        <v>1.00401437282562</v>
       </c>
       <c r="P7" t="n">
-        <v>1.00401437282562</v>
+        <v>0.860964477062225</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.860964477062225</v>
+        <v>73.8095245361328</v>
       </c>
       <c r="R7" t="n">
-        <v>73.8095245361328</v>
+        <v>0.69421884953507</v>
       </c>
       <c r="S7" t="n">
-        <v>0.69421884953507</v>
+        <v>-0.3227530172996851</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.3227530172996851</v>
+        <v>99.9256097637963</v>
       </c>
       <c r="U7" t="n">
-        <v>99.9256097637963</v>
-      </c>
-      <c r="V7" t="n">
         <v>99.9191083525324</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
         <v>76.88015800192164</v>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1549,7 +1501,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1559,12 +1511,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1579,17 +1531,17 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1599,12 +1551,12 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1614,25 +1566,15 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1674,31 +1616,33 @@
         <v>0.907896876335144</v>
       </c>
       <c r="O8" t="n">
-        <v>0.715437471866608</v>
+        <v>0.9995130896568299</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9995130896568299</v>
+        <v>0.843258261680603</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.843258261680603</v>
+        <v>73.8095245361328</v>
       </c>
       <c r="R8" t="n">
-        <v>73.8095245361328</v>
+        <v>0.6075122429166609</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6075122429166609</v>
+        <v>3.093135119764123</v>
       </c>
       <c r="T8" t="n">
-        <v>3.093135119764123</v>
+        <v>99.9253811087183</v>
       </c>
       <c r="U8" t="n">
-        <v>99.9253811087183</v>
-      </c>
-      <c r="V8" t="n">
         <v>99.91885990620401</v>
       </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1721,7 +1665,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1731,57 +1675,47 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1823,33 +1757,35 @@
         <v>0.920230388641357</v>
       </c>
       <c r="O9" t="n">
-        <v>0.685416162014008</v>
+        <v>1.01683568954468</v>
       </c>
       <c r="P9" t="n">
-        <v>1.01683568954468</v>
+        <v>0.799167692661285</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.799167692661285</v>
+        <v>75.9433975219727</v>
       </c>
       <c r="R9" t="n">
-        <v>75.9433975219727</v>
+        <v>0.679512839473507</v>
       </c>
       <c r="S9" t="n">
-        <v>0.679512839473507</v>
+        <v>8.390576341186343</v>
       </c>
       <c r="T9" t="n">
-        <v>8.390576341186343</v>
+        <v>99.925157573403</v>
       </c>
       <c r="U9" t="n">
-        <v>99.925157573403</v>
+        <v>99.9186164178539</v>
       </c>
       <c r="V9" t="n">
-        <v>99.9186164178539</v>
-      </c>
-      <c r="W9" t="n">
         <v>0.04603</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1857,7 +1793,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1872,67 +1808,57 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1978,27 +1904,29 @@
         <v>0.7520655393600461</v>
       </c>
       <c r="O10" t="n">
-        <v>0.629368722438812</v>
+        <v>1.19472968578339</v>
       </c>
       <c r="P10" t="n">
-        <v>1.19472968578339</v>
+        <v>0.8228856921195979</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8228856921195979</v>
+        <v>74.52830505371089</v>
       </c>
       <c r="R10" t="n">
-        <v>74.52830505371089</v>
+        <v>0.690855954769765</v>
       </c>
       <c r="S10" t="n">
-        <v>0.690855954769765</v>
-      </c>
-      <c r="T10" t="n">
         <v>3.532361334924285</v>
       </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -2006,7 +1934,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2016,22 +1944,22 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2039,41 +1967,31 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2108,10 +2026,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
+      <c r="S11" t="n">
         <v>2.774178265347752</v>
       </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -2121,40 +2039,38 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,135 +506,145 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Control_Corrupcion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion_cat</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -684,48 +694,46 @@
         <v>1.15725028514862</v>
       </c>
       <c r="O2" t="n">
+        <v>0.630986750125885</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.04487037658691</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.886066854000092</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>75.7142868041992</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.646906930185419</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-0.5003657099032504</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>99.9267263105102</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>99.912472243595</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>236.597482033582</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -735,12 +743,12 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -750,17 +758,17 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -770,7 +778,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -785,15 +793,25 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -839,50 +857,48 @@
         <v>1.0948657989502</v>
       </c>
       <c r="O3" t="n">
+        <v>0.569826066493988</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.04160034656525</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.9653528928756711</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>81.42857360839839</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.629108853827649</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-0.2025980004264603</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>99.92650227872559</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>99.9188807943147</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.05</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>248.7422063978929</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,12 +908,12 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -907,17 +923,17 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -927,7 +943,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -942,15 +958,25 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1000,38 +1026,36 @@
         <v>1.00125849246979</v>
       </c>
       <c r="O4" t="n">
+        <v>0.510279893875122</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.02150094509125</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>1.02435386180878</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>79.523811340332</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.655022828665732</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>1.95607633363965</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>99.9262844449661</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>99.91984176388959</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>261.3566246218267</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1041,7 +1065,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1051,12 +1075,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1066,17 +1090,17 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1086,7 +1110,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1101,15 +1125,25 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1155,35 +1189,33 @@
         <v>0.969246029853821</v>
       </c>
       <c r="O5" t="n">
+        <v>0.612778782844543</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.02963280677795</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.978094100952148</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>80.476188659668</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.613681647994712</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1.674981368637938</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>99.9260564294656</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>99.9195943597293</v>
       </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>266.0338821261873</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1191,7 +1223,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1206,12 +1238,12 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1221,17 +1253,17 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1241,7 +1273,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1256,15 +1288,25 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1310,35 +1352,33 @@
         <v>0.968808770179749</v>
       </c>
       <c r="O6" t="n">
+        <v>0.666394531726837</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.03599870204926</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.990192174911499</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>81.90476226806641</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.69779523479218</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.6995189944586921</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>99.9258382744694</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>99.9193565738972</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>267.771676352777</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1346,7 +1386,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1361,12 +1401,12 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1376,17 +1416,17 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1396,7 +1436,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1411,15 +1451,25 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1465,35 +1515,33 @@
         <v>0.853928565979004</v>
       </c>
       <c r="O7" t="n">
+        <v>0.711801946163177</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.00401437282562</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.860964477062225</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.69421884953507</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-0.3227530172996851</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>99.9256097637963</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>99.9191083525324</v>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>76.88015800192164</v>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1501,7 +1549,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1511,12 +1559,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1531,17 +1579,17 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1551,12 +1599,12 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1566,15 +1614,25 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1616,33 +1674,31 @@
         <v>0.907896876335144</v>
       </c>
       <c r="O8" t="n">
+        <v>0.715437471866608</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.9995130896568299</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.843258261680603</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.6075122429166609</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>3.093135119764123</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>99.9253811087183</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>99.91885990620401</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1665,7 +1721,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1675,47 +1731,57 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1757,35 +1823,33 @@
         <v>0.920230388641357</v>
       </c>
       <c r="O9" t="n">
+        <v>0.685416162014008</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.01683568954468</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.799167692661285</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>75.9433975219727</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.679512839473507</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>8.390576341186343</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>99.925157573403</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>99.9186164178539</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>0.04603</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1793,7 +1857,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1808,57 +1872,67 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1904,29 +1978,27 @@
         <v>0.7520655393600461</v>
       </c>
       <c r="O10" t="n">
+        <v>0.629368722438812</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.19472968578339</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.8228856921195979</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>74.52830505371089</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.690855954769765</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>3.532361334924285</v>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1934,7 +2006,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1944,22 +2016,22 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -1967,31 +2039,41 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2026,10 +2108,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>2.774178265347752</v>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -2039,38 +2121,40 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,195 +456,185 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual</t>
+          <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimensional_Porcentual</t>
+          <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral</t>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios</t>
+          <t>Tasa_Desempleo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo</t>
+          <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad_Turistas_Año</t>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Participacion_Fuerza_Laboral</t>
+          <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Inseguridad_Alimentaria</t>
+          <t>Estabilidad_Politica</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica</t>
+          <t>Efectividad_Gubernamental</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Control_Corrupcion</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -664,63 +654,65 @@
         <v>-0.0827492378541321</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>66.4614550787613</v>
       </c>
       <c r="G2" t="n">
-        <v>66.4614550787613</v>
+        <v>47.8600006103516</v>
       </c>
       <c r="H2" t="n">
-        <v>47.8600006103516</v>
+        <v>22.057</v>
       </c>
       <c r="I2" t="n">
-        <v>22.057</v>
+        <v>109834000</v>
       </c>
       <c r="J2" t="n">
-        <v>109834000</v>
+        <v>58.829</v>
       </c>
       <c r="K2" t="n">
-        <v>58.829</v>
+        <v>7.1</v>
       </c>
       <c r="L2" t="n">
-        <v>7.1</v>
+        <v>55.7142868041992</v>
       </c>
       <c r="M2" t="n">
-        <v>55.7142868041992</v>
+        <v>1.15725028514862</v>
       </c>
       <c r="N2" t="n">
-        <v>1.15725028514862</v>
+        <v>0.630986750125885</v>
       </c>
       <c r="O2" t="n">
-        <v>0.630986750125885</v>
+        <v>1.04487037658691</v>
       </c>
       <c r="P2" t="n">
-        <v>1.04487037658691</v>
+        <v>0.886066854000092</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.886066854000092</v>
+        <v>75.7142868041992</v>
       </c>
       <c r="R2" t="n">
-        <v>75.7142868041992</v>
+        <v>0.646906930185419</v>
       </c>
       <c r="S2" t="n">
-        <v>0.646906930185419</v>
+        <v>-0.5003657099032504</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.5003657099032504</v>
+        <v>99.9267263105102</v>
       </c>
       <c r="U2" t="n">
-        <v>99.9267263105102</v>
-      </c>
-      <c r="V2" t="n">
         <v>99.912472243595</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
         <v>236.597482033582</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -728,7 +720,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -738,12 +730,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -753,22 +745,22 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -778,7 +770,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -793,25 +785,15 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -827,65 +809,67 @@
         <v>0.0771658726133905</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>66.3143685616246</v>
       </c>
       <c r="G3" t="n">
-        <v>66.3143685616246</v>
+        <v>48.6500015258789</v>
       </c>
       <c r="H3" t="n">
-        <v>48.6500015258789</v>
+        <v>19.635</v>
       </c>
       <c r="I3" t="n">
-        <v>19.635</v>
+        <v>115561000</v>
       </c>
       <c r="J3" t="n">
-        <v>115561000</v>
+        <v>58.523</v>
       </c>
       <c r="K3" t="n">
-        <v>58.523</v>
+        <v>7.5</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>1.0948657989502</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0948657989502</v>
+        <v>0.569826066493988</v>
       </c>
       <c r="O3" t="n">
-        <v>0.569826066493988</v>
+        <v>1.04160034656525</v>
       </c>
       <c r="P3" t="n">
-        <v>1.04160034656525</v>
+        <v>0.9653528928756711</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9653528928756711</v>
+        <v>81.42857360839839</v>
       </c>
       <c r="R3" t="n">
-        <v>81.42857360839839</v>
+        <v>0.629108853827649</v>
       </c>
       <c r="S3" t="n">
-        <v>0.629108853827649</v>
+        <v>-0.2025980004264603</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2025980004264603</v>
+        <v>99.92650227872559</v>
       </c>
       <c r="U3" t="n">
-        <v>99.92650227872559</v>
+        <v>99.9188807943147</v>
       </c>
       <c r="V3" t="n">
-        <v>99.9188807943147</v>
+        <v>0.05</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X3" t="n">
         <v>248.7422063978929</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -893,7 +877,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -903,12 +887,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -918,22 +902,22 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -943,7 +927,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -958,25 +942,15 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -996,66 +970,68 @@
         <v>0.243134086570712</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>66.1865982307919</v>
       </c>
       <c r="G4" t="n">
-        <v>66.1865982307919</v>
+        <v>51.1859564334636</v>
       </c>
       <c r="H4" t="n">
-        <v>51.1859564334636</v>
+        <v>17.224</v>
       </c>
       <c r="I4" t="n">
-        <v>17.224</v>
+        <v>121717000</v>
       </c>
       <c r="J4" t="n">
-        <v>121717000</v>
+        <v>58.117</v>
       </c>
       <c r="K4" t="n">
-        <v>58.117</v>
+        <v>7.5</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>57.1428565979004</v>
       </c>
       <c r="M4" t="n">
-        <v>57.1428565979004</v>
+        <v>1.00125849246979</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00125849246979</v>
+        <v>0.510279893875122</v>
       </c>
       <c r="O4" t="n">
-        <v>0.510279893875122</v>
+        <v>1.02150094509125</v>
       </c>
       <c r="P4" t="n">
-        <v>1.02150094509125</v>
+        <v>1.02435386180878</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02435386180878</v>
+        <v>79.523811340332</v>
       </c>
       <c r="R4" t="n">
-        <v>79.523811340332</v>
+        <v>0.655022828665732</v>
       </c>
       <c r="S4" t="n">
-        <v>0.655022828665732</v>
+        <v>1.95607633363965</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95607633363965</v>
+        <v>99.9262844449661</v>
       </c>
       <c r="U4" t="n">
-        <v>99.9262844449661</v>
-      </c>
-      <c r="V4" t="n">
         <v>99.91984176388959</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
         <v>261.3566246218267</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1070,12 +1046,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1085,22 +1061,22 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1110,7 +1086,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1125,25 +1101,15 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,63 +1125,65 @@
         <v>0.451573724507016</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>66.13197370359271</v>
       </c>
       <c r="G5" t="n">
-        <v>66.13197370359271</v>
+        <v>50.4199981689453</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4199981689453</v>
+        <v>15.255</v>
       </c>
       <c r="I5" t="n">
-        <v>15.255</v>
+        <v>124456000</v>
       </c>
       <c r="J5" t="n">
-        <v>124456000</v>
+        <v>57.924</v>
       </c>
       <c r="K5" t="n">
-        <v>57.924</v>
+        <v>8.6</v>
       </c>
       <c r="L5" t="n">
-        <v>8.6</v>
+        <v>56.6037750244141</v>
       </c>
       <c r="M5" t="n">
-        <v>56.6037750244141</v>
+        <v>0.969246029853821</v>
       </c>
       <c r="N5" t="n">
-        <v>0.969246029853821</v>
+        <v>0.612778782844543</v>
       </c>
       <c r="O5" t="n">
-        <v>0.612778782844543</v>
+        <v>1.02963280677795</v>
       </c>
       <c r="P5" t="n">
-        <v>1.02963280677795</v>
+        <v>0.978094100952148</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.978094100952148</v>
+        <v>80.476188659668</v>
       </c>
       <c r="R5" t="n">
-        <v>80.476188659668</v>
+        <v>0.613681647994712</v>
       </c>
       <c r="S5" t="n">
-        <v>0.613681647994712</v>
+        <v>1.674981368637938</v>
       </c>
       <c r="T5" t="n">
-        <v>1.674981368637938</v>
+        <v>99.9260564294656</v>
       </c>
       <c r="U5" t="n">
-        <v>99.9260564294656</v>
-      </c>
-      <c r="V5" t="n">
         <v>99.9195943597293</v>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="n">
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
         <v>266.0338821261873</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1228,17 +1196,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1248,22 +1216,22 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1273,7 +1241,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1288,25 +1256,15 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1322,63 +1280,65 @@
         <v>0.716697775475724</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>66.1693765330282</v>
       </c>
       <c r="G6" t="n">
-        <v>66.1693765330282</v>
+        <v>53.012303429667</v>
       </c>
       <c r="H6" t="n">
-        <v>53.012303429667</v>
+        <v>14.104</v>
       </c>
       <c r="I6" t="n">
-        <v>14.104</v>
+        <v>126170000</v>
       </c>
       <c r="J6" t="n">
-        <v>126170000</v>
+        <v>57.92</v>
       </c>
       <c r="K6" t="n">
-        <v>57.92</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>8.800000000000001</v>
+        <v>58.0188674926758</v>
       </c>
       <c r="M6" t="n">
-        <v>58.0188674926758</v>
+        <v>0.968808770179749</v>
       </c>
       <c r="N6" t="n">
-        <v>0.968808770179749</v>
+        <v>0.666394531726837</v>
       </c>
       <c r="O6" t="n">
-        <v>0.666394531726837</v>
+        <v>1.03599870204926</v>
       </c>
       <c r="P6" t="n">
-        <v>1.03599870204926</v>
+        <v>0.990192174911499</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.990192174911499</v>
+        <v>81.90476226806641</v>
       </c>
       <c r="R6" t="n">
-        <v>81.90476226806641</v>
+        <v>0.69779523479218</v>
       </c>
       <c r="S6" t="n">
-        <v>0.69779523479218</v>
+        <v>0.6995189944586921</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6995189944586921</v>
+        <v>99.9258382744694</v>
       </c>
       <c r="U6" t="n">
-        <v>99.9258382744694</v>
-      </c>
-      <c r="V6" t="n">
         <v>99.9193565738972</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
         <v>267.771676352777</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1391,17 +1351,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1411,22 +1371,22 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1436,7 +1396,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1451,25 +1411,15 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1485,63 +1435,65 @@
         <v>0.510010189620998</v>
       </c>
       <c r="E7" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>66.2408766587242</v>
       </c>
       <c r="G7" t="n">
-        <v>66.2408766587242</v>
+        <v>53.2599983215332</v>
       </c>
       <c r="H7" t="n">
-        <v>53.2599983215332</v>
+        <v>15.532</v>
       </c>
       <c r="I7" t="n">
-        <v>15.532</v>
+        <v>36410000</v>
       </c>
       <c r="J7" t="n">
-        <v>36410000</v>
+        <v>56.72</v>
       </c>
       <c r="K7" t="n">
-        <v>56.72</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
-        <v>8.6</v>
+        <v>58.9622650146484</v>
       </c>
       <c r="M7" t="n">
-        <v>58.9622650146484</v>
+        <v>0.853928565979004</v>
       </c>
       <c r="N7" t="n">
-        <v>0.853928565979004</v>
+        <v>0.711801946163177</v>
       </c>
       <c r="O7" t="n">
-        <v>0.711801946163177</v>
+        <v>1.00401437282562</v>
       </c>
       <c r="P7" t="n">
-        <v>1.00401437282562</v>
+        <v>0.860964477062225</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.860964477062225</v>
+        <v>73.8095245361328</v>
       </c>
       <c r="R7" t="n">
-        <v>73.8095245361328</v>
+        <v>0.69421884953507</v>
       </c>
       <c r="S7" t="n">
-        <v>0.69421884953507</v>
+        <v>-0.3227530172996851</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.3227530172996851</v>
+        <v>99.9256097637963</v>
       </c>
       <c r="U7" t="n">
-        <v>99.9256097637963</v>
-      </c>
-      <c r="V7" t="n">
         <v>99.9191083525324</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
         <v>76.88015800192164</v>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1554,12 +1506,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1569,27 +1521,27 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1599,12 +1551,12 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1614,25 +1566,15 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1646,59 +1588,61 @@
         <v>0.178046695121711</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>66.2783015470184</v>
       </c>
       <c r="G8" t="n">
-        <v>66.2783015470184</v>
+        <v>55.3232507853649</v>
       </c>
       <c r="H8" t="n">
-        <v>55.3232507853649</v>
-      </c>
-      <c r="I8" t="n">
         <v>14.914</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>57.648</v>
+      </c>
       <c r="K8" t="n">
-        <v>57.648</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>61.7924537658691</v>
       </c>
       <c r="M8" t="n">
-        <v>61.7924537658691</v>
+        <v>0.907896876335144</v>
       </c>
       <c r="N8" t="n">
-        <v>0.907896876335144</v>
+        <v>0.715437471866608</v>
       </c>
       <c r="O8" t="n">
-        <v>0.715437471866608</v>
+        <v>0.9995130896568299</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9995130896568299</v>
+        <v>0.843258261680603</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.843258261680603</v>
+        <v>73.8095245361328</v>
       </c>
       <c r="R8" t="n">
-        <v>73.8095245361328</v>
+        <v>0.6075122429166609</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6075122429166609</v>
+        <v>3.093135119764123</v>
       </c>
       <c r="T8" t="n">
-        <v>3.093135119764123</v>
+        <v>99.9253811087183</v>
       </c>
       <c r="U8" t="n">
-        <v>99.9253811087183</v>
-      </c>
-      <c r="V8" t="n">
         <v>99.91885990620401</v>
       </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1726,12 +1670,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1739,49 +1683,39 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1795,61 +1729,63 @@
         <v>0.7188548791600941</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>66.21609041451489</v>
       </c>
       <c r="G9" t="n">
-        <v>66.21609041451489</v>
+        <v>54.7419193092956</v>
       </c>
       <c r="H9" t="n">
-        <v>54.7419193092956</v>
-      </c>
-      <c r="I9" t="n">
         <v>13.033</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>57.782</v>
+      </c>
       <c r="K9" t="n">
-        <v>57.782</v>
+        <v>6.9</v>
       </c>
       <c r="L9" t="n">
-        <v>6.9</v>
+        <v>55.1886787414551</v>
       </c>
       <c r="M9" t="n">
-        <v>55.1886787414551</v>
+        <v>0.920230388641357</v>
       </c>
       <c r="N9" t="n">
-        <v>0.920230388641357</v>
+        <v>0.685416162014008</v>
       </c>
       <c r="O9" t="n">
-        <v>0.685416162014008</v>
+        <v>1.01683568954468</v>
       </c>
       <c r="P9" t="n">
-        <v>1.01683568954468</v>
+        <v>0.799167692661285</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.799167692661285</v>
+        <v>75.9433975219727</v>
       </c>
       <c r="R9" t="n">
-        <v>75.9433975219727</v>
+        <v>0.679512839473507</v>
       </c>
       <c r="S9" t="n">
-        <v>0.679512839473507</v>
+        <v>8.390576341186343</v>
       </c>
       <c r="T9" t="n">
-        <v>8.390576341186343</v>
+        <v>99.925157573403</v>
       </c>
       <c r="U9" t="n">
-        <v>99.925157573403</v>
+        <v>99.9186164178539</v>
       </c>
       <c r="V9" t="n">
-        <v>99.9186164178539</v>
-      </c>
-      <c r="W9" t="n">
         <v>0.04603</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1862,17 +1798,17 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1882,7 +1818,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1890,49 +1826,39 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1950,55 +1876,57 @@
         <v>1.16881504089364</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>66.08764171508891</v>
       </c>
       <c r="G10" t="n">
-        <v>66.08764171508891</v>
+        <v>55.9303998473828</v>
       </c>
       <c r="H10" t="n">
-        <v>55.9303998473828</v>
-      </c>
-      <c r="I10" t="n">
         <v>12.179</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>58.064</v>
+      </c>
       <c r="K10" t="n">
-        <v>58.064</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>54.9763031005859</v>
       </c>
       <c r="M10" t="n">
-        <v>54.9763031005859</v>
+        <v>0.7520655393600461</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7520655393600461</v>
+        <v>0.629368722438812</v>
       </c>
       <c r="O10" t="n">
-        <v>0.629368722438812</v>
+        <v>1.19472968578339</v>
       </c>
       <c r="P10" t="n">
-        <v>1.19472968578339</v>
+        <v>0.8228856921195979</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8228856921195979</v>
+        <v>74.52830505371089</v>
       </c>
       <c r="R10" t="n">
-        <v>74.52830505371089</v>
+        <v>0.690855954769765</v>
       </c>
       <c r="S10" t="n">
-        <v>0.690855954769765</v>
-      </c>
-      <c r="T10" t="n">
         <v>3.532361334924285</v>
       </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -2011,12 +1939,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2026,7 +1954,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2036,44 +1964,34 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2087,20 +2005,20 @@
         <v>0.945355767423027</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>65.9328112372132</v>
+      </c>
       <c r="G11" t="n">
-        <v>65.9328112372132</v>
+        <v>55.6838432566667</v>
       </c>
       <c r="H11" t="n">
-        <v>55.6838432566667</v>
-      </c>
-      <c r="I11" t="n">
         <v>11.344</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>58.02</v>
       </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2108,10 +2026,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
+      <c r="S11" t="n">
         <v>2.774178265347752</v>
       </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -2122,39 +2040,37 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,185 +456,195 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Pobreza_Poblacion_Porcentual</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -654,65 +664,63 @@
         <v>-0.0827492378541321</v>
       </c>
       <c r="E2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>66.4614550787613</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>47.8600006103516</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>22.057</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>109834000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>58.829</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>7.1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>55.7142868041992</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>1.15725028514862</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.630986750125885</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1.04487037658691</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.886066854000092</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>75.7142868041992</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.646906930185419</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-0.5003657099032504</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>99.9267263105102</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>99.912472243595</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>236.597482033582</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -720,7 +728,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -730,12 +738,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -745,22 +753,22 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -770,7 +778,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -785,15 +793,25 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -809,67 +827,65 @@
         <v>0.0771658726133905</v>
       </c>
       <c r="E3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F3" t="n">
         <v>4.7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>66.3143685616246</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>48.6500015258789</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>19.635</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>115561000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>58.523</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>7.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>1.0948657989502</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.569826066493988</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>1.04160034656525</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.9653528928756711</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>81.42857360839839</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.629108853827649</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-0.2025980004264603</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>99.92650227872559</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>99.9188807943147</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.05</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>248.7422063978929</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -877,7 +893,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -887,12 +903,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -902,22 +918,22 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -927,7 +943,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -942,15 +958,25 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -970,68 +996,66 @@
         <v>0.243134086570712</v>
       </c>
       <c r="E4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="n">
         <v>4.1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>66.1865982307919</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>51.1859564334636</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>17.224</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>121717000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>58.117</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>7.5</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>57.1428565979004</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1.00125849246979</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.510279893875122</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>1.02150094509125</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>1.02435386180878</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>79.523811340332</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.655022828665732</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>1.95607633363965</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>99.9262844449661</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>99.91984176388959</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>261.3566246218267</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1046,12 +1070,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1061,22 +1085,22 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1086,7 +1110,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1101,15 +1125,25 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1125,65 +1159,63 @@
         <v>0.451573724507016</v>
       </c>
       <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>3.9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>66.13197370359271</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>50.4199981689453</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>15.255</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>124456000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>57.924</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>8.6</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>56.6037750244141</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.969246029853821</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.612778782844543</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1.02963280677795</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.978094100952148</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>80.476188659668</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.613681647994712</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1.674981368637938</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>99.9260564294656</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>99.9195943597293</v>
       </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>266.0338821261873</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1196,17 +1228,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1216,22 +1248,22 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1241,7 +1273,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1256,15 +1288,25 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1280,65 +1322,63 @@
         <v>0.716697775475724</v>
       </c>
       <c r="E6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" t="n">
         <v>3.6</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>66.1693765330282</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>53.012303429667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>14.104</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>126170000</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>57.92</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>58.0188674926758</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.968808770179749</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.666394531726837</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1.03599870204926</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.990192174911499</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>81.90476226806641</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.69779523479218</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.6995189944586921</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>99.9258382744694</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>99.9193565738972</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>267.771676352777</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1351,17 +1391,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1371,22 +1411,22 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1396,7 +1436,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1411,15 +1451,25 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1435,65 +1485,63 @@
         <v>0.510010189620998</v>
       </c>
       <c r="E7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F7" t="n">
         <v>4.2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>66.2408766587242</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>53.2599983215332</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>15.532</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>36410000</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>56.72</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>8.6</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>58.9622650146484</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.853928565979004</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0.711801946163177</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1.00401437282562</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.860964477062225</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.69421884953507</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-0.3227530172996851</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>99.9256097637963</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>99.9191083525324</v>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>76.88015800192164</v>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1506,12 +1554,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1521,27 +1569,27 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1551,12 +1599,12 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1566,15 +1614,25 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1588,61 +1646,59 @@
         <v>0.178046695121711</v>
       </c>
       <c r="E8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" t="n">
         <v>3.4</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>66.2783015470184</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>55.3232507853649</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>14.914</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
         <v>57.648</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>8</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>61.7924537658691</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.907896876335144</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.715437471866608</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0.9995130896568299</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.843258261680603</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>73.8095245361328</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.6075122429166609</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>3.093135119764123</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>99.9253811087183</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>99.91885990620401</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1670,12 +1726,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1683,39 +1739,49 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1729,63 +1795,61 @@
         <v>0.7188548791600941</v>
       </c>
       <c r="E9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F9" t="n">
         <v>3.5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>66.21609041451489</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>54.7419193092956</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>13.033</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
         <v>57.782</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>6.9</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>55.1886787414551</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.920230388641357</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>0.685416162014008</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1.01683568954468</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.799167692661285</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>75.9433975219727</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.679512839473507</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>8.390576341186343</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>99.925157573403</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>99.9186164178539</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>0.04603</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1798,17 +1862,17 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1818,7 +1882,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1826,39 +1890,49 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1876,57 +1950,55 @@
         <v>1.16881504089364</v>
       </c>
       <c r="E10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F10" t="n">
         <v>3.2</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>66.08764171508891</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>55.9303998473828</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>12.179</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
         <v>58.064</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>6.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>54.9763031005859</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.7520655393600461</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>0.629368722438812</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>1.19472968578339</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.8228856921195979</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>74.52830505371089</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.690855954769765</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>3.532361334924285</v>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1939,12 +2011,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1954,7 +2026,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -1964,34 +2036,44 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2005,20 +2087,20 @@
         <v>0.945355767423027</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>65.9328112372132</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>55.6838432566667</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>11.344</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
         <v>58.02</v>
       </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2026,10 +2108,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>2.774178265347752</v>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -2040,37 +2122,39 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,27 +461,192 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Pobreza_Multidimensional_Porcentual</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad_Turistas_Año</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Calidad_Regulatoria</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>IPC</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion_cat</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental_cat</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas_cat</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Calidad_Regulatoria_cat</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios_cat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>IPC_cat</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_cat</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo_cat</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes_cat</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable_cat</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento_cat</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria_cat</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana_cat</t>
         </is>
       </c>
     </row>
@@ -502,28 +667,151 @@
         <v>1.1</v>
       </c>
       <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>66.4614550787613</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.8600006103516</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22.057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>109834000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>58.829</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>55.7142868041992</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.15725028514862</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.630986750125885</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.04487037658691</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.886066854000092</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="R2" t="n">
+        <v>75.7142868041992</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.646906930185419</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.5003657099032504</v>
+      </c>
+      <c r="U2" t="n">
+        <v>99.9267263105102</v>
+      </c>
+      <c r="V2" t="n">
+        <v>99.912472243595</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>236.597482033582</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -542,26 +830,155 @@
         <v>1.3</v>
       </c>
       <c r="F3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>66.3143685616246</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48.6500015258789</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.635</v>
+      </c>
+      <c r="J3" t="n">
+        <v>115561000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58.523</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.0948657989502</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.569826066493988</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.04160034656525</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.9653528928756711</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
+      <c r="R3" t="n">
+        <v>81.42857360839839</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.629108853827649</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2025980004264603</v>
+      </c>
+      <c r="U3" t="n">
+        <v>99.92650227872559</v>
+      </c>
+      <c r="V3" t="n">
+        <v>99.9188807943147</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X3" t="n">
+        <v>248.7422063978929</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -582,28 +999,151 @@
         <v>0.8</v>
       </c>
       <c r="F4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>66.1865982307919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51.1859564334636</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.224</v>
+      </c>
+      <c r="J4" t="n">
+        <v>121717000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>58.117</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>57.1428565979004</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.00125849246979</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.510279893875122</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.02150094509125</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.02435386180878</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="R4" t="n">
+        <v>79.523811340332</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.655022828665732</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.95607633363965</v>
+      </c>
+      <c r="U4" t="n">
+        <v>99.9262844449661</v>
+      </c>
+      <c r="V4" t="n">
+        <v>99.91984176388959</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>261.3566246218267</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,28 +1162,151 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>66.13197370359271</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50.4199981689453</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.255</v>
+      </c>
+      <c r="J5" t="n">
+        <v>124456000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.924</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>56.6037750244141</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.969246029853821</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.612778782844543</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.02963280677795</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.978094100952148</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="R5" t="n">
+        <v>80.476188659668</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.613681647994712</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.674981368637938</v>
+      </c>
+      <c r="U5" t="n">
+        <v>99.9260564294656</v>
+      </c>
+      <c r="V5" t="n">
+        <v>99.9195943597293</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>266.0338821261873</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -662,28 +1325,151 @@
         <v>0.9</v>
       </c>
       <c r="F6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>66.1693765330282</v>
+      </c>
+      <c r="H6" t="n">
+        <v>53.012303429667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.104</v>
+      </c>
+      <c r="J6" t="n">
+        <v>126170000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>58.0188674926758</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.968808770179749</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.666394531726837</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.03599870204926</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.990192174911499</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="R6" t="n">
+        <v>81.90476226806641</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.69779523479218</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6995189944586921</v>
+      </c>
+      <c r="U6" t="n">
+        <v>99.9258382744694</v>
+      </c>
+      <c r="V6" t="n">
+        <v>99.9193565738972</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>267.771676352777</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -702,28 +1488,151 @@
         <v>1.1</v>
       </c>
       <c r="F7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>66.2408766587242</v>
+      </c>
+      <c r="H7" t="n">
+        <v>53.2599983215332</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.532</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36410000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>56.72</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>58.9622650146484</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.853928565979004</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.711801946163177</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.00401437282562</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.860964477062225</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="R7" t="n">
+        <v>73.8095245361328</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.69421884953507</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3227530172996851</v>
+      </c>
+      <c r="U7" t="n">
+        <v>99.9256097637963</v>
+      </c>
+      <c r="V7" t="n">
+        <v>99.9191083525324</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>76.88015800192164</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -740,24 +1649,139 @@
         <v>0.7</v>
       </c>
       <c r="F8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>66.2783015470184</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55.3232507853649</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.914</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>57.648</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>61.7924537658691</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.907896876335144</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.715437471866608</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9995130896568299</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.843258261680603</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>73.8095245361328</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.6075122429166609</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.093135119764123</v>
+      </c>
+      <c r="U8" t="n">
+        <v>99.9253811087183</v>
+      </c>
+      <c r="V8" t="n">
+        <v>99.91885990620401</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,24 +1798,145 @@
         <v>0.8</v>
       </c>
       <c r="F9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>66.21609041451489</v>
+      </c>
+      <c r="H9" t="n">
+        <v>54.7419193092956</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.033</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>57.782</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>55.1886787414551</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.920230388641357</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.685416162014008</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.01683568954468</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.799167692661285</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>75.9433975219727</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.679512839473507</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8.390576341186343</v>
+      </c>
+      <c r="U9" t="n">
+        <v>99.925157573403</v>
+      </c>
+      <c r="V9" t="n">
+        <v>99.9186164178539</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.04603</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -808,24 +1953,127 @@
         <v>0.8</v>
       </c>
       <c r="F10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>66.08764171508891</v>
+      </c>
+      <c r="H10" t="n">
+        <v>55.9303998473828</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.179</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>58.064</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>54.9763031005859</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7520655393600461</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.629368722438812</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.19472968578339</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0.8228856921195979</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>74.52830505371089</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.690855954769765</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.532361334924285</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -840,14 +2088,73 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>65.9328112372132</v>
+      </c>
+      <c r="H11" t="n">
+        <v>55.6838432566667</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.344</v>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>58.02</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>2.774178265347752</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -655,100 +655,98 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>46422303</v>
-      </c>
-      <c r="C2" t="n">
-        <v>28.6</v>
-      </c>
+        <v>99597342</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>-0.0827492378541321</v>
+        <v>2.09892554805563</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="G2" t="n">
-        <v>66.4614550787613</v>
+        <v>61.7368302860934</v>
       </c>
       <c r="H2" t="n">
-        <v>47.8600006103516</v>
+        <v>47.3302106410428</v>
       </c>
       <c r="I2" t="n">
-        <v>22.057</v>
+        <v>13.052</v>
       </c>
       <c r="J2" t="n">
-        <v>109834000</v>
+        <v>9328000</v>
       </c>
       <c r="K2" t="n">
-        <v>58.829</v>
+        <v>46.978</v>
       </c>
       <c r="L2" t="n">
-        <v>7.1</v>
+        <v>27.8</v>
       </c>
       <c r="M2" t="n">
-        <v>55.7142868041992</v>
+        <v>8.09523773193359</v>
       </c>
       <c r="N2" t="n">
-        <v>1.15725028514862</v>
+        <v>-0.690327763557434</v>
       </c>
       <c r="O2" t="n">
-        <v>0.630986750125885</v>
+        <v>-0.600906729698181</v>
       </c>
       <c r="P2" t="n">
-        <v>1.04487037658691</v>
+        <v>-1.19008219242096</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.886066854000092</v>
+        <v>-0.601831138134003</v>
       </c>
       <c r="R2" t="n">
-        <v>75.7142868041992</v>
+        <v>24.761905670166</v>
       </c>
       <c r="S2" t="n">
-        <v>0.646906930185419</v>
+        <v>1.71791733156895</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.5003657099032504</v>
+        <v>10.370490343517</v>
       </c>
       <c r="U2" t="n">
-        <v>99.9267263105102</v>
+        <v>98.6914116257754</v>
       </c>
       <c r="V2" t="n">
-        <v>99.912472243595</v>
+        <v>95.93186989979669</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>236.597482033582</v>
+        <v>9.365711787770401</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -763,7 +761,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -771,11 +769,7 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -793,7 +787,7 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -808,7 +802,7 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -818,102 +812,96 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>46458139</v>
-      </c>
-      <c r="C3" t="n">
-        <v>27.9</v>
-      </c>
+        <v>101644589</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0.0771658726133905</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.7</v>
-      </c>
+        <v>2.03468294927084</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>66.3143685616246</v>
+        <v>61.6008772488617</v>
       </c>
       <c r="H3" t="n">
-        <v>48.6500015258789</v>
+        <v>47.5332383158435</v>
       </c>
       <c r="I3" t="n">
-        <v>19.635</v>
+        <v>12.45</v>
       </c>
       <c r="J3" t="n">
-        <v>115561000</v>
+        <v>5399000</v>
       </c>
       <c r="K3" t="n">
-        <v>58.523</v>
+        <v>46.63</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>29.9</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>9.0476188659668</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0948657989502</v>
+        <v>-0.536168873310089</v>
       </c>
       <c r="O3" t="n">
-        <v>0.569826066493988</v>
+        <v>-0.590893149375916</v>
       </c>
       <c r="P3" t="n">
-        <v>1.04160034656525</v>
+        <v>-1.20482385158539</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9653528928756711</v>
+        <v>-0.477475792169571</v>
       </c>
       <c r="R3" t="n">
-        <v>81.42857360839839</v>
+        <v>17.619047164917</v>
       </c>
       <c r="S3" t="n">
-        <v>0.629108853827649</v>
+        <v>1.50721254822527</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2025980004264603</v>
+        <v>13.81360621482896</v>
       </c>
       <c r="U3" t="n">
-        <v>99.92650227872559</v>
+        <v>98.7208232501016</v>
       </c>
       <c r="V3" t="n">
-        <v>99.9188807943147</v>
+        <v>96.2465784166378</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>248.7422063978929</v>
+        <v>5.31164526623252</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -923,24 +911,16 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -958,7 +938,7 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -973,7 +953,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -987,100 +967,98 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>46571232</v>
-      </c>
-      <c r="C4" t="n">
-        <v>26.6</v>
-      </c>
+        <v>103696057</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.243134086570712</v>
+        <v>1.99817843887244</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>66.1865982307919</v>
+        <v>61.5289800193223</v>
       </c>
       <c r="H4" t="n">
-        <v>51.1859564334636</v>
+        <v>47.4089584400473</v>
       </c>
       <c r="I4" t="n">
-        <v>17.224</v>
+        <v>11.767</v>
       </c>
       <c r="J4" t="n">
-        <v>121717000</v>
+        <v>8292000</v>
       </c>
       <c r="K4" t="n">
-        <v>58.117</v>
+        <v>44.95</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>33.1</v>
       </c>
       <c r="M4" t="n">
-        <v>57.1428565979004</v>
+        <v>9.0476188659668</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00125849246979</v>
+        <v>-0.530632019042969</v>
       </c>
       <c r="O4" t="n">
-        <v>0.510279893875122</v>
+        <v>-0.495982348918915</v>
       </c>
       <c r="P4" t="n">
-        <v>1.02150094509125</v>
+        <v>-1.25143277645111</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02435386180878</v>
+        <v>-0.448036134243011</v>
       </c>
       <c r="R4" t="n">
-        <v>79.523811340332</v>
+        <v>20.9523811340332</v>
       </c>
       <c r="S4" t="n">
-        <v>0.655022828665732</v>
+        <v>1.31152527182627</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95607633363965</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="U4" t="n">
-        <v>99.9262844449661</v>
+        <v>98.75057375600331</v>
       </c>
       <c r="V4" t="n">
-        <v>99.91984176388959</v>
+        <v>96.5629903922749</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>261.3566246218267</v>
+        <v>7.996446769427308</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1090,12 +1068,12 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1103,11 +1081,7 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1125,7 +1099,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1140,7 +1114,7 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1150,127 +1124,109 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>46782011</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26.1</v>
-      </c>
+        <v>105682094</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.451573724507016</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.9</v>
-      </c>
+        <v>1.89713831833082</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>66.13197370359271</v>
+        <v>61.5446717092144</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4199981689453</v>
+        <v>49.7118492005103</v>
       </c>
       <c r="I5" t="n">
-        <v>15.255</v>
+        <v>9.855</v>
       </c>
       <c r="J5" t="n">
-        <v>124456000</v>
+        <v>11346000</v>
       </c>
       <c r="K5" t="n">
-        <v>57.924</v>
+        <v>43.299</v>
       </c>
       <c r="L5" t="n">
-        <v>8.6</v>
+        <v>31.2</v>
       </c>
       <c r="M5" t="n">
-        <v>56.6037750244141</v>
+        <v>11.7924528121948</v>
       </c>
       <c r="N5" t="n">
-        <v>0.969246029853821</v>
+        <v>-0.454036295413971</v>
       </c>
       <c r="O5" t="n">
-        <v>0.612778782844543</v>
+        <v>-0.514722347259521</v>
       </c>
       <c r="P5" t="n">
-        <v>1.02963280677795</v>
+        <v>-1.32450354099274</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.978094100952148</v>
+        <v>-0.301445573568344</v>
       </c>
       <c r="R5" t="n">
-        <v>80.476188659668</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.613681647994712</v>
-      </c>
+        <v>20.4761905670166</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>1.674981368637938</v>
+        <v>14.40146578074217</v>
       </c>
       <c r="U5" t="n">
-        <v>99.9260564294656</v>
+        <v>98.7558675337883</v>
       </c>
       <c r="V5" t="n">
-        <v>99.9195943597293</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
+        <v>96.88100077372481</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8999200000000001</v>
+      </c>
       <c r="X5" t="n">
-        <v>266.0338821261873</v>
+        <v>10.73597198026754</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1283,12 +1239,12 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1303,125 +1259,119 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>47118501</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25.3</v>
-      </c>
+        <v>107553158</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0.716697775475724</v>
+        <v>1.75497438173801</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>66.1693765330282</v>
-      </c>
-      <c r="H6" t="n">
-        <v>53.012303429667</v>
-      </c>
+        <v>61.6643683303097</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>14.104</v>
+        <v>7.851</v>
       </c>
       <c r="J6" t="n">
-        <v>126170000</v>
+        <v>13026000</v>
       </c>
       <c r="K6" t="n">
-        <v>57.92</v>
+        <v>42.199</v>
       </c>
       <c r="L6" t="n">
-        <v>8.800000000000001</v>
+        <v>27.8</v>
       </c>
       <c r="M6" t="n">
-        <v>58.0188674926758</v>
+        <v>12.2641506195068</v>
       </c>
       <c r="N6" t="n">
-        <v>0.968808770179749</v>
+        <v>-0.251354306936264</v>
       </c>
       <c r="O6" t="n">
-        <v>0.666394531726837</v>
+        <v>-0.655317544937134</v>
       </c>
       <c r="P6" t="n">
-        <v>1.03599870204926</v>
+        <v>-1.44394659996033</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.990192174911499</v>
+        <v>-0.332123339176178</v>
       </c>
       <c r="R6" t="n">
-        <v>81.90476226806641</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.69779523479218</v>
-      </c>
+        <v>21.9047622680664</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.6995189944586921</v>
+        <v>9.152799593248035</v>
       </c>
       <c r="U6" t="n">
-        <v>99.9258382744694</v>
+        <v>98.7614152226307</v>
       </c>
       <c r="V6" t="n">
-        <v>99.9193565738972</v>
+        <v>97.2005582635653</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>267.771676352777</v>
+        <v>12.11122038834043</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1429,29 +1379,21 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1466,7 +1408,7 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr"/>
@@ -1476,147 +1418,115 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>47359424</v>
-      </c>
-      <c r="C7" t="n">
-        <v>26.4</v>
-      </c>
+        <v>109315124</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0.510010189620998</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.2</v>
-      </c>
+        <v>1.62495386951696</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>66.2408766587242</v>
-      </c>
-      <c r="H7" t="n">
-        <v>53.2599983215332</v>
-      </c>
+        <v>61.8346774314352</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>15.532</v>
-      </c>
-      <c r="J7" t="n">
-        <v>36410000</v>
-      </c>
+        <v>7.974</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>56.72</v>
+        <v>41.616</v>
       </c>
       <c r="L7" t="n">
-        <v>8.6</v>
+        <v>27.3</v>
       </c>
       <c r="M7" t="n">
-        <v>58.9622650146484</v>
+        <v>11.7924528121948</v>
       </c>
       <c r="N7" t="n">
-        <v>0.853928565979004</v>
+        <v>-0.44617161154747</v>
       </c>
       <c r="O7" t="n">
-        <v>0.711801946163177</v>
+        <v>-0.810433626174927</v>
       </c>
       <c r="P7" t="n">
-        <v>1.00401437282562</v>
+        <v>-1.48189222812653</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.860964477062225</v>
+        <v>-0.317483067512512</v>
       </c>
       <c r="R7" t="n">
-        <v>73.8095245361328</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.69421884953507</v>
-      </c>
+        <v>31.4285717010498</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>-0.3227530172996851</v>
+        <v>5.04493288977539</v>
       </c>
       <c r="U7" t="n">
-        <v>99.9256097637963</v>
+        <v>98.7671898041778</v>
       </c>
       <c r="V7" t="n">
-        <v>99.9191083525324</v>
-      </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
-        <v>76.88015800192164</v>
-      </c>
+        <v>97.5215610615812</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1629,114 +1539,112 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>47443821</v>
+        <v>110957008</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0.178046695121711</v>
+        <v>1.4908053906311</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>66.2783015470184</v>
+        <v>62.0672499568481</v>
       </c>
       <c r="H8" t="n">
-        <v>55.3232507853649</v>
+        <v>52.9199600219727</v>
       </c>
       <c r="I8" t="n">
-        <v>14.914</v>
+        <v>7.441</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>57.648</v>
+        <v>42.987</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>28.5</v>
       </c>
       <c r="M8" t="n">
-        <v>61.7924537658691</v>
+        <v>14.6226415634155</v>
       </c>
       <c r="N8" t="n">
-        <v>0.907896876335144</v>
+        <v>-0.457696795463562</v>
       </c>
       <c r="O8" t="n">
-        <v>0.715437471866608</v>
+        <v>-0.70594334602356</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9995130896568299</v>
+        <v>-1.50513410568237</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.843258261680603</v>
+        <v>-0.260645717382431</v>
       </c>
       <c r="R8" t="n">
-        <v>73.8095245361328</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.6075122429166609</v>
-      </c>
+        <v>34.2857131958008</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>3.093135119764123</v>
+        <v>5.214049405130415</v>
       </c>
       <c r="U8" t="n">
-        <v>99.9253811087183</v>
+        <v>98.7679087029408</v>
       </c>
       <c r="V8" t="n">
-        <v>99.91885990620401</v>
+        <v>97.5246503198928</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1762,7 +1670,7 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr"/>
@@ -1778,7 +1686,7 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr"/>
@@ -1788,106 +1696,96 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>47786102</v>
+        <v>112618250</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0.7188548791600941</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.5</v>
-      </c>
+        <v>1.48609697540294</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>66.21609041451489</v>
+        <v>62.3202560966817</v>
       </c>
       <c r="H9" t="n">
-        <v>54.7419193092956</v>
+        <v>54.3136582910509</v>
       </c>
       <c r="I9" t="n">
-        <v>13.033</v>
+        <v>7.344</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>57.782</v>
+        <v>42.837</v>
       </c>
       <c r="L9" t="n">
-        <v>6.9</v>
+        <v>29.8</v>
       </c>
       <c r="M9" t="n">
-        <v>55.1886787414551</v>
+        <v>14.6226415634155</v>
       </c>
       <c r="N9" t="n">
-        <v>0.920230388641357</v>
+        <v>-0.448231309652328</v>
       </c>
       <c r="O9" t="n">
-        <v>0.685416162014008</v>
+        <v>-0.678962171077728</v>
       </c>
       <c r="P9" t="n">
-        <v>1.01683568954468</v>
+        <v>-1.45044994354248</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.799167692661285</v>
+        <v>-0.26560452580452</v>
       </c>
       <c r="R9" t="n">
-        <v>75.9433975219727</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.679512839473507</v>
-      </c>
+        <v>24.5283012390137</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>8.390576341186343</v>
+        <v>13.8956609775178</v>
       </c>
       <c r="U9" t="n">
-        <v>99.925157573403</v>
+        <v>98.76885789947001</v>
       </c>
       <c r="V9" t="n">
-        <v>99.9186164178539</v>
+        <v>97.5287500099944</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04603</v>
+        <v>3.83938</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1895,11 +1793,7 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -1913,7 +1807,7 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr"/>
@@ -1929,7 +1823,7 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -1943,57 +1837,51 @@
         <v>2023</v>
       </c>
       <c r="B10" t="n">
-        <v>48347910</v>
+        <v>114535772</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.16881504089364</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.2</v>
-      </c>
+        <v>1.68834126904494</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>66.08764171508891</v>
+        <v>62.5951954232918</v>
       </c>
       <c r="H10" t="n">
-        <v>55.9303998473828</v>
+        <v>55.6923702917355</v>
       </c>
       <c r="I10" t="n">
-        <v>12.179</v>
+        <v>6.753</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>58.064</v>
+        <v>44.669</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>30.8</v>
       </c>
       <c r="M10" t="n">
-        <v>54.9763031005859</v>
+        <v>16.5876770019531</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7520655393600461</v>
+        <v>-0.239516973495483</v>
       </c>
       <c r="O10" t="n">
-        <v>0.629368722438812</v>
+        <v>-0.7477903962135311</v>
       </c>
       <c r="P10" t="n">
-        <v>1.19472968578339</v>
+        <v>-1.37938976287842</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8228856921195979</v>
+        <v>-0.184178426861763</v>
       </c>
       <c r="R10" t="n">
-        <v>74.52830505371089</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.690855954769765</v>
-      </c>
+        <v>26.8867931365967</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>3.532361334924285</v>
+        <v>33.88477631155459</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -2001,39 +1889,35 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -2041,14 +1925,10 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -2062,7 +1942,7 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr"/>
@@ -2070,7 +1950,7 @@
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr"/>
@@ -2080,27 +1960,21 @@
         <v>2024</v>
       </c>
       <c r="B11" t="n">
-        <v>48807137</v>
+        <v>116538258</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0.945355767423027</v>
+        <v>1.73324205302065</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>65.9328112372132</v>
-      </c>
-      <c r="H11" t="n">
-        <v>55.6838432566667</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.344</v>
-      </c>
+        <v>62.8890495466693</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>58.02</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2110,7 +1984,7 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>2.774178265347752</v>
+        <v>28.27058993220828</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2125,12 +1999,12 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr"/>
@@ -2140,16 +2014,8 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,155 +496,135 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica</t>
+          <t>Control_Corrupcion</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>ratio_turistas_residentes_cat</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Agua_Potable_cat</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -686,77 +666,77 @@
         <v>27.8</v>
       </c>
       <c r="M2" t="n">
-        <v>8.09523773193359</v>
+        <v>-0.600906729698181</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.690327763557434</v>
+        <v>-1.19008219242096</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.600906729698181</v>
+        <v>-0.601831138134003</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19008219242096</v>
+        <v>24.761905670166</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>1.71791733156895</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
+        <v>10.370490343517</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71791733156895</v>
+        <v>98.6914116257754</v>
       </c>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
-      </c>
-      <c r="U2" t="n">
-        <v>98.6914116257754</v>
-      </c>
+        <v>95.93186989979669</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>95.93186989979669</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -766,46 +746,30 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -839,79 +803,75 @@
         <v>29.9</v>
       </c>
       <c r="M3" t="n">
-        <v>9.0476188659668</v>
+        <v>-0.590893149375916</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.536168873310089</v>
+        <v>-1.20482385158539</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.590893149375916</v>
+        <v>-0.477475792169571</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.20482385158539</v>
+        <v>17.619047164917</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>1.50721254822527</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>13.81360621482896</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>98.7208232501016</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482896</v>
+        <v>96.2465784166378</v>
       </c>
       <c r="U3" t="n">
-        <v>98.7208232501016</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>96.2465784166378</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -919,44 +879,32 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -998,98 +946,102 @@
         <v>33.1</v>
       </c>
       <c r="M4" t="n">
-        <v>9.0476188659668</v>
+        <v>-0.495982348918915</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.530632019042969</v>
+        <v>-1.25143277645111</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.495982348918915</v>
+        <v>-0.448036134243011</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.25143277645111</v>
+        <v>20.9523811340332</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>1.31152527182627</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31152527182627</v>
+        <v>98.75057375600331</v>
       </c>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
-      </c>
-      <c r="U4" t="n">
-        <v>98.75057375600331</v>
-      </c>
+        <v>96.5629903922749</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>96.5629903922749</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1097,27 +1049,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1151,73 +1083,69 @@
         <v>31.2</v>
       </c>
       <c r="M5" t="n">
-        <v>11.7924528121948</v>
+        <v>-0.514722347259521</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.454036295413971</v>
+        <v>-1.32450354099274</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.514722347259521</v>
+        <v>-0.301445573568344</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.32450354099274</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
-      </c>
+        <v>20.4761905670166</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>20.4761905670166</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>14.40146578074217</v>
+      </c>
+      <c r="S5" t="n">
+        <v>98.7558675337883</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074217</v>
+        <v>96.88100077372481</v>
       </c>
       <c r="U5" t="n">
-        <v>98.7558675337883</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>96.88100077372481</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1225,44 +1153,32 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1302,116 +1218,100 @@
         <v>27.8</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2641506195068</v>
+        <v>-0.655317544937134</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.251354306936264</v>
+        <v>-1.44394659996033</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.655317544937134</v>
+        <v>-0.332123339176178</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.44394659996033</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
-      </c>
+        <v>21.9047622680664</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>21.9047622680664</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>9.152799593248035</v>
+      </c>
+      <c r="S6" t="n">
+        <v>98.7614152226307</v>
+      </c>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
-      </c>
-      <c r="U6" t="n">
-        <v>98.7614152226307</v>
-      </c>
+        <v>97.2005582635653</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>97.2005582635653</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1441,40 +1341,44 @@
         <v>27.3</v>
       </c>
       <c r="M7" t="n">
-        <v>11.7924528121948</v>
+        <v>-0.810433626174927</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.44617161154747</v>
+        <v>-1.48189222812653</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.810433626174927</v>
+        <v>-0.317483067512512</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.48189222812653</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
-      </c>
+        <v>31.4285717010498</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>31.4285717010498</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>5.04493288977539</v>
+      </c>
+      <c r="S7" t="n">
+        <v>98.7671898041778</v>
+      </c>
       <c r="T7" t="n">
-        <v>5.04493288977539</v>
+        <v>97.5215610615812</v>
       </c>
       <c r="U7" t="n">
-        <v>98.7671898041778</v>
-      </c>
-      <c r="V7" t="n">
-        <v>97.5215610615812</v>
-      </c>
-      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1482,67 +1386,47 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AL7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1582,38 +1466,42 @@
         <v>28.5</v>
       </c>
       <c r="M8" t="n">
-        <v>14.6226415634155</v>
+        <v>-0.70594334602356</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.457696795463562</v>
+        <v>-1.50513410568237</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.70594334602356</v>
+        <v>-0.260645717382431</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.50513410568237</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
-      </c>
+        <v>34.2857131958008</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>34.2857131958008</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>5.214049405130415</v>
+      </c>
+      <c r="S8" t="n">
+        <v>98.7679087029408</v>
+      </c>
       <c r="T8" t="n">
-        <v>5.214049405130415</v>
-      </c>
-      <c r="U8" t="n">
-        <v>98.7679087029408</v>
-      </c>
-      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1621,30 +1509,26 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1654,18 +1538,18 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1674,22 +1558,6 @@
         </is>
       </c>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1721,71 +1589,67 @@
         <v>29.8</v>
       </c>
       <c r="M9" t="n">
-        <v>14.6226415634155</v>
+        <v>-0.678962171077728</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.448231309652328</v>
+        <v>-1.45044994354248</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.678962171077728</v>
+        <v>-0.26560452580452</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.45044994354248</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
-      </c>
+        <v>24.5283012390137</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>24.5283012390137</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>13.8956609775178</v>
+      </c>
+      <c r="S9" t="n">
+        <v>98.76885789947001</v>
+      </c>
       <c r="T9" t="n">
-        <v>13.8956609775178</v>
+        <v>97.5287500099944</v>
       </c>
       <c r="U9" t="n">
-        <v>98.76885789947001</v>
-      </c>
-      <c r="V9" t="n">
-        <v>97.5287500099944</v>
-      </c>
-      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1793,16 +1657,20 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -1810,23 +1678,7 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1862,34 +1714,38 @@
         <v>30.8</v>
       </c>
       <c r="M10" t="n">
-        <v>16.5876770019531</v>
+        <v>-0.7477903962135311</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.239516973495483</v>
+        <v>-1.37938976287842</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.7477903962135311</v>
+        <v>-0.184178426861763</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.37938976287842</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
-      </c>
+        <v>26.8867931365967</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>26.8867931365967</v>
+        <v>33.88477631155459</v>
       </c>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>33.88477631155459</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1897,63 +1753,43 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1981,11 +1817,11 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>28.27058993220828</v>
+      </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>28.27058993220828</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1993,34 +1829,30 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,135 +496,155 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Estabilidad_Politica</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental_cat</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -666,77 +686,77 @@
         <v>27.8</v>
       </c>
       <c r="M2" t="n">
+        <v>8.09523773193359</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.690327763557434</v>
+      </c>
+      <c r="O2" t="n">
         <v>-0.600906729698181</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>-1.19008219242096</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>-0.601831138134003</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>24.761905670166</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>1.71791733156895</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -746,30 +766,46 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -803,75 +839,79 @@
         <v>29.9</v>
       </c>
       <c r="M3" t="n">
+        <v>9.0476188659668</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.536168873310089</v>
+      </c>
+      <c r="O3" t="n">
         <v>-0.590893149375916</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>-1.20482385158539</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>-0.477475792169571</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>17.619047164917</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>1.50721254822527</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -879,32 +919,44 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -946,102 +998,98 @@
         <v>33.1</v>
       </c>
       <c r="M4" t="n">
+        <v>9.0476188659668</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.530632019042969</v>
+      </c>
+      <c r="O4" t="n">
         <v>-0.495982348918915</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>-1.25143277645111</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>-0.448036134243011</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>1.31152527182627</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1049,7 +1097,27 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1083,69 +1151,73 @@
         <v>31.2</v>
       </c>
       <c r="M5" t="n">
+        <v>11.7924528121948</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.454036295413971</v>
+      </c>
+      <c r="O5" t="n">
         <v>-0.514722347259521</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>-1.32450354099274</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>-0.301445573568344</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1153,32 +1225,44 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1218,100 +1302,116 @@
         <v>27.8</v>
       </c>
       <c r="M6" t="n">
+        <v>12.2641506195068</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.251354306936264</v>
+      </c>
+      <c r="O6" t="n">
         <v>-0.655317544937134</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>-1.44394659996033</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>-0.332123339176178</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>98.7614152226307</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1341,44 +1441,40 @@
         <v>27.3</v>
       </c>
       <c r="M7" t="n">
+        <v>11.7924528121948</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.44617161154747</v>
+      </c>
+      <c r="O7" t="n">
         <v>-0.810433626174927</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>-1.48189222812653</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>-0.317483067512512</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1386,47 +1482,67 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1466,42 +1582,38 @@
         <v>28.5</v>
       </c>
       <c r="M8" t="n">
+        <v>14.6226415634155</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.457696795463562</v>
+      </c>
+      <c r="O8" t="n">
         <v>-0.70594334602356</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-1.50513410568237</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-0.260645717382431</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1509,26 +1621,30 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1538,18 +1654,18 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1558,6 +1674,22 @@
         </is>
       </c>
       <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1589,67 +1721,71 @@
         <v>29.8</v>
       </c>
       <c r="M9" t="n">
+        <v>14.6226415634155</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.448231309652328</v>
+      </c>
+      <c r="O9" t="n">
         <v>-0.678962171077728</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-1.45044994354248</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-0.26560452580452</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1657,20 +1793,16 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -1678,7 +1810,23 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1714,38 +1862,34 @@
         <v>30.8</v>
       </c>
       <c r="M10" t="n">
+        <v>16.5876770019531</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.239516973495483</v>
+      </c>
+      <c r="O10" t="n">
         <v>-0.7477903962135311</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-1.37938976287842</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-0.184178426861763</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1753,43 +1897,63 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1817,11 +1981,11 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220828</v>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1829,30 +1993,34 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,160 +491,150 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Inseguridad_Alimentaria</t>
+          <t>Estabilidad_Politica</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica</t>
+          <t>Efectividad_Gubernamental</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Control_Corrupcion</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -683,42 +673,44 @@
         <v>46.978</v>
       </c>
       <c r="L2" t="n">
-        <v>27.8</v>
+        <v>8.09523773193359</v>
       </c>
       <c r="M2" t="n">
-        <v>8.09523773193359</v>
+        <v>-0.690327763557434</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.690327763557434</v>
+        <v>-0.600906729698181</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.600906729698181</v>
+        <v>-1.19008219242096</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19008219242096</v>
+        <v>-0.601831138134003</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>24.761905670166</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
+        <v>1.71791733156895</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71791733156895</v>
+        <v>10.370490343517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
+        <v>98.6914116257754</v>
       </c>
       <c r="U2" t="n">
-        <v>98.6914116257754</v>
-      </c>
-      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -731,7 +723,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -746,30 +738,30 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -777,17 +769,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -795,17 +787,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -836,44 +818,46 @@
         <v>46.63</v>
       </c>
       <c r="L3" t="n">
-        <v>29.9</v>
+        <v>9.0476188659668</v>
       </c>
       <c r="M3" t="n">
-        <v>9.0476188659668</v>
+        <v>-0.536168873310089</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.536168873310089</v>
+        <v>-0.590893149375916</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.590893149375916</v>
+        <v>-1.20482385158539</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.20482385158539</v>
+        <v>-0.477475792169571</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>17.619047164917</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>1.50721254822527</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>13.81360621482896</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482896</v>
+        <v>98.7208232501016</v>
       </c>
       <c r="U3" t="n">
-        <v>98.7208232501016</v>
+        <v>96.2465784166378</v>
       </c>
       <c r="V3" t="n">
-        <v>96.2465784166378</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -886,7 +870,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -901,26 +885,26 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -928,17 +912,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -947,16 +931,6 @@
         </is>
       </c>
       <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -995,42 +969,44 @@
         <v>44.95</v>
       </c>
       <c r="L4" t="n">
-        <v>33.1</v>
+        <v>9.0476188659668</v>
       </c>
       <c r="M4" t="n">
-        <v>9.0476188659668</v>
+        <v>-0.530632019042969</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.530632019042969</v>
+        <v>-0.495982348918915</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.495982348918915</v>
+        <v>-1.25143277645111</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.25143277645111</v>
+        <v>-0.448036134243011</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>20.9523811340332</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
+        <v>1.31152527182627</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31152527182627</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
+        <v>98.75057375600331</v>
       </c>
       <c r="U4" t="n">
-        <v>98.75057375600331</v>
-      </c>
-      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1043,7 +1019,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1058,7 +1034,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1068,20 +1044,20 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1089,17 +1065,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1107,17 +1083,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1148,42 +1114,44 @@
         <v>43.299</v>
       </c>
       <c r="L5" t="n">
-        <v>31.2</v>
+        <v>11.7924528121948</v>
       </c>
       <c r="M5" t="n">
-        <v>11.7924528121948</v>
+        <v>-0.454036295413971</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.454036295413971</v>
+        <v>-0.514722347259521</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.514722347259521</v>
+        <v>-1.32450354099274</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.32450354099274</v>
+        <v>-0.301445573568344</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
-      </c>
-      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>14.40146578074217</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074217</v>
+        <v>98.7558675337883</v>
       </c>
       <c r="U5" t="n">
-        <v>98.7558675337883</v>
+        <v>96.88100077372481</v>
       </c>
       <c r="V5" t="n">
-        <v>96.88100077372481</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1196,7 +1164,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1209,24 +1177,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1239,12 +1207,12 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1253,16 +1221,6 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1299,40 +1257,42 @@
         <v>42.199</v>
       </c>
       <c r="L6" t="n">
-        <v>27.8</v>
+        <v>12.2641506195068</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2641506195068</v>
+        <v>-0.251354306936264</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.251354306936264</v>
+        <v>-0.655317544937134</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.655317544937134</v>
+        <v>-1.44394659996033</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.44394659996033</v>
+        <v>-0.332123339176178</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
-      </c>
-      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>9.152799593248035</v>
+      </c>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
+        <v>98.7614152226307</v>
       </c>
       <c r="U6" t="n">
-        <v>98.7614152226307</v>
-      </c>
-      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1345,7 +1305,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1358,42 +1318,42 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1401,17 +1361,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1438,40 +1388,42 @@
         <v>41.616</v>
       </c>
       <c r="L7" t="n">
-        <v>27.3</v>
+        <v>11.7924528121948</v>
       </c>
       <c r="M7" t="n">
-        <v>11.7924528121948</v>
+        <v>-0.44617161154747</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.44617161154747</v>
+        <v>-0.810433626174927</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.810433626174927</v>
+        <v>-1.48189222812653</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.48189222812653</v>
+        <v>-0.317483067512512</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
-      </c>
-      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>5.04493288977539</v>
+      </c>
       <c r="T7" t="n">
-        <v>5.04493288977539</v>
+        <v>98.7671898041778</v>
       </c>
       <c r="U7" t="n">
-        <v>98.7671898041778</v>
+        <v>97.5215610615812</v>
       </c>
       <c r="V7" t="n">
-        <v>97.5215610615812</v>
-      </c>
-      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1484,7 +1436,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1494,55 +1446,45 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1579,38 +1521,40 @@
         <v>42.987</v>
       </c>
       <c r="L8" t="n">
-        <v>28.5</v>
+        <v>14.6226415634155</v>
       </c>
       <c r="M8" t="n">
-        <v>14.6226415634155</v>
+        <v>-0.457696795463562</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.457696795463562</v>
+        <v>-0.70594334602356</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.70594334602356</v>
+        <v>-1.50513410568237</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.50513410568237</v>
+        <v>-0.260645717382431</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
-      </c>
-      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>5.214049405130415</v>
+      </c>
       <c r="T8" t="n">
-        <v>5.214049405130415</v>
+        <v>98.7679087029408</v>
       </c>
       <c r="U8" t="n">
-        <v>98.7679087029408</v>
-      </c>
-      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1623,7 +1567,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1633,31 +1577,31 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1668,28 +1612,18 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1718,40 +1652,42 @@
         <v>42.837</v>
       </c>
       <c r="L9" t="n">
-        <v>29.8</v>
+        <v>14.6226415634155</v>
       </c>
       <c r="M9" t="n">
-        <v>14.6226415634155</v>
+        <v>-0.448231309652328</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.448231309652328</v>
+        <v>-0.678962171077728</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.678962171077728</v>
+        <v>-1.45044994354248</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.45044994354248</v>
+        <v>-0.26560452580452</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
-      </c>
-      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>13.8956609775178</v>
+      </c>
       <c r="T9" t="n">
-        <v>13.8956609775178</v>
+        <v>98.76885789947001</v>
       </c>
       <c r="U9" t="n">
-        <v>98.76885789947001</v>
+        <v>97.5287500099944</v>
       </c>
       <c r="V9" t="n">
-        <v>97.5287500099944</v>
-      </c>
-      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1764,7 +1700,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1777,24 +1713,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1805,28 +1741,18 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1859,34 +1785,36 @@
         <v>44.669</v>
       </c>
       <c r="L10" t="n">
-        <v>30.8</v>
+        <v>16.5876770019531</v>
       </c>
       <c r="M10" t="n">
-        <v>16.5876770019531</v>
+        <v>-0.239516973495483</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.239516973495483</v>
+        <v>-0.7477903962135311</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.7477903962135311</v>
+        <v>-1.37938976287842</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.37938976287842</v>
+        <v>-0.184178426861763</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
-      </c>
-      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
         <v>33.88477631155459</v>
       </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1899,7 +1827,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1909,27 +1837,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1940,20 +1868,10 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1982,10 +1900,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
+      <c r="S11" t="n">
         <v>28.27058993220828</v>
       </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1996,31 +1914,29 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,150 +491,160 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Inseguridad_Alimentaria</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria_cat</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -673,44 +683,42 @@
         <v>46.978</v>
       </c>
       <c r="L2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="M2" t="n">
         <v>8.09523773193359</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-0.690327763557434</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>-0.600906729698181</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-1.19008219242096</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.601831138134003</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>24.761905670166</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.71791733156895</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -723,7 +731,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -738,30 +746,30 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -769,17 +777,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -787,7 +795,17 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -818,46 +836,44 @@
         <v>46.63</v>
       </c>
       <c r="L3" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="M3" t="n">
         <v>9.0476188659668</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-0.536168873310089</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>-0.590893149375916</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-1.20482385158539</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.477475792169571</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>17.619047164917</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.50721254822527</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -870,7 +886,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -885,26 +901,26 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -912,17 +928,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -931,6 +947,16 @@
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -969,44 +995,42 @@
         <v>44.95</v>
       </c>
       <c r="L4" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="M4" t="n">
         <v>9.0476188659668</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.530632019042969</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>-0.495982348918915</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-1.25143277645111</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.448036134243011</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1.31152527182627</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1019,7 +1043,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1034,7 +1058,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1044,20 +1068,20 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1065,17 +1089,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1083,7 +1107,17 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1114,44 +1148,42 @@
         <v>43.299</v>
       </c>
       <c r="L5" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="M5" t="n">
         <v>11.7924528121948</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-0.454036295413971</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>-0.514722347259521</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-1.32450354099274</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-0.301445573568344</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1164,7 +1196,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1177,24 +1209,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1207,12 +1239,12 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1221,6 +1253,16 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1257,42 +1299,40 @@
         <v>42.199</v>
       </c>
       <c r="L6" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="M6" t="n">
         <v>12.2641506195068</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>-0.251354306936264</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>-0.655317544937134</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-1.44394659996033</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-0.332123339176178</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>98.7614152226307</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1305,7 +1345,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1318,42 +1358,42 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1361,7 +1401,17 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1388,42 +1438,40 @@
         <v>41.616</v>
       </c>
       <c r="L7" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="M7" t="n">
         <v>11.7924528121948</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-0.44617161154747</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>-0.810433626174927</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>-1.48189222812653</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.317483067512512</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1436,7 +1484,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1446,45 +1494,55 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1521,40 +1579,38 @@
         <v>42.987</v>
       </c>
       <c r="L8" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="M8" t="n">
         <v>14.6226415634155</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-0.457696795463562</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>-0.70594334602356</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>-1.50513410568237</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.260645717382431</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1567,7 +1623,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1577,31 +1633,31 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1612,18 +1668,28 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1652,42 +1718,40 @@
         <v>42.837</v>
       </c>
       <c r="L9" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="M9" t="n">
         <v>14.6226415634155</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>-0.448231309652328</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>-0.678962171077728</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>-1.45044994354248</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-0.26560452580452</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1700,7 +1764,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1713,24 +1777,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1741,18 +1805,28 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1785,36 +1859,34 @@
         <v>44.669</v>
       </c>
       <c r="L10" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="M10" t="n">
         <v>16.5876770019531</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>-0.239516973495483</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>-0.7477903962135311</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>-1.37938976287842</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-0.184178426861763</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1827,7 +1899,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1837,27 +1909,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1868,10 +1940,20 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1900,10 +1982,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220828</v>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1914,29 +1996,31 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,140 +511,100 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Desempleo_cat</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>ratio_turistas_residentes_cat</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Agua_Potable_cat</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -695,58 +655,62 @@
         <v>-0.600906729698181</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19008219242096</v>
+        <v>10.370490343517</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>98.6914116257754</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.71791733156895</v>
-      </c>
+        <v>95.93186989979669</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
-      </c>
-      <c r="U2" t="n">
-        <v>98.6914116257754</v>
-      </c>
-      <c r="V2" t="n">
-        <v>95.93186989979669</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -761,51 +725,15 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -848,60 +776,60 @@
         <v>-0.590893149375916</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.20482385158539</v>
+        <v>13.81360621482896</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>98.7208232501016</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>96.2465784166378</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482896</v>
-      </c>
-      <c r="U3" t="n">
-        <v>98.7208232501016</v>
-      </c>
-      <c r="V3" t="n">
-        <v>96.2465784166378</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -916,47 +844,15 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1007,30 +903,38 @@
         <v>-0.495982348918915</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.25143277645111</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>98.75057375600331</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.31152527182627</v>
-      </c>
+        <v>96.5629903922749</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
-      </c>
-      <c r="U4" t="n">
-        <v>98.75057375600331</v>
-      </c>
-      <c r="V4" t="n">
-        <v>96.5629903922749</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1038,27 +942,23 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1068,7 +968,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1078,46 +978,10 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1160,109 +1024,83 @@
         <v>-0.514722347259521</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.32450354099274</v>
+        <v>14.40146578074217</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
+        <v>98.7558675337883</v>
       </c>
       <c r="R5" t="n">
-        <v>20.4761905670166</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>96.88100077372481</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8999200000000001</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074217</v>
-      </c>
-      <c r="U5" t="n">
-        <v>98.7558675337883</v>
-      </c>
-      <c r="V5" t="n">
-        <v>96.88100077372481</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1311,107 +1149,81 @@
         <v>-0.655317544937134</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.44394659996033</v>
+        <v>9.152799593248035</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
+        <v>98.7614152226307</v>
       </c>
       <c r="R6" t="n">
-        <v>21.9047622680664</v>
+        <v>97.2005582635653</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
-      </c>
-      <c r="U6" t="n">
-        <v>98.7614152226307</v>
-      </c>
-      <c r="V6" t="n">
-        <v>97.2005582635653</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1450,99 +1262,73 @@
         <v>-0.810433626174927</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.48189222812653</v>
+        <v>5.04493288977539</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
+        <v>98.7671898041778</v>
       </c>
       <c r="R7" t="n">
-        <v>31.4285717010498</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>5.04493288977539</v>
-      </c>
-      <c r="U7" t="n">
-        <v>98.7671898041778</v>
-      </c>
-      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="W7" t="n">
+      <c r="S7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1591,105 +1377,79 @@
         <v>-0.70594334602356</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.50513410568237</v>
+        <v>5.214049405130415</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
+        <v>98.7679087029408</v>
       </c>
       <c r="R8" t="n">
-        <v>34.2857131958008</v>
+        <v>97.5246503198928</v>
       </c>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>5.214049405130415</v>
-      </c>
-      <c r="U8" t="n">
-        <v>98.7679087029408</v>
-      </c>
-      <c r="V8" t="n">
-        <v>97.5246503198928</v>
-      </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1730,103 +1490,77 @@
         <v>-0.678962171077728</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.45044994354248</v>
+        <v>13.8956609775178</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
+        <v>98.76885789947001</v>
       </c>
       <c r="R9" t="n">
-        <v>24.5283012390137</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>13.8956609775178</v>
-      </c>
-      <c r="U9" t="n">
-        <v>98.76885789947001</v>
-      </c>
-      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="W9" t="n">
+      <c r="S9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1871,89 +1605,63 @@
         <v>-0.7477903962135311</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.37938976287842</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
-      </c>
-      <c r="R10" t="n">
-        <v>26.8867931365967</v>
-      </c>
+        <v>33.88477631155459</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>33.88477631155459</v>
-      </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1979,48 +1687,40 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>28.27058993220828</v>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>28.27058993220828</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,100 +511,140 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Rendicion_Cuentas</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Calidad_Regulatoria</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho_cat</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas_cat</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Calidad_Regulatoria_cat</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios_cat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -655,62 +695,58 @@
         <v>-0.600906729698181</v>
       </c>
       <c r="P2" t="n">
+        <v>-1.19008219242096</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.601831138134003</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24.761905670166</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.71791733156895</v>
+      </c>
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -725,15 +761,51 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -776,60 +848,60 @@
         <v>-0.590893149375916</v>
       </c>
       <c r="P3" t="n">
+        <v>-1.20482385158539</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.477475792169571</v>
+      </c>
+      <c r="R3" t="n">
+        <v>17.619047164917</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.50721254822527</v>
+      </c>
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="R3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -844,15 +916,47 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -903,38 +1007,30 @@
         <v>-0.495982348918915</v>
       </c>
       <c r="P4" t="n">
+        <v>-1.25143277645111</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.448036134243011</v>
+      </c>
+      <c r="R4" t="n">
+        <v>20.9523811340332</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.31152527182627</v>
+      </c>
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -942,23 +1038,27 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -968,7 +1068,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -978,10 +1078,46 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1024,83 +1160,109 @@
         <v>-0.514722347259521</v>
       </c>
       <c r="P5" t="n">
+        <v>-1.32450354099274</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.301445573568344</v>
+      </c>
+      <c r="R5" t="n">
+        <v>20.4761905670166</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="S5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1149,81 +1311,107 @@
         <v>-0.655317544937134</v>
       </c>
       <c r="P6" t="n">
-        <v>9.152799593248035</v>
+        <v>-1.44394659996033</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.7614152226307</v>
+        <v>-0.332123339176178</v>
       </c>
       <c r="R6" t="n">
-        <v>97.2005582635653</v>
+        <v>21.9047622680664</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
+        <v>9.152799593248035</v>
+      </c>
+      <c r="U6" t="n">
+        <v>98.7614152226307</v>
+      </c>
+      <c r="V6" t="n">
+        <v>97.2005582635653</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1262,73 +1450,99 @@
         <v>-0.810433626174927</v>
       </c>
       <c r="P7" t="n">
+        <v>-1.48189222812653</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.317483067512512</v>
+      </c>
+      <c r="R7" t="n">
+        <v>31.4285717010498</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="R7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="S7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1377,79 +1591,105 @@
         <v>-0.70594334602356</v>
       </c>
       <c r="P8" t="n">
+        <v>-1.50513410568237</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.260645717382431</v>
+      </c>
+      <c r="R8" t="n">
+        <v>34.2857131958008</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="R8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1490,77 +1730,103 @@
         <v>-0.678962171077728</v>
       </c>
       <c r="P9" t="n">
+        <v>-1.45044994354248</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.26560452580452</v>
+      </c>
+      <c r="R9" t="n">
+        <v>24.5283012390137</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1605,63 +1871,89 @@
         <v>-0.7477903962135311</v>
       </c>
       <c r="P10" t="n">
+        <v>-1.37938976287842</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.184178426861763</v>
+      </c>
+      <c r="R10" t="n">
+        <v>26.8867931365967</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1687,40 +1979,48 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
-        <v>28.27058993220828</v>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>28.27058993220828</v>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
